--- a/dataSource/DocumentSheetOnly.xlsx
+++ b/dataSource/DocumentSheetOnly.xlsx
@@ -3,23 +3,1799 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E39B017FB1C3BA621F8CCA9DC9758F342C730686" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E39B017FB1C3BA621F8CCA9DC9758F342C730686" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1DFFC8F-625E-40A1-BAB1-BCF893579FFC}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" calcCompleted="0"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="574">
+  <si>
+    <t>Document Title</t>
+  </si>
+  <si>
+    <t>Associated organization
+(Journal/Agency/Company)</t>
+  </si>
+  <si>
+    <t>Source Category</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Document Identifier
+(DOI/Number/etc.)</t>
+  </si>
+  <si>
+    <t>Weblink</t>
+  </si>
+  <si>
+    <t>Contains Scales</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Other Notes</t>
+  </si>
+  <si>
+    <t>Assesment comments</t>
+  </si>
+  <si>
+    <t>Items Extracted
+(Yes/No)</t>
+  </si>
+  <si>
+    <t>Development of a Taxonomy of Human Performance: Validation Study of Ability Scales for Classifying Human Tasks</t>
+  </si>
+  <si>
+    <t>American Institutes for Research</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>George C. Thecuogus
+Edwin A. Fleishman</t>
+  </si>
+  <si>
+    <t>AIR-726/2035-4/71-TR10</t>
+  </si>
+  <si>
+    <t>https://apps.dtic.mil/dtic/tr/fulltext/u2/736194.pdf</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judge ratings, observation validity, </t>
+  </si>
+  <si>
+    <t>"Task Assesment Scales"</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Performance rating.</t>
+  </si>
+  <si>
+    <t>Psychological Bulletin</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>Landy, Frank J.
+ Farr, James L.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/0033-2909.87.1.72</t>
+  </si>
+  <si>
+    <t>https://us.corwin.com/sites/default/files/upm-binaries/22609_Vol_1_1.pdf</t>
+  </si>
+  <si>
+    <t>no?</t>
+  </si>
+  <si>
+    <t>Review, History, Response scales; process model of performance rating</t>
+  </si>
+  <si>
+    <t>Contains many relevant citations</t>
+  </si>
+  <si>
+    <t>The empowering leadership questionnaire:
+the construction and validation of a new
+scale for measuring leader behaviors</t>
+  </si>
+  <si>
+    <t>Journal of Organizational Behavior</t>
+  </si>
+  <si>
+    <t>JOSH A. ARNOLD, SHARON ARAD, JONATHAN A. RHOADES
+AND FRITZ DRASGOW</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/(SICI)1099-1379(200005)21:3&lt;249::AID-JOB10&gt;3.0.CO;2-%23</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/pdf/10.1002/(SICI)1099-1379(200005)21:3%3C249::AID-JOB10%3E3.0.CO;2-%23?casa_token=qK7DDRSKrCsAAAAA:NxpwuHQr_mequDF19c-9TactGbJSSMrvoi7KX3NKYwFmdMZoTJYYsi2-v11Vtuf4oTpP7t8NIqSl5PPn8A</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Organization, leadership</t>
+  </si>
+  <si>
+    <t>"Organizational citizenship behavior"</t>
+  </si>
+  <si>
+    <t>Standford Presenteeism Scale: Health Status and Employee Productivity</t>
+  </si>
+  <si>
+    <t>Journal of Occupational and Environmental Medicine</t>
+  </si>
+  <si>
+    <t>Koopman, Cheryl; Pelletier, Kenneth R.; Murray, James F.; Sharda, Claire E.; Berger, Marc L.; Turpin, Robin S.; Hackleman, Paul; Gibson, Pamela; Holmes, Danielle M; Bendel, Talor</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1097/00043764-200201000-00004</t>
+  </si>
+  <si>
+    <t>https://moodle.adaptland.it/pluginfile.php/20585/mod_data/content/39550/2002_Koopman.pdf</t>
+  </si>
+  <si>
+    <t>presenteeism, productivity</t>
+  </si>
+  <si>
+    <t>Stanford Presenteeism Scale (SPS-34 &amp; SPS-6)
+Might only be applicable in cases of adverse health statuses.</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>A Handbook for Measuring
+Employee Performance</t>
+  </si>
+  <si>
+    <t>United States Office of Personnel Management</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>ES/SWP-02803-03-17</t>
+  </si>
+  <si>
+    <t>https://www.opm.gov/policy-data-oversight/performance-management/measuring/employee_performance_handbook.pdf</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Halo in a Multidimensional Forced-Choice Performance Evaluation Scale</t>
+  </si>
+  <si>
+    <t>Journal of Applied Psychology</t>
+  </si>
+  <si>
+    <t>Larry M. King and John E. Hunter; 
+Frank L. Schmidt</t>
+  </si>
+  <si>
+    <t>DOI: 10.1037/0021-9010.65.5.507</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Frank_Schmidt10/publication/263924230_Halo_in_a_Multidimensional_Forced-Choice_Performance_Evaluation_Scale/links/53f8c5500cf24ddba7db48b9.pdf</t>
+  </si>
+  <si>
+    <t>not explicit (discussion pg. 511)</t>
+  </si>
+  <si>
+    <t>rater halo, forced-choice performance evaluation scale</t>
+  </si>
+  <si>
+    <t>potentially helpful literature review</t>
+  </si>
+  <si>
+    <t>Performance Management
+Appraisal Program (PMAP)
+Handbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Department of Health and Human Services </t>
+  </si>
+  <si>
+    <t>https://hr.nih.gov/sites/default/files/public/documents/workforce/performance-management/pdf/hhspmaphandbook.pdf</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance 
+Appraisal 
+Plan 
+Examples </t>
+  </si>
+  <si>
+    <t>usda</t>
+  </si>
+  <si>
+    <t>Governement</t>
+  </si>
+  <si>
+    <t>https://www.dm.usda.gov/employ/employeerelations/docs/Guide-ExPerfPlans.pdf</t>
+  </si>
+  <si>
+    <t>non-scalar</t>
+  </si>
+  <si>
+    <t>Psychological Well-Being and Job Satisfaction as Predictors of Job Performance</t>
+  </si>
+  <si>
+    <t>Journal of Occupational Health Psychology</t>
+  </si>
+  <si>
+    <t>Thomas A. Wright, Russell Cropanzano</t>
+  </si>
+  <si>
+    <t>DOI: 10.1037//1076-8998.5.1</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Russell_Cropanzano/publication/12655756_Psychological_well-being_and_job_satisfaction_as_predictors_of_job_performance/links/0deec533ae242ccfd3000000.pdf</t>
+  </si>
+  <si>
+    <t>yes, single-item p.87</t>
+  </si>
+  <si>
+    <t>job satisfaction, psychological well-being</t>
+  </si>
+  <si>
+    <t>Performance measured as one-item, supervisor rating: "Overall, how would you rate this employee's performance over the past year?"5-point scale ranged from 1 (poor) to 5 (excellent)</t>
+  </si>
+  <si>
+    <t>Distinguishing between task and contextual performance for nurses: development of a job performance scale</t>
+  </si>
+  <si>
+    <t>Jaimi H. Greenslade &amp; Nerina L. Jimmieson</t>
+  </si>
+  <si>
+    <t>doi: 10.1111/j.1365-2648.2007.04256.x</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary-wiley-com.proxy01.its.virginia.edu/doi/epdf/10.1111/j.1365-2648.2007.04256.x</t>
+  </si>
+  <si>
+    <t>maybe (p.607 &amp; 608)</t>
+  </si>
+  <si>
+    <t>task performance, contextual performance</t>
+  </si>
+  <si>
+    <t>Federal Employee Performance
+Rating Systems Need
+Fundamenta' Changes</t>
+  </si>
+  <si>
+    <t>GAO</t>
+  </si>
+  <si>
+    <t>THE COMPTROLLER GENERAL OF THE UNITED STATES</t>
+  </si>
+  <si>
+    <t>March 3 1978</t>
+  </si>
+  <si>
+    <t>FPC-77-80; B-150411.</t>
+  </si>
+  <si>
+    <t>https://www.gao.gov/assets/130/121710.pdf</t>
+  </si>
+  <si>
+    <t>no; scale on how employees feel about the current state of job performance evaluation</t>
+  </si>
+  <si>
+    <t>Meta-discussion</t>
+  </si>
+  <si>
+    <t>Behavioral Measurement in
+Business, Industry, and Government</t>
+  </si>
+  <si>
+    <t>Office of Naval Research</t>
+  </si>
+  <si>
+    <t>Judi Komaki, Robert L. Collins, Ted J. F. Thoene</t>
+  </si>
+  <si>
+    <t>https://apps.dtic.mil/dtic/tr/fulltext/u2/a072843.pdf</t>
+  </si>
+  <si>
+    <t>Overly specific examples</t>
+  </si>
+  <si>
+    <t>Self-appraisal of Job Performance</t>
+  </si>
+  <si>
+    <t>Personnel Psychology</t>
+  </si>
+  <si>
+    <t>Herbert H. Meyer</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.1744-6570.1980.tb02351.x</t>
+  </si>
+  <si>
+    <t>https://content.ebscohost.com/ContentServer.asp?EbscoContent=dGJyMNXb4kSep7U4yOvsOLCmsEiep69Sr6u4TbWWxWXS&amp;ContentCustomer=dGJyMPGpsUm0qq5NuePfgeyx847f1d%2BI5wAA&amp;T=P&amp;P=AN&amp;S=R&amp;D=bth&amp;K=6264292</t>
+  </si>
+  <si>
+    <t>yes (p.292)</t>
+  </si>
+  <si>
+    <t>self-rating</t>
+  </si>
+  <si>
+    <t>Perceived Organizational Support, Work Motivation, and Organizational Commitment as determinants of Job Performance</t>
+  </si>
+  <si>
+    <t>Journal of the Indian Academy of Applied Psychology</t>
+  </si>
+  <si>
+    <t>C. R. Darolia, Parveen Kumari, and Shashi Darolia</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/c310/50a9e0ca35f8875891718cf6bd8193ada7cc.pdf</t>
+  </si>
+  <si>
+    <t>mentions scales</t>
+  </si>
+  <si>
+    <t>organizational support, work motivation, organizational commitment</t>
+  </si>
+  <si>
+    <t>mentions scales: Occupational Commitment Questionnaire, Survey of Perceived Organizational Support, Employee's Motivation Schedule (unable to find source), Job Performance Scale (unable to find source)</t>
+  </si>
+  <si>
+    <t>Supervisory/Non-supervisory
+ Employee Performance Management
+ and
+ Recognition Program
+ Desk Reference</t>
+  </si>
+  <si>
+    <t>U.S. Department of Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office of the Chief Human Capital Officer </t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/sites/prod/files/2015/04/f22/Supervisory_Non-Supervisory%20Employee%20Performance%20Management%20and%20Recognition%20Program%20Desk%20Reference%2010-01-2010%20v2.pdf</t>
+  </si>
+  <si>
+    <t>possibly (pg 49)</t>
+  </si>
+  <si>
+    <t>Commitment to Organizations and Occupations: Extension and Test of a Three-Component Conceptualization</t>
+  </si>
+  <si>
+    <t>John P. Meyer, Natalie J. Allen, Catherine A. Smith</t>
+  </si>
+  <si>
+    <t>https://psycnet-apa-org.proxy01.its.virginia.edu/doi/10.1037/0021-9010.78.4.538</t>
+  </si>
+  <si>
+    <t>https://psycnet-apa-org.proxy01.its.virginia.edu/fulltext/1993-47410-001.html</t>
+  </si>
+  <si>
+    <t>organizational commitment, OCQ</t>
+  </si>
+  <si>
+    <t>Meyer &amp; Allen have other papers which discuss what their scale</t>
+  </si>
+  <si>
+    <t>Development of the Behaviorally Anchored Rating Scales for the Skills Demonstration and Progression Guide</t>
+  </si>
+  <si>
+    <t>ETS Research Report Series</t>
+  </si>
+  <si>
+    <t>academic</t>
+  </si>
+  <si>
+    <t>David M. Klieger  Harrison J. Kell  Samuel Rikoon  Kri N. Burkander  Jennifer L. Bochenek  Jane R. Shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.1002/ets2.12210</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1002/ets2.12210</t>
+  </si>
+  <si>
+    <t>Censored scales; list of citations of other scales</t>
+  </si>
+  <si>
+    <t>BARS</t>
+  </si>
+  <si>
+    <t>Appraising Performance Appraisal Systems in the Federal Government:
+A Literature Review, Preliminary Findings, and Prospects for Future Research</t>
+  </si>
+  <si>
+    <t>Public Management Research Conference</t>
+  </si>
+  <si>
+    <t>Government/Academic</t>
+  </si>
+  <si>
+    <t>Dr. Ellen V. Rubin</t>
+  </si>
+  <si>
+    <t>https://www.maxwell.syr.edu/uploadedFiles/conferences/pmrc/Files/Rubin_Appraising%20Performance%20Appraisal%20Systems.pdf</t>
+  </si>
+  <si>
+    <t>meta-discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perceived Organizational Support </t>
+  </si>
+  <si>
+    <t>Robert Eisenberger, Robin Huntington, Steven Hutchison, Debora Sowa</t>
+  </si>
+  <si>
+    <t>https://psycnet-apa-org.proxy01.its.virginia.edu/doi/10.1037/0021-9010.71.3.500</t>
+  </si>
+  <si>
+    <t>https://psycnet-apa-org.proxy01.its.virginia.edu/fulltext/1986-31507-001.pdf</t>
+  </si>
+  <si>
+    <t>SPOS, organizational support, commitment</t>
+  </si>
+  <si>
+    <t>Structured IntervIews:
+A Practical Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Office of Personnel Management </t>
+  </si>
+  <si>
+    <t>https://www.opm.gov/policy-data-oversight/assessment-and-selection/structured-interviews/guide.pdf</t>
+  </si>
+  <si>
+    <t>few (pg 30); not what we are looking for</t>
+  </si>
+  <si>
+    <t>The Department of the Interior’s
+Performance Appraisal Handbook</t>
+  </si>
+  <si>
+    <t>Office of the Secretary
+Office of Human Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#370DM430HB-1 </t>
+  </si>
+  <si>
+    <t>https://www.doi.gov/sites/doi.gov/files/elips/documents/doi_performance_appraisal_handbook_10-2016.pdf</t>
+  </si>
+  <si>
+    <t>discusses scale creation?
+appendix 8</t>
+  </si>
+  <si>
+    <t>The PI Behavioral Assessment</t>
+  </si>
+  <si>
+    <t>"The predictive Index"</t>
+  </si>
+  <si>
+    <t>commerical</t>
+  </si>
+  <si>
+    <t>https://www.predictiveindex.com/assessments/behavioral-assessment/</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>smells like BS
+4 factor mode: dominance, extraversion patience, formality</t>
+  </si>
+  <si>
+    <t>HR tools</t>
+  </si>
+  <si>
+    <t>Cognos HR</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>https://www.cognoshr.com/assessment-tools</t>
+  </si>
+  <si>
+    <t>"The Judgment Index™"</t>
+  </si>
+  <si>
+    <t>Factor Structure and Construct Validity of the Worker Role Self-Assessment (WRS) When Used for People With Psychiatric Disabilities in Sweden</t>
+  </si>
+  <si>
+    <t>Evaluation &amp; the Health Professions</t>
+  </si>
+  <si>
+    <t>Mona Eklund and Martin Ba¨ckstro¨m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.1177/0163278716643825</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/full/10.1177/0163278716643825</t>
+  </si>
+  <si>
+    <t>yes, tangentially
+pg 305</t>
+  </si>
+  <si>
+    <t>for clinical populations, but possibly relevant</t>
+  </si>
+  <si>
+    <t>ProfileXT®
+User Training Manual</t>
+  </si>
+  <si>
+    <t>http://cdn2.hubspot.net/hub/155091/file-608530384-pdf/docs/pxt</t>
+  </si>
+  <si>
+    <t>"yes" page 41</t>
+  </si>
+  <si>
+    <t>seems terrible and not actually valid</t>
+  </si>
+  <si>
+    <t>An Investigation of Two Constructs: Organization Membership Satisfaction and Job Performance Satisfaction</t>
+  </si>
+  <si>
+    <t>Air Force Institute of Technology</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>Wesley B. Dixon</t>
+  </si>
+  <si>
+    <t>https://apps.dtic.mil/sti/pdfs/ADA076980.pdf</t>
+  </si>
+  <si>
+    <t>yes pg. 86</t>
+  </si>
+  <si>
+    <t>satisfaction, performance, Membership-Performance Questionaire</t>
+  </si>
+  <si>
+    <t>Minnesota Satisfaction Questionnaire</t>
+  </si>
+  <si>
+    <t>The Navy Job Performance Measurement Program: Background, Inception, and Current Status</t>
+  </si>
+  <si>
+    <t>Navy Personnel Research and Development Center</t>
+  </si>
+  <si>
+    <t>Gerald J. Laabs, Virginia M. Berry</t>
+  </si>
+  <si>
+    <t>ADA186100</t>
+  </si>
+  <si>
+    <t>https://apps.dtic.mil/sti/pdfs/ADA186100.pdf</t>
+  </si>
+  <si>
+    <t>Navy, development of job performance measures</t>
+  </si>
+  <si>
+    <t>Impact of Employee Participation on Job Satisfaction, Employee Commitment, and Employee Productivity</t>
+  </si>
+  <si>
+    <t>International Review of Business Research Papers</t>
+  </si>
+  <si>
+    <t>Komal Khalid Bhatti, Tahir Masood Qureshi</t>
+  </si>
+  <si>
+    <t>https://d1wqtxts1xzle7.cloudfront.net/31222208/Bhatti.pdf?1367803413=&amp;response-content-disposition=inline%3B+filename%3DImpact_of_employee_participation_on_job.pdf&amp;Expires=1592942435&amp;Signature=VuvoRjLm6NSoKNWC5Y7OozgvadJPDv1XzI8ECTGFIqfDVmB68KQidzGqb1Z4-B-MchWyBQG6acB6M5IKQqsHUwKLksAxAIov7dM6azC7pa5ZO9jPOgafVHnZ2a9I1ELzi5olqNGmSGasBK3j~l4Jng02VBmKb8~VR7GCO8kg14KOGQRtAMBrheog4mERc0FuwFn-~vv04lWLMnBAQsf3V0Vez5kmHdeCcSUNy59ibSCytWYTYyDaR7L~qmNxCY7Bs-4zXkSv92gTyQ-HuKkwKp59WThPWujy06wRKpsn0W9iHwr1MKU30loexl6-zF4A5CsBa1O2IsWHdnrEW2irwA__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
+  </si>
+  <si>
+    <t>no mentions scales, pg. 59</t>
+  </si>
+  <si>
+    <t>employee participation, job satisfaction, employee commitment, employee productivity</t>
+  </si>
+  <si>
+    <t>More Progress Toward a Taxonomy of Managerial Performance Requirements</t>
+  </si>
+  <si>
+    <t>Human Performance</t>
+  </si>
+  <si>
+    <t>Borman, Brush</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1207/s15327043hup0601_1</t>
+  </si>
+  <si>
+    <t>http://jacksonfall14professionalissues.pbworks.com/w/file/fetch/106744248/Borman_20_26_20Brush_20%281993%29.pdf</t>
+  </si>
+  <si>
+    <t>p.11</t>
+  </si>
+  <si>
+    <t>performance requirements, dimensions</t>
+  </si>
+  <si>
+    <t>Dimension of Job Performance</t>
+  </si>
+  <si>
+    <t>Murphy, Kroker</t>
+  </si>
+  <si>
+    <t>DAAG 29-81-D-OlOO</t>
+  </si>
+  <si>
+    <t>https://apps.dtic.mil/sti/pdfs/ADA194951.pdf</t>
+  </si>
+  <si>
+    <t>performance measures, work behaviors, team, individual</t>
+  </si>
+  <si>
+    <t>The Italian version of the Job Crafting Scale (JCS)</t>
+  </si>
+  <si>
+    <t>Applied Psychology Bulletin (Bollettino di Psicologia Applicata)</t>
+  </si>
+  <si>
+    <t>Cenciotti, Borgogni, Callea, Colombo, Cotese, Ingusci, Miraglia, Zito</t>
+  </si>
+  <si>
+    <t>http://proxy01.its.virginia.edu/login?url=http://search.ebscohost.com/login.aspx?direct=true&amp;db=a9h&amp;AN=121086285&amp;site=ehost-live&amp;scope=site</t>
+  </si>
+  <si>
+    <t>job crafting scale on p. 32</t>
+  </si>
+  <si>
+    <t>mentions performance, relationship between job performance and crafting</t>
+  </si>
+  <si>
+    <t>Comparative Analysis of the Reliability of Job Performance Ratings.</t>
+  </si>
+  <si>
+    <t>Visweswaran, Ones, Schmidt</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/0021-9010.81.5.557</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Chockalingam_vish_Viswesvaran/publication/232489357_Comparative_Analysis_of_Reliability_of_Job_Performance_Ratings/links/54e250530cf2c3e7d2d3723c.pdf</t>
+  </si>
+  <si>
+    <t>dimensions</t>
+  </si>
+  <si>
+    <t>Self-reported Work Ability and Work Performance in Workers with Chronic Nonspecific Musculoskeletal Pain</t>
+  </si>
+  <si>
+    <t>Journal of Occupational Rehabilitation</t>
+  </si>
+  <si>
+    <t>Haitze J. de Vries, Michiel F. Reneman, Johan W. Groothoff, Jan H. B. Geertzen, Sandra Brouwer</t>
+  </si>
+  <si>
+    <t>DOI 10.1007/s10926-012-9373-1</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1007/s10926-012-9373-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no. mentions, pg. 2-3 </t>
+  </si>
+  <si>
+    <t>performance, chronic illness</t>
+  </si>
+  <si>
+    <t>World Health Organization's Health and Work Performance Questionnaire</t>
+  </si>
+  <si>
+    <t>World Health Organization Health and Performance Questionnaire</t>
+  </si>
+  <si>
+    <t>WHO</t>
+  </si>
+  <si>
+    <t>https://www.hcp.med.harvard.edu/hpq/ftpdir/survey_clinical_7day.pdf</t>
+  </si>
+  <si>
+    <t>yes, 1-6</t>
+  </si>
+  <si>
+    <t>performance questionnaire, chronic illness, chronic pain</t>
+  </si>
+  <si>
+    <t>importance of including these kind of measures for ethnics evaluation?</t>
+  </si>
+  <si>
+    <t>Endicott work productivity scale (EWPS): A new measure to assess treatment effects</t>
+  </si>
+  <si>
+    <t>Psychopharmacology Bulletin</t>
+  </si>
+  <si>
+    <t>Jean Edicott and John Nee</t>
+  </si>
+  <si>
+    <t>https://search-proquest-com.proxy01.its.virginia.edu/docview/78956500/499BA4C1A5AA4CC6PQ/1?accountid=14678</t>
+  </si>
+  <si>
+    <t>potentially?</t>
+  </si>
+  <si>
+    <t>I cannot find the full text of this article, but it seems useful</t>
+  </si>
+  <si>
+    <t>The Role-Based Performance Scale: Validity Analysis of a Theory-Based Measure</t>
+  </si>
+  <si>
+    <t>Center for Advanced Human Resource Studies</t>
+  </si>
+  <si>
+    <t>Theresa M. Welbourne, Diane E. Johnson, Amir Eres</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5465/256941</t>
+  </si>
+  <si>
+    <t>https://digitalcommons.ilr.cornell.edu/cgi/viewcontent.cgi?article=1146&amp;=&amp;context=cahrswp&amp;=&amp;sei-redir=1&amp;referer=https%253A%252F%252Fscholar.google.com%252Fscholar%253Fhl%253Den%2526as_sdt%253D0%25252C47%2526q%253D%252522job%252Bperformance%252522%252Bscale%2526btnG%253D#search=%22job%20performance%20scale%22</t>
+  </si>
+  <si>
+    <t>yes, pg. 30</t>
+  </si>
+  <si>
+    <t>role theory, identity theory, performance measurement</t>
+  </si>
+  <si>
+    <t>* Use of this scale requires written permission from the first author of this paper. Copyright, 1996.</t>
+  </si>
+  <si>
+    <t>Development and validation of the job crafting scale</t>
+  </si>
+  <si>
+    <t>Journal of Vocational Behavior</t>
+  </si>
+  <si>
+    <t>Maria Tims, Arnold B. Bakker, Daantje Derks</t>
+  </si>
+  <si>
+    <t>doi:10.1016/j.jvb.2011.05.009</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0001879111000789</t>
+  </si>
+  <si>
+    <t>yes, pg. 177</t>
+  </si>
+  <si>
+    <t>job crafting</t>
+  </si>
+  <si>
+    <t>Autonomy and Workload Among Temporary Workers: Their Effects on Job Satisfaction, Organizational Commitment, Life Satisfaction, and Self-Reated Performance</t>
+  </si>
+  <si>
+    <t>International Journal of Stress Management</t>
+  </si>
+  <si>
+    <t>Nele De Cuyper and Hans De Witte</t>
+  </si>
+  <si>
+    <t>DOI: 10.1037/1072-5245.13.4.441</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Hans_De_Witte/publication/284200846_Job_insecurity_among_temporary_versus_permanent_workers_Effects_on_job_satisfaction_organizational_commitment_life_satisfaction_and_self-rated_performance/links/567a9af408ae1e63f1df4bbc.pdf</t>
+  </si>
+  <si>
+    <t>discussion of, pg. 448</t>
+  </si>
+  <si>
+    <t>autonomy, job satisfaction, work performance, organizational commitment</t>
+  </si>
+  <si>
+    <t>Autonomy (Rosenthal, Guest, and Peccei 1996) (located?); Workload (Semmer, Zapf, and Dunckel 1991) (unable to locate); Job satisfaction (Prince 1997) (located); Organizational commitment (Cook and Wall 1980); Life satisfaction (Isaksson et al 2003); Self-performance (Abramis 1994)</t>
+  </si>
+  <si>
+    <t>Gender differences in managers' causal explanations for their work performance: a study in two organizations</t>
+  </si>
+  <si>
+    <t>Journal of Occupational and Organizational Psychology</t>
+  </si>
+  <si>
+    <t>Patrice Rosenthal, David Guest, Riccardo Peccei</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.2044-8325.1996.tb00606.x</t>
+  </si>
+  <si>
+    <t>http://web.b.ebscohost.com.proxy01.its.virginia.edu/ehost/pdfviewer/pdfviewer?vid=1&amp;sid=ee90d1d7-372c-4fab-a303-9bda115ddc08%40pdc-v-sessmgr01</t>
+  </si>
+  <si>
+    <t>yes, pg. 148</t>
+  </si>
+  <si>
+    <t>successful and unsuccessful performance, gender</t>
+  </si>
+  <si>
+    <t>De Cuyper and De Witte said this study was about autonomy, but it doesn't appear to be</t>
+  </si>
+  <si>
+    <t>Available instruments for measurement of psychosocial factors in the work environement</t>
+  </si>
+  <si>
+    <t>Int Arch Occup Environ Health</t>
+  </si>
+  <si>
+    <t>Maria Carla Tabanelli, Marco Depolo, Robin M. T. Cooke, Guido Sarchielli, Roberta BonWglioli, Stefano Mattioli, Francesco S. Violante</t>
+  </si>
+  <si>
+    <t>DOI: 10.1007/s00420-008-0312-6</t>
+  </si>
+  <si>
+    <t>http://safewellwork.com/instruments_for_assessment.pdf</t>
+  </si>
+  <si>
+    <t>work-related psychosocial factors</t>
+  </si>
+  <si>
+    <t>Literature Review; we should look through all of the articles they find, they provide weblinks in the paper</t>
+  </si>
+  <si>
+    <t>New work attitude measures of trust, organizational commitment and personal need non-fulfilment</t>
+  </si>
+  <si>
+    <t>Jounral of Occupational Psychology</t>
+  </si>
+  <si>
+    <t>John Cook and Toby Wall</t>
+  </si>
+  <si>
+    <t>http://jwalkonline.org/docs/Grad%20Classes/Survey/articles/psyclimate/noted/org%20comm%20scale.pdf</t>
+  </si>
+  <si>
+    <t>yes, pg. 50-2</t>
+  </si>
+  <si>
+    <t>trust, work attitude, trust, organizational commitment</t>
+  </si>
+  <si>
+    <t>Personality, political skill, and job performance</t>
+  </si>
+  <si>
+    <t>Blickle</t>
+  </si>
+  <si>
+    <t>http://www.academia.edu/download/42428138/Personality_Political_Skill_and_Job_Perf20160208-1018-1cxqc6k.pdf</t>
+  </si>
+  <si>
+    <t>p. 381</t>
+  </si>
+  <si>
+    <t>HSE Management Standards Indicator Tool</t>
+  </si>
+  <si>
+    <t>UK Health and Safety Executive</t>
+  </si>
+  <si>
+    <t>commerical/non-US government</t>
+  </si>
+  <si>
+    <t>https://www.hse.gov.uk/stress/standards/downloads.htm</t>
+  </si>
+  <si>
+    <t>https://www.hse.gov.uk/stress/assets/docs/indicatortool.pdf</t>
+  </si>
+  <si>
+    <t>stress; work performance</t>
+  </si>
+  <si>
+    <t>QPS Nordic: General Questionnaire for Psychological and Social Factors at Work</t>
+  </si>
+  <si>
+    <t>Nordic Council of Ministers</t>
+  </si>
+  <si>
+    <t>Project 42.50.01.01</t>
+  </si>
+  <si>
+    <t>https://www.qps-nordic.org/en/</t>
+  </si>
+  <si>
+    <t>https://www.qps-nordic.org/en/doc/QPSNordic_questionnaire.pdf</t>
+  </si>
+  <si>
+    <t>stress, working hours, job involvement, turnover, job satisfaction</t>
+  </si>
+  <si>
+    <t>The Job Diagnostic Survey: An Instrument for the Diagnosis of Jobs anbd the Evaluation of Job Redesign projects</t>
+  </si>
+  <si>
+    <t>Yale University; Office of Naval Research Manpower Administration</t>
+  </si>
+  <si>
+    <t>J. Richard Hackman and Greg R. Oldham</t>
+  </si>
+  <si>
+    <t>https://apps.dtic.mil/sti/pdfs/AD0779828.pdf</t>
+  </si>
+  <si>
+    <t>yes; pg. 42 - 53</t>
+  </si>
+  <si>
+    <t>job characteristics, internal work motivation, job satisfaction</t>
+  </si>
+  <si>
+    <t>NIOSH Generic Job Stress Questionnaire</t>
+  </si>
+  <si>
+    <t>National Institute for Occupational Safety and Health</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/niosh/topics/workorg/detail088.html</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/niosh/topics/workorg/tools/pdfs/NIOSH-Generic-Job-Stress-Questionaire.pdf</t>
+  </si>
+  <si>
+    <t>conflict at work, health, job requirements, job satisfaction, work environment, work reponsibility</t>
+  </si>
+  <si>
+    <t>The moderating role of employee positive well being on the relation between job satisfaction and job performance.</t>
+  </si>
+  <si>
+    <t>Wright, T. A., Cropanzano, R., &amp; Bonett, D. G.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/1076-8998.12.2.93</t>
+  </si>
+  <si>
+    <t>https://psycnet.apa.org/record/2007-05780-001</t>
+  </si>
+  <si>
+    <t>meager, but yes: p.98</t>
+  </si>
+  <si>
+    <t>People at Work survey: An assessment of psychosocial hazards and factors in the workplace</t>
+  </si>
+  <si>
+    <t>Australian government</t>
+  </si>
+  <si>
+    <t>non-US government</t>
+  </si>
+  <si>
+    <t>https://www.worksafe.qld.gov.au/injury-prevention-safety/mentally-healthy-workplaces/guidance-and-tools/people-at-work/implementing-people-at-work</t>
+  </si>
+  <si>
+    <t>https://www.worksafe.qld.gov.au/__data/assets/pdf_file/0009/128286/paw-survey.pdf</t>
+  </si>
+  <si>
+    <t>job demands, job resources, musculoskeletal symptoms, job burnout, sleep disturbances, absenteeism, turnover, job dissatisfaction</t>
+  </si>
+  <si>
+    <t>Psychological well-being and job satisfaction as predictors of job performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wright, T. A., &amp; Cropanzano, R. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.1037/1076-8998.5.1.84</t>
+  </si>
+  <si>
+    <t>https://psycnet.apa.org/record/1999-15533-008</t>
+  </si>
+  <si>
+    <t>not explicit</t>
+  </si>
+  <si>
+    <t>Stress - Mind - Health: The START procedure for the risk assessment and risk management of work-related stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satzer, Rolf &amp; Geray, Max </t>
+  </si>
+  <si>
+    <t>https://www.boeckler.de/pdf/p_arbp_174.pdf</t>
+  </si>
+  <si>
+    <t>yes, pg. 42 - 44</t>
+  </si>
+  <si>
+    <t>job stress, work recognition, job satisfaction</t>
+  </si>
+  <si>
+    <t>Pressure Management Indicator Questionnaire</t>
+  </si>
+  <si>
+    <t>Resource Systems Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commerical </t>
+  </si>
+  <si>
+    <t>Stephen Williams</t>
+  </si>
+  <si>
+    <t>http://repositorio.ismt.pt/bitstream/123456789/637/5/Anexo4_PMI_-_English%5B1%5D.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job satisfaction, job pressure, mental health, physical health, behavior, perception, </t>
+  </si>
+  <si>
+    <t>Stress &amp; Satisfction Offset Score (SSOS) A Self-Assessment</t>
+  </si>
+  <si>
+    <t>Health Canada; Centre for Addiction and Mental Health</t>
+  </si>
+  <si>
+    <t>Martin Shaine</t>
+  </si>
+  <si>
+    <t>http://www.workplacementalhealth.org/getattachment/Case-Studies/Pittsburgh-Plate-Glass-Industries-(PPG)-II/fd_ssos.pdf?lang=en-US&amp;ext=.pdf</t>
+  </si>
+  <si>
+    <t>control, reward, demand, effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is not to be used as an evaluation tool; it only provides a quick snapshot of how stressful the working environment is. Users of this tool are permitted to utilise the material for their own internal training and educational purposes only. </t>
+  </si>
+  <si>
+    <t>Work Environment Survey</t>
+  </si>
+  <si>
+    <t>Newfoundland and Labrador Statistics Agency</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/exec/hrs/files/publications-wes2011.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, can be extracted from 2011 report results (pg. 43 </t>
+  </si>
+  <si>
+    <t>job satisfaction, supervisor relationship, organizational commitment, communication satisfaction, co-worker relationships, health &amp; safety awareness, work-life balance, organizational trust, work load, compensation satisfaction, strategy orientation, learning &amp; development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working Conditions and Control Questionnaire </t>
+  </si>
+  <si>
+    <t>Department of Work Psychology of University of Liege, Belgium</t>
+  </si>
+  <si>
+    <t>commerical/academic</t>
+  </si>
+  <si>
+    <t>Isabelle Hansez</t>
+  </si>
+  <si>
+    <t>http://www.woccq.be/woccq/les-questionnaires.html</t>
+  </si>
+  <si>
+    <t>yes, two scales</t>
+  </si>
+  <si>
+    <t>The Copenhagen Psychosocial Questionnaire - a tool for the assessment and improvement of the psychosocial work environment</t>
+  </si>
+  <si>
+    <t>Scandinavian Journal of Work, Environment &amp; Health</t>
+  </si>
+  <si>
+    <t>Tage S Kristensen, Harald Hannerz, Annie Hogh, Vilhelm Borg</t>
+  </si>
+  <si>
+    <t>http://www.jstor.com/stable/40967527</t>
+  </si>
+  <si>
+    <t>yes, 440</t>
+  </si>
+  <si>
+    <t>productibity, tasks, interpersonal relationships</t>
+  </si>
+  <si>
+    <t>The measurement of effort-reward imbalance at work: European comparisions</t>
+  </si>
+  <si>
+    <t>Social Science &amp; Medicine</t>
+  </si>
+  <si>
+    <t>Johannes Siegrista, Dagmar Starkea, Tarani Chandolab, Isabelle Godinc, Michael Marmotb, Isabelle Niedhammerd, Richard Petere</t>
+  </si>
+  <si>
+    <t>doi:10.1016/S0277-9536(03)00351-4</t>
+  </si>
+  <si>
+    <t>https://www-sciencedirect-com.proxy01.its.virginia.edu/science/article/pii/S0277953603003514</t>
+  </si>
+  <si>
+    <t>yes, 1496 - 7</t>
+  </si>
+  <si>
+    <t>effort-reward imbalance, work-related stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Measurement of job characteristics </t>
+  </si>
+  <si>
+    <t>The Academy of Management Journal</t>
+  </si>
+  <si>
+    <t>Henry P. Sims, Jr., Andrew D. Szilagyi and Robert T. Keller</t>
+  </si>
+  <si>
+    <t>DOI: 10.2307/255772</t>
+  </si>
+  <si>
+    <t>https://www-jstor-org.proxy01.its.virginia.edu/stable/255772</t>
+  </si>
+  <si>
+    <t>yes, 200</t>
+  </si>
+  <si>
+    <t>Job Characteristic Inventory, individual productivity, job satisfaction</t>
+  </si>
+  <si>
+    <t>Enhancing learning opportunities at work</t>
+  </si>
+  <si>
+    <t>KATHOLIEKE UNIVERSITEIT LEUVEN</t>
+  </si>
+  <si>
+    <t>Rik Huys, Katleen De Rick,  Tom Vandenbrande</t>
+  </si>
+  <si>
+    <t>https://core.ac.uk/download/pdf/34610119.pdf</t>
+  </si>
+  <si>
+    <t>yes, 82 -85</t>
+  </si>
+  <si>
+    <t>level of difficulty, autonomy, information supply, completeness</t>
+  </si>
+  <si>
+    <t>Actual authors of the scale: Dhondt, S. &amp; Houtman, I. (1996), The WEBA-method: NOVA-WEBA manual, a questionnaire to detect bottlenecks in well-being], Leiden: TNO Preventie en Gezondheid.</t>
+  </si>
+  <si>
+    <t>The measurement of work: hierachical representation of the Mutlimethod Job Design Questionnaire</t>
+  </si>
+  <si>
+    <t>Jeffrey R. Edwards, Judith A. Scully, Mary D. Brtek</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.1744-6570.1999.tb00163.x</t>
+  </si>
+  <si>
+    <t>http://web.a.ebscohost.com.proxy01.its.virginia.edu/ehost/detail/detail?vid=3&amp;sid=8feb08f9-1292-457b-bc28-e2a5da6bd874%40sessionmgr4006&amp;bdata=JnNpdGU9ZWhvc3QtbGl2ZSZzY29wZT1zaXRl#AN=1986070&amp;db=bah</t>
+  </si>
+  <si>
+    <t>yes, 316 - 8</t>
+  </si>
+  <si>
+    <t>Multimethod Job Design Questionnaire; motivational, mechanistic, biological, perceptual-motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work design and management in the manufacturing sector: development and validation of the Work Organisation Assessment Questionnaire </t>
+  </si>
+  <si>
+    <t>Occupational and Environmental Medicine</t>
+  </si>
+  <si>
+    <t>A Griffiths, T Cox, M Karanika, S Khan, J-M Tomas</t>
+  </si>
+  <si>
+    <t>doi: 10.1136/oem.2005.023671</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/6928049_Work_design_and_management_in_the_manufacturing_sector_Development_and_validation_of_the_Work_Organisation_Assessment_Questionnaire</t>
+  </si>
+  <si>
+    <t>yes, pg. 671</t>
+  </si>
+  <si>
+    <t>Work Organization Assessment Questionnaire</t>
+  </si>
+  <si>
+    <t>Another article which uses this questionnaire: Wynne-Jones et al (2009) - Examination of the Work Organization Assessment Questionnaire in Public Sector Workers</t>
+  </si>
+  <si>
+    <t>Development and Testing of the Workplace Stressors Assessment Questionnaire</t>
+  </si>
+  <si>
+    <t>American College of Occupational and Environmental Medicine</t>
+  </si>
+  <si>
+    <t>Maysaa H. Mahmood, Stephen Joel Coons, Mignonne C. Guy, and Kenneth R. Pelletier</t>
+  </si>
+  <si>
+    <t>DOI: 10.1097/JOM.0b013e3181fb53dc</t>
+  </si>
+  <si>
+    <t>http://ovidsp.dc2.ovid.com.proxy01.its.virginia.edu/sp-4.06.0a/ovidweb.cgi?WebLinkFrameset=1&amp;S=KICHFPCHBJEBDAHLJPBKGGBFKINNAA00&amp;returnUrl=ovidweb.cgi%3f%26Full%2bText%3dL%257cS.sh.28.29%257c0%257c00043764-201012000-00010%26S%3dKICHFPCHBJEBDAHLJPBKGGBFKINNAA00&amp;fromjumpstart=0&amp;directlink=http%3a%2f%2fovidsp.dc2.ovid.com%2fovftpdfs%2fFPEBJPBFGGHLBJ00%2ffs047%2fovft%2flive%2fgv024%2f00043764%2f00043764-201012000-00010.pdf&amp;filename=Development+and+Testing+of+the+Workplace+Stressors+Assessment+Questionnaire.&amp;pdf_key=FPEBJPBFGGHLBJ00&amp;pdf_index=/fs047/ovft/live/gv024/00043764/00043764-201012000-00010</t>
+  </si>
+  <si>
+    <t>demands, control, support, role, relationships, rewards, change, communication</t>
+  </si>
+  <si>
+    <t>The Measurement of Organizational Commitment</t>
+  </si>
+  <si>
+    <t>Organizational Efectiveness Research Program, Office of Naval Research</t>
+  </si>
+  <si>
+    <t>Richard T. Mowday, Richard M. Steers, Lyman W. Porter</t>
+  </si>
+  <si>
+    <t>https://apps.dtic.mil/dtic/tr/fulltext/u2/a057377.pdf</t>
+  </si>
+  <si>
+    <t>yes, pg. 34</t>
+  </si>
+  <si>
+    <t>organizational commitment, job satisfaction, career satisfaction, job involvement, job performance</t>
+  </si>
+  <si>
+    <t>Handbook of organizational measurement</t>
+  </si>
+  <si>
+    <t>International Journal of Manpower</t>
+  </si>
+  <si>
+    <t>James L. Price</t>
+  </si>
+  <si>
+    <t>https://doi-org.proxy01.its.virginia.edu/10.1108/01437729710182260</t>
+  </si>
+  <si>
+    <t>https://www-emerald-com.proxy01.its.virginia.edu/insight/content/doi/10.1108/01437729710182260/full/pdf?title=handbook-of-organizational-measurement</t>
+  </si>
+  <si>
+    <t>many scales; unique scale pg. 394; pg. 465</t>
+  </si>
+  <si>
+    <t>organizational measurement; literature review</t>
+  </si>
+  <si>
+    <t>Literature review; has reproduced scales throughout the book, need to look through</t>
+  </si>
+  <si>
+    <t>Links between work experiences and organizational commitment during the first year of employment: A longitudinal analysis</t>
+  </si>
+  <si>
+    <t>Journal of Occupational Psychology</t>
+  </si>
+  <si>
+    <t>John P. Meyer, Natalie J. Allen</t>
+  </si>
+  <si>
+    <t>https://content.ebscohost.com/ContentServer.asp?EbscoContent=dGJyMNLr40SeprU4yOvqOLCmsEiep65Ssay4SrSWxWXS&amp;ContentCustomer=dGJyMPGpsUm0qq5NuePfgeyx847f1d%2BI5wAA&amp;T=P&amp;P=AN&amp;S=R&amp;D=bth&amp;K=4619368</t>
+  </si>
+  <si>
+    <t>partial, pg. 209</t>
+  </si>
+  <si>
+    <t>organizational commitment</t>
+  </si>
+  <si>
+    <t>partial scale (found full?- The measure and antecedents of affective, continuance, and normative commitment to the organization)</t>
+  </si>
+  <si>
+    <t>Scales for the measurement of some work attitudes and aspects of psychological well-being</t>
+  </si>
+  <si>
+    <t>Peter Warr, John Cook, Toby Wall</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.2044-8325.1979.tb00448.x</t>
+  </si>
+  <si>
+    <t>http://web.b.ebscohost.com.proxy01.its.virginia.edu/ehost/detail/detail?vid=4&amp;sid=c91d799d-00d7-457d-acfb-9d6752caa7b0%40pdc-v-sessmgr06&amp;bdata=JnNpdGU9ZWhvc3QtbGl2ZSZzY29wZT1zaXRl#AN=6293773&amp;db=a9h</t>
+  </si>
+  <si>
+    <t>yes, 145- 7</t>
+  </si>
+  <si>
+    <t>work attitudes, work involvement, job motivation, job satisfaction, life satisfaction</t>
+  </si>
+  <si>
+    <t>The measure and antecedents of affective, continuance, and normative commitment to the organization</t>
+  </si>
+  <si>
+    <t>Natalie J. Allen, John P. Meyer</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.2044-8325.1990.tb00506.x</t>
+  </si>
+  <si>
+    <t>https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=b952747e-91eb-4e1b-8288-87893f08db24%40pdc-v-sessmgr02</t>
+  </si>
+  <si>
+    <t>yes, 6-7</t>
+  </si>
+  <si>
+    <t>commitment</t>
+  </si>
+  <si>
+    <t>The Job Descriptive Index &amp; The Job in General Scale</t>
+  </si>
+  <si>
+    <t>Bowling Green State University</t>
+  </si>
+  <si>
+    <t>https://www.bgsu.edu/arts-and-sciences/psychology/services/job-descriptive-index.html</t>
+  </si>
+  <si>
+    <t>Further Evidence on Some New Measures of Job Control, Cognitive demand and production responsibility</t>
+  </si>
+  <si>
+    <t>Toby D. Wall, Paul R. Jackson, and Sean Mullarkey</t>
+  </si>
+  <si>
+    <t>https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=69df4cdb-22b3-465a-bd59-89640574f343%40pdc-v-sessmgr01</t>
+  </si>
+  <si>
+    <t>yes, 439</t>
+  </si>
+  <si>
+    <t>Absenteeism and Turnover of Hospital Employees</t>
+  </si>
+  <si>
+    <t>J.L. Price and C.W. Mueller</t>
+  </si>
+  <si>
+    <t>yes, Price Handbook of organizational management pg. 522</t>
+  </si>
+  <si>
+    <t>Measuring Facets of Job Ambiguity: Construct Validity Evidence</t>
+  </si>
+  <si>
+    <t>James A. Breaugh and Joseph P. Colihan</t>
+  </si>
+  <si>
+    <t>DOI: 10.1037/0021-9010.79.2.191</t>
+  </si>
+  <si>
+    <t>https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=61f1fbd7-63bc-487d-90e7-2400ac5aa37b%40sessionmgr103</t>
+  </si>
+  <si>
+    <t>yes, pg. 202</t>
+  </si>
+  <si>
+    <t>The determinants of career intent among physicians at a US Air Force hospital</t>
+  </si>
+  <si>
+    <t>Human Relations</t>
+  </si>
+  <si>
+    <t>Kim, S.-W., Price, J.L. Mueller, C.W. and Watson, T.W.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/001872679604900704</t>
+  </si>
+  <si>
+    <t>yes, Price Handbook of organizational management pg. 425, 500</t>
+  </si>
+  <si>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>http://vpr.psych.umn.edu/sites/vpr.dl.umn.edu/files/msq_booklet_1977.pdf</t>
+  </si>
+  <si>
+    <t>duplicate of Dixon (1979)</t>
+  </si>
+  <si>
+    <t>Quality of Worklife Module</t>
+  </si>
+  <si>
+    <t>NIOSH</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/niosh/topics/stress/pdfs/QWL2010.pdf</t>
+  </si>
+  <si>
+    <t>unsure of relevance</t>
+  </si>
+  <si>
+    <t>The 1977 Quality of Employment Survey: Descriptive Statistics, with Comparison Data from the 1969-70 and the 1972-3 Surveys</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>Robert P. Quinn, Graham L. Staines</t>
+  </si>
+  <si>
+    <t>https://babel.hathitrust.org/cgi/pt?id=mdp.39015027386724&amp;view=1up&amp;seq=349</t>
+  </si>
+  <si>
+    <t>yes, pg. 311 - 356</t>
+  </si>
+  <si>
+    <t>An Index of Job Satisfaction</t>
+  </si>
+  <si>
+    <t>Arthur H. Brayfield and Harold F. Rothe</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/h0055617</t>
+  </si>
+  <si>
+    <t>https://psycnet.apa.org/record/1952-04202-001</t>
+  </si>
+  <si>
+    <t>yes, pg 309</t>
+  </si>
+  <si>
+    <t>Development and application of new scales to measure the French and Raven (1959) bases of social power.</t>
+  </si>
+  <si>
+    <t>Timothy R. Hinkin and Chester A. Schriesheim</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/0021-9010.74.4.561</t>
+  </si>
+  <si>
+    <t>https://doi.apa.org/doiLanding?doi=10.1037%2F0021-9010.74.4.561</t>
+  </si>
+  <si>
+    <t>yes, pg. 567</t>
+  </si>
+  <si>
+    <t>The Measurement of Work Autonomy</t>
+  </si>
+  <si>
+    <t>James A. Breaugh</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/001872678503800604</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/abs/10.1177/001872678503800604</t>
+  </si>
+  <si>
+    <t>yes, Price Handbook organizational management pg. 455</t>
+  </si>
+  <si>
+    <t>The Effects of Job Autonomy on Work Outcomes: Self Efficacy as an Intervening Variable</t>
+  </si>
+  <si>
+    <t>International Research Journal of Business Studies</t>
+  </si>
+  <si>
+    <t>Susanti Saragih</t>
+  </si>
+  <si>
+    <t>DOI: 10.21632/irjbs.4.3.203-215</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/308058711_The_Effects_of_Job_Autonomy_on_Work_Outcomes_Self_Efficacy_as_an_Intervening_Variable</t>
+  </si>
+  <si>
+    <t>yes, pg. 215</t>
+  </si>
+  <si>
+    <t>Distributive and procedural justice as predictors of satisfaction with personal and organizational outcomes</t>
+  </si>
+  <si>
+    <t>Academy of Management Journal</t>
+  </si>
+  <si>
+    <t>Dean B. McFarlin, Paul D. Sweeney</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/256489</t>
+  </si>
+  <si>
+    <t>yes, Price Handbook organizational management pg. 427</t>
+  </si>
+  <si>
+    <t>Construct Validation of Two Instruments Designed to Measure Job Involvement and Work Centrality</t>
+  </si>
+  <si>
+    <t>Irina M. Paullay, George M. Alliger, and Eugene F. Stone-Romero</t>
+  </si>
+  <si>
+    <t>DOI: 10.1037/0021-9010.79.2.224</t>
+  </si>
+  <si>
+    <t>https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=2&amp;sid=20055b15-eaa5-498b-a827-3bcd1c70170d%40sdc-v-sessmgr01&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=12359433&amp;db=bth</t>
+  </si>
+  <si>
+    <t>yes, Price Handbook organizational management pg. 419-421</t>
+  </si>
+  <si>
+    <t>Work Alienation</t>
+  </si>
+  <si>
+    <t>Kanungo, R. N.</t>
+  </si>
+  <si>
+    <t>yes, Price Handbook organizational management pg. 413</t>
+  </si>
+  <si>
+    <t>A Causal Model of Behavioral Commitment: Evidence from a Study of Australian Blue-collar Employees</t>
+  </si>
+  <si>
+    <t>Journal of Management</t>
+  </si>
+  <si>
+    <t>Roderick D. Iveron, Parimal Roy</t>
+  </si>
+  <si>
+    <t>DOI: 10.1177/014920639402000102</t>
+  </si>
+  <si>
+    <t>https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=0&amp;sid=87f995ff-15bf-48e0-8790-d06840edbbba%40sessionmgr4006&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=5675494&amp;db=bth</t>
+  </si>
+  <si>
+    <t>yes, Price Handbook organizational management pg. 408, 453</t>
+  </si>
+  <si>
+    <t>maybe partial, cannot find full text</t>
+  </si>
+  <si>
+    <t>The Role of Employees' Work Patterns and Office Type Fit (and Misfit) in the Relationships Between Employees Well-Being and Performance</t>
+  </si>
+  <si>
+    <t>Environment and Behavior</t>
+  </si>
+  <si>
+    <t>Aida Soriano, Malgorzata W. Kozusznik, José M. Peiró, and Carolina Mateo</t>
+  </si>
+  <si>
+    <t>https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=0&amp;sid=85a1ed86-39b9-4dd4-9f21-e9d5125aa9f8%40sdc-v-sessmgr02&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=141097980&amp;db=edb</t>
+  </si>
+  <si>
+    <t>not explict, but used scales</t>
+  </si>
+  <si>
+    <t>Employee intent to stay: the case of automobile workers in South Korea</t>
+  </si>
+  <si>
+    <t>Kim, S-W</t>
+  </si>
+  <si>
+    <t>yes, Price Handbook organizational management pg. 390, 496</t>
+  </si>
+  <si>
+    <t>Do Substitutes for Leadership Really Substitute for Leadership? An Empirical Examination of Kerr and Jermier's Situational Leadership Model</t>
+  </si>
+  <si>
+    <t>Organizational Behavior and Human Decision Processes</t>
+  </si>
+  <si>
+    <t>Podsakoff, Philip M; Niehoff, Brian P; MacKenzie, Scott B.; Williams, Margaret L.</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0749597883710010#aep-abstract-id6</t>
+  </si>
+  <si>
+    <t>yes, Price Handbook organizational management pg. 383</t>
+  </si>
+  <si>
+    <t>The Community General Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgopoulos, Basil Spyros and Mann, F. C. </t>
+  </si>
+  <si>
+    <t>yes, Price Handbook organizational management pg. 359-60</t>
+  </si>
+  <si>
+    <t>Studying Interpersonal Commmunication in Organizations: A Leadership Application</t>
+  </si>
+  <si>
+    <t>Larry E. Penley, Brian Hawkins</t>
+  </si>
+  <si>
+    <t>DOI: 10.2307/256203</t>
+  </si>
+  <si>
+    <t>https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=2&amp;sid=3e3750a2-a959-4eb6-81c2-ebe53f7b2db7%40sdc-v-sessmgr03&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=4317450&amp;db=bth</t>
+  </si>
+  <si>
+    <t>yes, Price Handbook organizational management pg. 351</t>
+  </si>
+  <si>
+    <t>On developing a general index of work commitment</t>
+  </si>
+  <si>
+    <t>Blau, G; Paul, A; St. John, N</t>
+  </si>
+  <si>
+    <t>yes, Price Handbook organizational management pg. 346</t>
+  </si>
+  <si>
+    <t>Culture, Control, and Commitment: A Study of Work Organization and Work Attitudes in the United States and Japan</t>
+  </si>
+  <si>
+    <t>James R. Lincoln, Arne L. Kalleberg</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/culturecontrolco0000linc/page/n9/mode/2up</t>
+  </si>
+  <si>
+    <t>yes, pg. 64-5, 86-8, 128-9, (261 note 6 for scale)</t>
+  </si>
+  <si>
+    <t>The Worker Opinion Survey: a measure of shop-floor satisfaction</t>
+  </si>
+  <si>
+    <t>Occupational Psychology</t>
+  </si>
+  <si>
+    <t>Denys Cross</t>
+  </si>
+  <si>
+    <t>https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=2&amp;sid=229a35bc-aade-4811-9444-ff51426686b3%40pdc-v-sessmgr03&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=6764155&amp;db=bth</t>
+  </si>
+  <si>
+    <t>yes, pg. 207-8</t>
+  </si>
+  <si>
+    <t>The Construct of Work Commitment: Testing an Integrative Framework</t>
+  </si>
+  <si>
+    <t>Amy Cooper-Hakim, Chockalingam Viswesvaran</t>
+  </si>
+  <si>
+    <t>DOI: 10.1037/0033-2909.131.2.241</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/7994341_The_Construct_of_Work_Commitment_Testing_an_Integrative_Framework</t>
+  </si>
+  <si>
+    <t>Literature Review</t>
+  </si>
+  <si>
+    <t>Three Levels of Ethnical Influences on Selling Behavior and Performance: Synergies and Tensions</t>
+  </si>
+  <si>
+    <t>Journal of Business Ethics</t>
+  </si>
+  <si>
+    <t>Selma Kadic-Maglajlic, Milena Micevski, Nick Lee, Nathaniel Boso, Irena Vida</t>
+  </si>
+  <si>
+    <t>DOI 10.1007/s10551-017-3588-1</t>
+  </si>
+  <si>
+    <t>https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=1f364185-01f6-46f1-b2a2-35e3b1f86cb8%40sdc-v-sessmgr02</t>
+  </si>
+  <si>
+    <t>yes, pg. 387</t>
+  </si>
+  <si>
+    <t>Measuring the performance of industrial salespersons</t>
+  </si>
+  <si>
+    <t>Journal of Business Research</t>
+  </si>
+  <si>
+    <t>Douglas N.Behrman, William D.Perreault, Jr.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0148-2963(82)90039-X</t>
+  </si>
+  <si>
+    <t>https://www-sciencedirect-com.proxy01.its.virginia.edu/science/article/abs/pii/014829638290039X?via%3Dihub</t>
+  </si>
+  <si>
+    <t>yes, but cannot get access</t>
+  </si>
+  <si>
+    <t>Unable to access</t>
+  </si>
+  <si>
+    <t>Exploring the Relationship between Commitment Profiles and Work Attitudes, Employee Withdrawal, and Job Performance</t>
+  </si>
+  <si>
+    <t>Public Personnel Management</t>
+  </si>
+  <si>
+    <t>Mark Somers, Deee Birnbaum</t>
+  </si>
+  <si>
+    <t>DOI: 10.1177/009102600002900305</t>
+  </si>
+  <si>
+    <t>https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=0&amp;sid=8e7d9f08-67a5-4c3a-ac47-c39ea779276e%40pdc-v-sessmgr06&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=3772555&amp;db=bth</t>
+  </si>
+  <si>
+    <t>Listed scales used</t>
+  </si>
+  <si>
+    <t>Job satisfaction, job involvement, and perceived organizational support as predictors of organizational commitment</t>
+  </si>
+  <si>
+    <t>Walden Dissertations and Doctoral Studies</t>
+  </si>
+  <si>
+    <t>Jennifer Parker Ayers</t>
+  </si>
+  <si>
+    <t>https://scholarworks.waldenu.edu/cgi/viewcontent.cgi?referer=https://www.ecosia.org/&amp;httpsredir=1&amp;article=1728&amp;context=dissertations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 139, 141, 144, 146-7, </t>
+  </si>
+  <si>
+    <t>Job Satisfaction Survey, Job Involvement Questionnaire, Survey of Perceived Organizational Support, TCM Employee Commitment Survey</t>
+  </si>
+  <si>
+    <t>Multiple scales listed in appendix of thesis; potential for duplicates</t>
+  </si>
+  <si>
+    <t>Work Commitment, Job Satisfaction, and Job Performance: An Empirical Investigation</t>
+  </si>
+  <si>
+    <t>International Journal of Organization Theory and Behavior</t>
+  </si>
+  <si>
+    <t>Abraham Carmeli and anat Freund</t>
+  </si>
+  <si>
+    <t>DOI: 10.1108/IJOTB-07-03-2004-B001</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/f93d/6fecee21ce101da05f99db571a32449c3be3.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review; interesting graphics on the construction of a job performance framework </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -33,7 +1809,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -41,14 +1817,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,12 +2200,3229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="105">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="255">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6">
+        <v>26024</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="180">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1980</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="405">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="390">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="210">
+      <c r="A6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6">
+        <v>42795</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="330">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1980</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="210">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6">
+        <v>43160</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="150">
+      <c r="A9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
+        <v>40057</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="360">
+      <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="240">
+      <c r="A11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2007</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="180">
+      <c r="A12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="150">
+      <c r="A13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="6">
+        <v>29037</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="375">
+      <c r="A14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1980</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="409.6">
+      <c r="A15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="360">
+      <c r="A16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="8">
+        <v>40452</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="210">
+      <c r="A17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1993</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="255">
+      <c r="A18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="8">
+        <v>43283</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="285">
+      <c r="A19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="6">
+        <v>40695</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="165">
+      <c r="A20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1986</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="180">
+      <c r="A21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6">
+        <v>39692</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="180">
+      <c r="A22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="165">
+      <c r="A23" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="75">
+      <c r="A24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="285">
+      <c r="A25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="120">
+      <c r="A26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="225">
+      <c r="A27" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1979</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="195">
+      <c r="A28" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1987</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="409.6">
+      <c r="A29" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2007</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="210">
+      <c r="A30" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1993</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="135">
+      <c r="A31" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1988</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="240">
+      <c r="A32" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F32" s="5">
+        <v>121086285</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="330">
+      <c r="A33" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1996</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="240">
+      <c r="A34" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2012</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="165">
+      <c r="A35" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="195">
+      <c r="A36" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1997</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="409.6">
+      <c r="A37" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1997</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="135">
+      <c r="A38" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2011</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="409.6">
+      <c r="A39" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2006</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="255">
+      <c r="A40" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1996</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="270">
+      <c r="A41" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="225">
+      <c r="A42" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1980</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="195">
+      <c r="A43" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="120">
+      <c r="A44" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="195">
+      <c r="A45" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="225">
+      <c r="A46" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1974</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="240">
+      <c r="A47" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="255">
+      <c r="A48" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="270">
+      <c r="A49" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="165">
+      <c r="A50" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="240">
+      <c r="A51" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2009</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="195">
+      <c r="A52" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="409.6">
+      <c r="A53" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="409.6">
+      <c r="A54" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5">
+        <v>2011</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="150">
+      <c r="A55" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="285">
+      <c r="A56" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2005</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="300">
+      <c r="A57" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E57" s="5">
+        <v>2004</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="165">
+      <c r="A58" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1976</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="375">
+      <c r="A59" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E59" s="5">
+        <v>2005</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="360">
+      <c r="A60" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1999</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="345">
+      <c r="A61" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E61" s="5">
+        <v>2006</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="409.6">
+      <c r="A62" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E62" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="240">
+      <c r="A63" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1978</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="270">
+      <c r="A64" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1997</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="375">
+      <c r="A65" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1988</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="360">
+      <c r="A66" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1979</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="255">
+      <c r="A67" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1990</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="150">
+      <c r="A68" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5">
+        <v>2009</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="255">
+      <c r="A69" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1995</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="120">
+      <c r="A70" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1986</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="255">
+      <c r="A71" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1994</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="165">
+      <c r="A72" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1996</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="135">
+      <c r="A73" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5">
+        <v>1977</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="105">
+      <c r="A74" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F74" s="5"/>
+      <c r="G74" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="270">
+      <c r="A75" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1979</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="90">
+      <c r="A76" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1951</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="210">
+      <c r="A77" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1989</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="120">
+      <c r="A78" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1985</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="255">
+      <c r="A79" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E79" s="5">
+        <v>2011</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="240">
+      <c r="A80" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1992</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="345">
+      <c r="A81" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1994</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="120">
+      <c r="A82" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E82" s="5">
+        <v>1982</v>
+      </c>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="345">
+      <c r="A83" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E83" s="5">
+        <v>1994</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="345">
+      <c r="A84" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E84" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="165">
+      <c r="A85" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1996</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="330">
+      <c r="A86" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1993</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="120">
+      <c r="A87" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1962</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="345">
+      <c r="A88" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1985</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="135">
+      <c r="A89" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E89" s="5">
+        <v>1993</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="255">
+      <c r="A90" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E90" s="5">
+        <v>1990</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="345">
+      <c r="A91" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1973</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="210">
+      <c r="A92" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E92" s="5">
+        <v>2005</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="255">
+      <c r="A93" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E93" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="195">
+      <c r="A94" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1982</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="345">
+      <c r="A95" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E95" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="300">
+      <c r="A96" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E96" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="195">
+      <c r="A97" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E97" s="5">
+        <v>2004</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{9D9C0F0C-8946-4177-86F6-38B98FC6EAF6}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{BB24753C-F60E-4389-997E-D758CA652D80}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{369C35BD-51CE-4533-819C-B8DAA4BAA07D}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{B7544070-4B1D-4EEB-9FBB-679969027156}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{22990BBD-4D28-4960-BD91-4BAB88662F2D}"/>
+    <hyperlink ref="G5" r:id="rId6" xr:uid="{BFD2E071-8FB9-45C1-837E-514D7DDD0E31}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{123947DC-AA6B-48D7-B10F-C204B567715B}"/>
+    <hyperlink ref="G6" r:id="rId8" xr:uid="{C3441CDE-99C1-453C-8EA0-898A38FC8239}"/>
+    <hyperlink ref="G8" r:id="rId9" xr:uid="{0EACDA5A-3E7D-44C9-A916-51C12F7A2D60}"/>
+    <hyperlink ref="G7" r:id="rId10" xr:uid="{0E371CFF-5C80-406F-8CAC-CB639079A3E0}"/>
+    <hyperlink ref="G9" r:id="rId11" xr:uid="{9D4D8C79-007E-4B97-AB3D-BE2B073A33CE}"/>
+    <hyperlink ref="G11" r:id="rId12" xr:uid="{87CF7150-DE4D-48E0-8B69-CAE2A777E5BC}"/>
+    <hyperlink ref="G12" r:id="rId13" xr:uid="{0F9FA9A2-651A-47F1-BB01-3C5A88AB5DF4}"/>
+    <hyperlink ref="G10" r:id="rId14" xr:uid="{178F916E-A482-457F-B857-D626AA4E3D51}"/>
+    <hyperlink ref="F14" r:id="rId15" xr:uid="{4FB74470-752E-4506-9422-4336251FBDF2}"/>
+    <hyperlink ref="G14" r:id="rId16" xr:uid="{E871A28E-6E78-4831-8C48-9845EA6F6212}"/>
+    <hyperlink ref="G13" r:id="rId17" xr:uid="{F638769E-D98E-4CE7-9F52-A89C16BCC1E7}"/>
+    <hyperlink ref="G15" r:id="rId18" xr:uid="{105726F1-7CCE-4FC4-9FA8-A00ED8579C41}"/>
+    <hyperlink ref="G16" r:id="rId19" xr:uid="{395D7D64-E60D-46E0-96E0-20E46D7F60C3}"/>
+    <hyperlink ref="F17" r:id="rId20" xr:uid="{786C16F5-6741-446C-BBB7-E39F556D0E74}"/>
+    <hyperlink ref="G17" r:id="rId21" xr:uid="{26E222BE-6AD0-41B8-A1A9-F44A8936BC31}"/>
+    <hyperlink ref="G18" r:id="rId22" xr:uid="{11B55141-D562-4631-8702-6850FFC9769A}"/>
+    <hyperlink ref="F20" r:id="rId23" xr:uid="{F9C84322-D07C-4372-8B0C-4C4EC166D837}"/>
+    <hyperlink ref="G20" r:id="rId24" xr:uid="{A3AAA6B9-0C92-4DCA-8178-019C49A9C730}"/>
+    <hyperlink ref="G19" r:id="rId25" xr:uid="{925F8BAC-61C3-415C-BA15-078BEDC5E738}"/>
+    <hyperlink ref="G21" r:id="rId26" xr:uid="{B9B8C21D-3B94-4B92-A76B-0322371572B9}"/>
+    <hyperlink ref="G22" r:id="rId27" xr:uid="{94F8B8E6-241F-40F8-9DAC-3DB0E5B86A85}"/>
+    <hyperlink ref="G23" r:id="rId28" xr:uid="{DB288C1E-7510-4D31-A91C-393203468225}"/>
+    <hyperlink ref="G24" r:id="rId29" xr:uid="{56C02A88-027A-492C-A9F8-3CB74AB97828}"/>
+    <hyperlink ref="G26" r:id="rId30" xr:uid="{0CDB8A83-79B7-4DAB-9D3D-58B7F192585E}"/>
+    <hyperlink ref="G27" r:id="rId31" xr:uid="{6317772B-75BD-4699-B032-A3E56F217503}"/>
+    <hyperlink ref="G28" r:id="rId32" xr:uid="{C2EFA151-24B2-4242-9FFF-51FCAFDC95D0}"/>
+    <hyperlink ref="G29" r:id="rId33" display="https://d1wqtxts1xzle7.cloudfront.net/31222208/Bhatti.pdf?1367803413=&amp;response-content-disposition=inline%3B+filename%3DImpact_of_employee_participation_on_job.pdf&amp;Expires=1592942435&amp;Signature=VuvoRjLm6NSoKNWC5Y7OozgvadJPDv1XzI8ECTGFIqfDVmB68KQidzGqb1Z4-B-MchWyBQG6acB6M5IKQqsHUwKLksAxAIov7dM6azC7pa5ZO9jPOgafVHnZ2a9I1ELzi5olqNGmSGasBK3j~l4Jng02VBmKb8~VR7GCO8kg14KOGQRtAMBrheog4mERc0FuwFn-~vv04lWLMnBAQsf3V0Vez5kmHdeCcSUNy59ibSCytWYTYyDaR7L~qmNxCY7Bs-4zXkSv92gTyQ-HuKkwKp59WThPWujy06wRKpsn0W9iHwr1MKU30loexl6-zF4A5CsBa1O2IsWHdnrEW2irwA__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{97C083C4-C280-4D0B-A1F6-414AF2974E17}"/>
+    <hyperlink ref="G30" r:id="rId34" xr:uid="{F6FBEC64-505B-4D0B-9F4A-853A63DCE082}"/>
+    <hyperlink ref="F30" r:id="rId35" xr:uid="{064E758B-4B2F-4231-AFC3-6504BF14DDE2}"/>
+    <hyperlink ref="G31" r:id="rId36" xr:uid="{DF565DD7-DCA6-4260-81CA-1E7685F7E09B}"/>
+    <hyperlink ref="G32" r:id="rId37" xr:uid="{5D5D8433-4733-4208-A2BF-712EBCDF5346}"/>
+    <hyperlink ref="G33" r:id="rId38" xr:uid="{A80BB0F6-653F-406D-BAC2-834279FE2BB2}"/>
+    <hyperlink ref="F33" r:id="rId39" xr:uid="{B4912C36-D152-45E8-A1F0-36501D9C5321}"/>
+    <hyperlink ref="G35" r:id="rId40" xr:uid="{D13D57FA-874A-49AD-9DF4-C699E4E239BC}"/>
+    <hyperlink ref="G34" r:id="rId41" xr:uid="{DD7E0D4D-444A-431C-AD7C-0C8A1A15429C}"/>
+    <hyperlink ref="G36" r:id="rId42" xr:uid="{8042ED16-B674-4D1A-AEF3-E1AA1D1DAEE8}"/>
+    <hyperlink ref="F37" r:id="rId43" xr:uid="{E535CE9E-0E04-4C55-A4AB-4465855A62BB}"/>
+    <hyperlink ref="G37" r:id="rId44" location="search=%22job%20performance%20scale%22" display="https://digitalcommons.ilr.cornell.edu/cgi/viewcontent.cgi?article=1146&amp;=&amp;context=cahrswp&amp;=&amp;sei-redir=1&amp;referer=https%253A%252F%252Fscholar.google.com%252Fscholar%253Fhl%253Den%2526as_sdt%253D0%25252C47%2526q%253D%252522job%252Bperformance%252522%252Bscale%2526btnG%253D#search=%22job%20performance%20scale%22" xr:uid="{B2454ADD-1A52-4A7A-A6A6-20C50109245B}"/>
+    <hyperlink ref="G38" r:id="rId45" xr:uid="{ED3F6AD1-8310-462F-8631-46E881116751}"/>
+    <hyperlink ref="G39" r:id="rId46" display="https://www.researchgate.net/profile/Hans_De_Witte/publication/284200846_Job_insecurity_among_temporary_versus_permanent_workers_Effects_on_job_satisfaction_organizational_commitment_life_satisfaction_and_self-rated_performance/links/567a9af408ae1e63f1df4bbc.pdf" xr:uid="{4741E61D-F581-4779-9A99-552EA8048ADE}"/>
+    <hyperlink ref="G40" r:id="rId47" xr:uid="{21DD15CA-0483-433A-B955-46E943AE20DE}"/>
+    <hyperlink ref="G41" r:id="rId48" xr:uid="{8BAE1F01-FB88-49F0-B5B2-9C0C93D9FB3E}"/>
+    <hyperlink ref="F64" r:id="rId49" xr:uid="{B282D74A-9EDA-494A-97E2-52B7A07A0060}"/>
+    <hyperlink ref="G64" r:id="rId50" xr:uid="{2AD19DB7-0AF2-4A98-BA65-F1310B7454C4}"/>
+    <hyperlink ref="G42" r:id="rId51" xr:uid="{5E85EC74-995E-4AC5-B053-C41308C188DF}"/>
+    <hyperlink ref="G43" r:id="rId52" xr:uid="{7A4291D5-6F36-4A49-814D-9BEC69D798D8}"/>
+    <hyperlink ref="G44" r:id="rId53" xr:uid="{98CD95FE-E5B5-45BD-ADF0-BD7B1B9A16A2}"/>
+    <hyperlink ref="H44" r:id="rId54" xr:uid="{40A6040D-95F3-4AD0-858B-A6B559AC9E14}"/>
+    <hyperlink ref="H45" r:id="rId55" xr:uid="{C715B17B-E581-44B2-82D0-74F3E1C56835}"/>
+    <hyperlink ref="G45" r:id="rId56" xr:uid="{1ABB1750-4A47-402B-9D41-9A85B434A851}"/>
+    <hyperlink ref="G46" r:id="rId57" xr:uid="{31B94814-AC5A-45DE-B26A-006417E03A64}"/>
+    <hyperlink ref="G47" r:id="rId58" xr:uid="{58B092B9-DF9A-4128-8217-E1951A7E885E}"/>
+    <hyperlink ref="H47" r:id="rId59" xr:uid="{29857DC0-F3B1-4FDA-A74C-CADB4D37E354}"/>
+    <hyperlink ref="G48" r:id="rId60" xr:uid="{9E541847-3122-4C8E-88E8-4AB6DAB04448}"/>
+    <hyperlink ref="H49" r:id="rId61" xr:uid="{ACB97FFC-D336-42C8-94FC-1889442E67B8}"/>
+    <hyperlink ref="F48" r:id="rId62" xr:uid="{DB25FC1F-2DEC-4D64-AE0D-74A75984127C}"/>
+    <hyperlink ref="G49" r:id="rId63" xr:uid="{B064F88F-23E1-4529-84BF-C8B452AF3346}"/>
+    <hyperlink ref="G50" r:id="rId64" xr:uid="{6D6AC3FD-E9CD-46D0-B1B4-6D0FC2BBBEB9}"/>
+    <hyperlink ref="G52" r:id="rId65" xr:uid="{A1098044-3A3F-4AEF-8F39-E0AFEDD86F20}"/>
+    <hyperlink ref="G51" r:id="rId66" xr:uid="{21CCF79D-12C0-4E27-9796-B6C103C8BE52}"/>
+    <hyperlink ref="G53" r:id="rId67" xr:uid="{45BB30ED-33EB-4639-B812-CC3E6132885D}"/>
+    <hyperlink ref="G54" r:id="rId68" xr:uid="{B73AC624-30CC-4945-8985-D4075A81CFFB}"/>
+    <hyperlink ref="G55" r:id="rId69" xr:uid="{315AEA97-340C-435A-9B67-3D4144AD7E66}"/>
+    <hyperlink ref="G56" r:id="rId70" xr:uid="{F1C20925-9855-45E6-9A19-C569B9255A6C}"/>
+    <hyperlink ref="G57" r:id="rId71" xr:uid="{72694944-0D8C-4B4B-B089-A3492E6CE8EE}"/>
+    <hyperlink ref="G58" r:id="rId72" xr:uid="{51132328-1FC6-4084-BBB5-E13B3F43FDC8}"/>
+    <hyperlink ref="G59" r:id="rId73" xr:uid="{0A170A85-723B-41D0-874C-766434EA1281}"/>
+    <hyperlink ref="G25" r:id="rId74" xr:uid="{223CD232-C111-4720-BA95-9E5F787A6953}"/>
+    <hyperlink ref="G60" r:id="rId75" location="AN=1986070&amp;db=bah" xr:uid="{C5DC0B6B-8800-4E73-8593-315A6B07F95B}"/>
+    <hyperlink ref="G61" r:id="rId76" xr:uid="{460F55B7-92BE-43BD-996E-54BDA3451C5E}"/>
+    <hyperlink ref="G62" r:id="rId77" display="http://ovidsp.dc2.ovid.com.proxy01.its.virginia.edu/sp-4.06.0a/ovidweb.cgi?WebLinkFrameset=1&amp;S=KICHFPCHBJEBDAHLJPBKGGBFKINNAA00&amp;returnUrl=ovidweb.cgi%3f%26Full%2bText%3dL%257cS.sh.28.29%257c0%257c00043764-201012000-00010%26S%3dKICHFPCHBJEBDAHLJPBKGGBFKINNAA00&amp;fromjumpstart=0&amp;directlink=http%3a%2f%2fovidsp.dc2.ovid.com%2fovftpdfs%2fFPEBJPBFGGHLBJ00%2ffs047%2fovft%2flive%2fgv024%2f00043764%2f00043764-201012000-00010.pdf&amp;filename=Development+and+Testing+of+the+Workplace+Stressors+Assessment+Questionnaire.&amp;pdf_key=FPEBJPBFGGHLBJ00&amp;pdf_index=/fs047/ovft/live/gv024/00043764/00043764-201012000-00010" xr:uid="{9298AE1E-BACA-40EB-B220-F7C339D5B1E0}"/>
+    <hyperlink ref="G63" r:id="rId78" xr:uid="{1DF5B840-46E4-447B-B00F-C789BFDF2133}"/>
+    <hyperlink ref="G65" r:id="rId79" xr:uid="{33876149-9D5D-4CA2-98AA-F634C2975114}"/>
+    <hyperlink ref="G66" r:id="rId80" location="AN=6293773&amp;db=a9h" xr:uid="{959DBC70-A1C6-437F-98F8-937DD8B654B4}"/>
+    <hyperlink ref="F67" r:id="rId81" xr:uid="{9159F9F8-37DD-4254-AEA8-4F611705B04F}"/>
+    <hyperlink ref="G67" r:id="rId82" xr:uid="{6DFCB4FC-95AB-4237-981B-118720A52C0B}"/>
+    <hyperlink ref="G68" r:id="rId83" xr:uid="{4BA5230E-E241-4542-9AE4-3B907912947E}"/>
+    <hyperlink ref="G69" r:id="rId84" xr:uid="{9C52081C-AE41-42D9-B67F-E940CB9C21BF}"/>
+    <hyperlink ref="G71" r:id="rId85" xr:uid="{3A4049D3-CC0D-47FE-B27E-1F9AF9778511}"/>
+    <hyperlink ref="F72" r:id="rId86" xr:uid="{76D4E359-CCB2-4933-BD40-A0BA3131ADFA}"/>
+    <hyperlink ref="G73" r:id="rId87" xr:uid="{BB36E7E9-323E-4639-B95A-9DC3549CBA5C}"/>
+    <hyperlink ref="G74" r:id="rId88" xr:uid="{05580E7C-D8AA-484F-ADD2-25E255860BE3}"/>
+    <hyperlink ref="G75" r:id="rId89" xr:uid="{E38BD52E-9CDC-4D79-B304-D4FFE0723FA8}"/>
+    <hyperlink ref="F76" r:id="rId90" xr:uid="{712B01CD-7056-424E-B714-82716DCB6B1F}"/>
+    <hyperlink ref="G76" r:id="rId91" xr:uid="{D1E9DC5F-E433-4451-9F83-91CCFD33BE36}"/>
+    <hyperlink ref="F77" r:id="rId92" xr:uid="{BBAE852E-46C1-40F2-A86A-E58F26847F59}"/>
+    <hyperlink ref="G77" r:id="rId93" xr:uid="{66676F96-9BF5-4D47-9DDA-18604E4FAAD1}"/>
+    <hyperlink ref="G78" r:id="rId94" xr:uid="{E2A39809-D6CC-4EFE-B32D-36385CC232EB}"/>
+    <hyperlink ref="F78" r:id="rId95" xr:uid="{AE9692D6-D94B-4E18-9CF2-13194F338378}"/>
+    <hyperlink ref="G79" r:id="rId96" xr:uid="{F570715E-C248-4043-B82E-4813AEC56DD0}"/>
+    <hyperlink ref="G80" r:id="rId97" xr:uid="{7F22DE30-5F23-4CED-AA0A-ACCBC6E49EE1}"/>
+    <hyperlink ref="G81" r:id="rId98" location="AN=12359433&amp;db=bth" xr:uid="{93A7F9C0-9F31-4B3A-B5A4-1FFC41872F51}"/>
+    <hyperlink ref="G83" r:id="rId99" location="AN=5675494&amp;db=bth" xr:uid="{84B2B565-E937-4074-9B12-2A76322961BB}"/>
+    <hyperlink ref="G84" r:id="rId100" location="AN=141097980&amp;db=edb" xr:uid="{CC0C8976-C39E-40F0-B43D-C64009875AF5}"/>
+    <hyperlink ref="G86" r:id="rId101" location="aep-abstract-id6" xr:uid="{3912D394-881A-4961-A3D3-A1FC3EC063C7}"/>
+    <hyperlink ref="G88" r:id="rId102" location="AN=4317450&amp;db=bth" xr:uid="{8BF158A1-9AC6-43F2-9BF4-CD4B6F18068B}"/>
+    <hyperlink ref="G90" r:id="rId103" xr:uid="{74F9DEE8-DB84-4D08-829E-73C40758830A}"/>
+    <hyperlink ref="G91" r:id="rId104" location="AN=6764155&amp;db=bth" xr:uid="{60123D0D-F2BF-4D09-92CB-E41F204B97C0}"/>
+    <hyperlink ref="G92" r:id="rId105" xr:uid="{1ECC58D1-3059-4233-9EAD-9459D0A6564D}"/>
+    <hyperlink ref="G93" r:id="rId106" xr:uid="{60629ABC-D3AB-4D1A-A8D2-E078CE6B4A01}"/>
+    <hyperlink ref="G94" r:id="rId107" xr:uid="{CC0E085A-73D3-4285-AE3C-038E3DCDE437}"/>
+    <hyperlink ref="F94" r:id="rId108" xr:uid="{8C0B2CE4-45CA-40B0-81A0-A134E044953D}"/>
+    <hyperlink ref="G95" r:id="rId109" location="AN=3772555&amp;db=bth" xr:uid="{D7C2273E-6805-4BEF-9176-BA750140C165}"/>
+    <hyperlink ref="G96" r:id="rId110" xr:uid="{EB6C9DC9-EC7A-4F0B-A34F-1DC97E62E384}"/>
+    <hyperlink ref="G97" r:id="rId111" xr:uid="{4712539A-0622-4397-944F-8595C73FB9ED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/dataSource/DocumentSheetOnly.xlsx
+++ b/dataSource/DocumentSheetOnly.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E39B017FB1C3BA621F8CCA9DC9758F342C730686" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1DFFC8F-625E-40A1-BAB1-BCF893579FFC}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -27,201 +22,201 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="574">
   <si>
-    <t>Document Title</t>
-  </si>
-  <si>
-    <t>Associated organization
+    <t xml:space="preserve">Document Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associated organization
 (Journal/Agency/Company)</t>
   </si>
   <si>
-    <t>Source Category</t>
-  </si>
-  <si>
-    <t>Authors</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Document Identifier
+    <t xml:space="preserve">Source Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Identifier
 (DOI/Number/etc.)</t>
   </si>
   <si>
-    <t>Weblink</t>
-  </si>
-  <si>
-    <t>Contains Scales</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Other Notes</t>
-  </si>
-  <si>
-    <t>Assesment comments</t>
-  </si>
-  <si>
-    <t>Items Extracted
+    <t xml:space="preserve">Weblink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains Scales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assesment comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Items Extracted
 (Yes/No)</t>
   </si>
   <si>
-    <t>Development of a Taxonomy of Human Performance: Validation Study of Ability Scales for Classifying Human Tasks</t>
-  </si>
-  <si>
-    <t>American Institutes for Research</t>
-  </si>
-  <si>
-    <t>Military</t>
-  </si>
-  <si>
-    <t>George C. Thecuogus
+    <t xml:space="preserve">Development of a Taxonomy of Human Performance: Validation Study of Ability Scales for Classifying Human Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Institutes for Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George C. Thecuogus
 Edwin A. Fleishman</t>
   </si>
   <si>
-    <t>AIR-726/2035-4/71-TR10</t>
-  </si>
-  <si>
-    <t>https://apps.dtic.mil/dtic/tr/fulltext/u2/736194.pdf</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t xml:space="preserve">AIR-726/2035-4/71-TR10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://apps.dtic.mil/dtic/tr/fulltext/u2/736194.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">Judge ratings, observation validity, </t>
   </si>
   <si>
-    <t>"Task Assesment Scales"</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Performance rating.</t>
-  </si>
-  <si>
-    <t>Psychological Bulletin</t>
-  </si>
-  <si>
-    <t>Academic</t>
-  </si>
-  <si>
-    <t>Landy, Frank J.
+    <t xml:space="preserve">"Task Assesment Scales"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance rating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychological Bulletin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landy, Frank J.
  Farr, James L.</t>
   </si>
   <si>
-    <t>https://doi.org/10.1037/0033-2909.87.1.72</t>
-  </si>
-  <si>
-    <t>https://us.corwin.com/sites/default/files/upm-binaries/22609_Vol_1_1.pdf</t>
-  </si>
-  <si>
-    <t>no?</t>
-  </si>
-  <si>
-    <t>Review, History, Response scales; process model of performance rating</t>
-  </si>
-  <si>
-    <t>Contains many relevant citations</t>
-  </si>
-  <si>
-    <t>The empowering leadership questionnaire:
+    <t xml:space="preserve">https://doi.org/10.1037/0033-2909.87.1.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://us.corwin.com/sites/default/files/upm-binaries/22609_Vol_1_1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review, History, Response scales; process model of performance rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains many relevant citations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The empowering leadership questionnaire:
 the construction and validation of a new
 scale for measuring leader behaviors</t>
   </si>
   <si>
-    <t>Journal of Organizational Behavior</t>
-  </si>
-  <si>
-    <t>JOSH A. ARNOLD, SHARON ARAD, JONATHAN A. RHOADES
+    <t xml:space="preserve">Journal of Organizational Behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSH A. ARNOLD, SHARON ARAD, JONATHAN A. RHOADES
 AND FRITZ DRASGOW</t>
   </si>
   <si>
-    <t>https://doi.org/10.1002/(SICI)1099-1379(200005)21:3&lt;249::AID-JOB10&gt;3.0.CO;2-%23</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/pdf/10.1002/(SICI)1099-1379(200005)21:3%3C249::AID-JOB10%3E3.0.CO;2-%23?casa_token=qK7DDRSKrCsAAAAA:NxpwuHQr_mequDF19c-9TactGbJSSMrvoi7KX3NKYwFmdMZoTJYYsi2-v11Vtuf4oTpP7t8NIqSl5PPn8A</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Organization, leadership</t>
-  </si>
-  <si>
-    <t>"Organizational citizenship behavior"</t>
-  </si>
-  <si>
-    <t>Standford Presenteeism Scale: Health Status and Employee Productivity</t>
-  </si>
-  <si>
-    <t>Journal of Occupational and Environmental Medicine</t>
-  </si>
-  <si>
-    <t>Koopman, Cheryl; Pelletier, Kenneth R.; Murray, James F.; Sharda, Claire E.; Berger, Marc L.; Turpin, Robin S.; Hackleman, Paul; Gibson, Pamela; Holmes, Danielle M; Bendel, Talor</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1097/00043764-200201000-00004</t>
-  </si>
-  <si>
-    <t>https://moodle.adaptland.it/pluginfile.php/20585/mod_data/content/39550/2002_Koopman.pdf</t>
-  </si>
-  <si>
-    <t>presenteeism, productivity</t>
-  </si>
-  <si>
-    <t>Stanford Presenteeism Scale (SPS-34 &amp; SPS-6)
+    <t xml:space="preserve">https://doi.org/10.1002/(SICI)1099-1379(200005)21:3&lt;249::AID-JOB10&gt;3.0.CO;2-%23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/pdf/10.1002/(SICI)1099-1379(200005)21:3%3C249::AID-JOB10%3E3.0.CO;2-%23?casa_token=qK7DDRSKrCsAAAAA:NxpwuHQr_mequDF19c-9TactGbJSSMrvoi7KX3NKYwFmdMZoTJYYsi2-v11Vtuf4oTpP7t8NIqSl5PPn8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization, leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Organizational citizenship behavior"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standford Presenteeism Scale: Health Status and Employee Productivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Occupational and Environmental Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koopman, Cheryl; Pelletier, Kenneth R.; Murray, James F.; Sharda, Claire E.; Berger, Marc L.; Turpin, Robin S.; Hackleman, Paul; Gibson, Pamela; Holmes, Danielle M; Bendel, Talor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1097/00043764-200201000-00004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://moodle.adaptland.it/pluginfile.php/20585/mod_data/content/39550/2002_Koopman.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presenteeism, productivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanford Presenteeism Scale (SPS-34 &amp; SPS-6)
 Might only be applicable in cases of adverse health statuses.</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>A Handbook for Measuring
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Handbook for Measuring
 Employee Performance</t>
   </si>
   <si>
-    <t>United States Office of Personnel Management</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>ES/SWP-02803-03-17</t>
-  </si>
-  <si>
-    <t>https://www.opm.gov/policy-data-oversight/performance-management/measuring/employee_performance_handbook.pdf</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Halo in a Multidimensional Forced-Choice Performance Evaluation Scale</t>
-  </si>
-  <si>
-    <t>Journal of Applied Psychology</t>
-  </si>
-  <si>
-    <t>Larry M. King and John E. Hunter; 
+    <t xml:space="preserve">United States Office of Personnel Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES/SWP-02803-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.opm.gov/policy-data-oversight/performance-management/measuring/employee_performance_handbook.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halo in a Multidimensional Forced-Choice Performance Evaluation Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Applied Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larry M. King and John E. Hunter; 
 Frank L. Schmidt</t>
   </si>
   <si>
-    <t>DOI: 10.1037/0021-9010.65.5.507</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Frank_Schmidt10/publication/263924230_Halo_in_a_Multidimensional_Forced-Choice_Performance_Evaluation_Scale/links/53f8c5500cf24ddba7db48b9.pdf</t>
-  </si>
-  <si>
-    <t>not explicit (discussion pg. 511)</t>
-  </si>
-  <si>
-    <t>rater halo, forced-choice performance evaluation scale</t>
-  </si>
-  <si>
-    <t>potentially helpful literature review</t>
-  </si>
-  <si>
-    <t>Performance Management
+    <t xml:space="preserve">DOI: 10.1037/0021-9010.65.5.507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchgate.net/profile/Frank_Schmidt10/publication/263924230_Halo_in_a_Multidimensional_Forced-Choice_Performance_Evaluation_Scale/links/53f8c5500cf24ddba7db48b9.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not explicit (discussion pg. 511)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rater halo, forced-choice performance evaluation scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potentially helpful literature review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance Management
 Appraisal Program (PMAP)
 Handbook</t>
   </si>
@@ -229,10 +224,10 @@
     <t xml:space="preserve">U.S. Department of Health and Human Services </t>
   </si>
   <si>
-    <t>https://hr.nih.gov/sites/default/files/public/documents/workforce/performance-management/pdf/hhspmaphandbook.pdf</t>
-  </si>
-  <si>
-    <t>some</t>
+    <t xml:space="preserve">https://hr.nih.gov/sites/default/files/public/documents/workforce/performance-management/pdf/hhspmaphandbook.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some</t>
   </si>
   <si>
     <t xml:space="preserve">Performance 
@@ -241,778 +236,777 @@
 Examples </t>
   </si>
   <si>
-    <t>usda</t>
-  </si>
-  <si>
-    <t>Governement</t>
-  </si>
-  <si>
-    <t>https://www.dm.usda.gov/employ/employeerelations/docs/Guide-ExPerfPlans.pdf</t>
-  </si>
-  <si>
-    <t>non-scalar</t>
-  </si>
-  <si>
-    <t>Psychological Well-Being and Job Satisfaction as Predictors of Job Performance</t>
-  </si>
-  <si>
-    <t>Journal of Occupational Health Psychology</t>
-  </si>
-  <si>
-    <t>Thomas A. Wright, Russell Cropanzano</t>
-  </si>
-  <si>
-    <t>DOI: 10.1037//1076-8998.5.1</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Russell_Cropanzano/publication/12655756_Psychological_well-being_and_job_satisfaction_as_predictors_of_job_performance/links/0deec533ae242ccfd3000000.pdf</t>
-  </si>
-  <si>
-    <t>yes, single-item p.87</t>
-  </si>
-  <si>
-    <t>job satisfaction, psychological well-being</t>
-  </si>
-  <si>
-    <t>Performance measured as one-item, supervisor rating: "Overall, how would you rate this employee's performance over the past year?"5-point scale ranged from 1 (poor) to 5 (excellent)</t>
-  </si>
-  <si>
-    <t>Distinguishing between task and contextual performance for nurses: development of a job performance scale</t>
-  </si>
-  <si>
-    <t>Jaimi H. Greenslade &amp; Nerina L. Jimmieson</t>
-  </si>
-  <si>
-    <t>doi: 10.1111/j.1365-2648.2007.04256.x</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary-wiley-com.proxy01.its.virginia.edu/doi/epdf/10.1111/j.1365-2648.2007.04256.x</t>
-  </si>
-  <si>
-    <t>maybe (p.607 &amp; 608)</t>
-  </si>
-  <si>
-    <t>task performance, contextual performance</t>
-  </si>
-  <si>
-    <t>Federal Employee Performance
+    <t xml:space="preserve">usda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dm.usda.gov/employ/employeerelations/docs/Guide-ExPerfPlans.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-scalar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychological Well-Being and Job Satisfaction as Predictors of Job Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Occupational Health Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas A. Wright, Russell Cropanzano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1037//1076-8998.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchgate.net/profile/Russell_Cropanzano/publication/12655756_Psychological_well-being_and_job_satisfaction_as_predictors_of_job_performance/links/0deec533ae242ccfd3000000.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, single-item p.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job satisfaction, psychological well-being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance measured as one-item, supervisor rating: "Overall, how would you rate this employee's performance over the past year?"5-point scale ranged from 1 (poor) to 5 (excellent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distinguishing between task and contextual performance for nurses: development of a job performance scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaimi H. Greenslade &amp; Nerina L. Jimmieson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi: 10.1111/j.1365-2648.2007.04256.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary-wiley-com.proxy01.its.virginia.edu/doi/epdf/10.1111/j.1365-2648.2007.04256.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maybe (p.607 &amp; 608)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task performance, contextual performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal Employee Performance
 Rating Systems Need
 Fundamenta' Changes</t>
   </si>
   <si>
-    <t>GAO</t>
-  </si>
-  <si>
-    <t>THE COMPTROLLER GENERAL OF THE UNITED STATES</t>
-  </si>
-  <si>
-    <t>March 3 1978</t>
-  </si>
-  <si>
-    <t>FPC-77-80; B-150411.</t>
-  </si>
-  <si>
-    <t>https://www.gao.gov/assets/130/121710.pdf</t>
-  </si>
-  <si>
-    <t>no; scale on how employees feel about the current state of job performance evaluation</t>
-  </si>
-  <si>
-    <t>Meta-discussion</t>
-  </si>
-  <si>
-    <t>Behavioral Measurement in
+    <t xml:space="preserve">GAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE COMPTROLLER GENERAL OF THE UNITED STATES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 3 1978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPC-77-80; B-150411.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gao.gov/assets/130/121710.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no; scale on how employees feel about the current state of job performance evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta-discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behavioral Measurement in
 Business, Industry, and Government</t>
   </si>
   <si>
-    <t>Office of Naval Research</t>
-  </si>
-  <si>
-    <t>Judi Komaki, Robert L. Collins, Ted J. F. Thoene</t>
-  </si>
-  <si>
-    <t>https://apps.dtic.mil/dtic/tr/fulltext/u2/a072843.pdf</t>
-  </si>
-  <si>
-    <t>Overly specific examples</t>
-  </si>
-  <si>
-    <t>Self-appraisal of Job Performance</t>
-  </si>
-  <si>
-    <t>Personnel Psychology</t>
-  </si>
-  <si>
-    <t>Herbert H. Meyer</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/j.1744-6570.1980.tb02351.x</t>
-  </si>
-  <si>
-    <t>https://content.ebscohost.com/ContentServer.asp?EbscoContent=dGJyMNXb4kSep7U4yOvsOLCmsEiep69Sr6u4TbWWxWXS&amp;ContentCustomer=dGJyMPGpsUm0qq5NuePfgeyx847f1d%2BI5wAA&amp;T=P&amp;P=AN&amp;S=R&amp;D=bth&amp;K=6264292</t>
-  </si>
-  <si>
-    <t>yes (p.292)</t>
-  </si>
-  <si>
-    <t>self-rating</t>
-  </si>
-  <si>
-    <t>Perceived Organizational Support, Work Motivation, and Organizational Commitment as determinants of Job Performance</t>
-  </si>
-  <si>
-    <t>Journal of the Indian Academy of Applied Psychology</t>
-  </si>
-  <si>
-    <t>C. R. Darolia, Parveen Kumari, and Shashi Darolia</t>
-  </si>
-  <si>
-    <t>https://pdfs.semanticscholar.org/c310/50a9e0ca35f8875891718cf6bd8193ada7cc.pdf</t>
-  </si>
-  <si>
-    <t>mentions scales</t>
-  </si>
-  <si>
-    <t>organizational support, work motivation, organizational commitment</t>
-  </si>
-  <si>
-    <t>mentions scales: Occupational Commitment Questionnaire, Survey of Perceived Organizational Support, Employee's Motivation Schedule (unable to find source), Job Performance Scale (unable to find source)</t>
-  </si>
-  <si>
-    <t>Supervisory/Non-supervisory
+    <t xml:space="preserve">Office of Naval Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judi Komaki, Robert L. Collins, Ted J. F. Thoene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://apps.dtic.mil/dtic/tr/fulltext/u2/a072843.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overly specific examples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-appraisal of Job Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personnel Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbert H. Meyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/j.1744-6570.1980.tb02351.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://content.ebscohost.com/ContentServer.asp?EbscoContent=dGJyMNXb4kSep7U4yOvsOLCmsEiep69Sr6u4TbWWxWXS&amp;ContentCustomer=dGJyMPGpsUm0qq5NuePfgeyx847f1d%2BI5wAA&amp;T=P&amp;P=AN&amp;S=R&amp;D=bth&amp;K=6264292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes (p.292)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self-rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perceived Organizational Support, Work Motivation, and Organizational Commitment as determinants of Job Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of the Indian Academy of Applied Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. R. Darolia, Parveen Kumari, and Shashi Darolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pdfs.semanticscholar.org/c310/50a9e0ca35f8875891718cf6bd8193ada7cc.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mentions scales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organizational support, work motivation, organizational commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mentions scales: Occupational Commitment Questionnaire, Survey of Perceived Organizational Support, Employee's Motivation Schedule (unable to find source), Job Performance Scale (unable to find source)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisory/Non-supervisory
  Employee Performance Management
  and
  Recognition Program
  Desk Reference</t>
   </si>
   <si>
-    <t>U.S. Department of Energy</t>
+    <t xml:space="preserve">U.S. Department of Energy</t>
   </si>
   <si>
     <t xml:space="preserve">Office of the Chief Human Capital Officer </t>
   </si>
   <si>
-    <t>https://www.energy.gov/sites/prod/files/2015/04/f22/Supervisory_Non-Supervisory%20Employee%20Performance%20Management%20and%20Recognition%20Program%20Desk%20Reference%2010-01-2010%20v2.pdf</t>
-  </si>
-  <si>
-    <t>possibly (pg 49)</t>
-  </si>
-  <si>
-    <t>Commitment to Organizations and Occupations: Extension and Test of a Three-Component Conceptualization</t>
-  </si>
-  <si>
-    <t>John P. Meyer, Natalie J. Allen, Catherine A. Smith</t>
-  </si>
-  <si>
-    <t>https://psycnet-apa-org.proxy01.its.virginia.edu/doi/10.1037/0021-9010.78.4.538</t>
-  </si>
-  <si>
-    <t>https://psycnet-apa-org.proxy01.its.virginia.edu/fulltext/1993-47410-001.html</t>
-  </si>
-  <si>
-    <t>organizational commitment, OCQ</t>
-  </si>
-  <si>
-    <t>Meyer &amp; Allen have other papers which discuss what their scale</t>
-  </si>
-  <si>
-    <t>Development of the Behaviorally Anchored Rating Scales for the Skills Demonstration and Progression Guide</t>
-  </si>
-  <si>
-    <t>ETS Research Report Series</t>
-  </si>
-  <si>
-    <t>academic</t>
-  </si>
-  <si>
-    <t>David M. Klieger  Harrison J. Kell  Samuel Rikoon  Kri N. Burkander  Jennifer L. Bochenek  Jane R. Shore</t>
+    <t xml:space="preserve">https://www.energy.gov/sites/prod/files/2015/04/f22/Supervisory_Non-Supervisory%20Employee%20Performance%20Management%20and%20Recognition%20Program%20Desk%20Reference%2010-01-2010%20v2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possibly (pg 49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commitment to Organizations and Occupations: Extension and Test of a Three-Component Conceptualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John P. Meyer, Natalie J. Allen, Catherine A. Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://psycnet-apa-org.proxy01.its.virginia.edu/doi/10.1037/0021-9010.78.4.538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://psycnet-apa-org.proxy01.its.virginia.edu/fulltext/1993-47410-001.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organizational commitment, OCQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meyer &amp; Allen have other papers which discuss what their scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of the Behaviorally Anchored Rating Scales for the Skills Demonstration and Progression Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETS Research Report Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">academic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David M. Klieger  Harrison J. Kell  Samuel Rikoon  Kri N. Burkander  Jennifer L. Bochenek  Jane R. Shore</t>
   </si>
   <si>
     <t xml:space="preserve"> https://doi.org/10.1002/ets2.12210</t>
   </si>
   <si>
-    <t>https://onlinelibrary.wiley.com/doi/full/10.1002/ets2.12210</t>
-  </si>
-  <si>
-    <t>Censored scales; list of citations of other scales</t>
-  </si>
-  <si>
-    <t>BARS</t>
-  </si>
-  <si>
-    <t>Appraising Performance Appraisal Systems in the Federal Government:
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/full/10.1002/ets2.12210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Censored scales; list of citations of other scales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appraising Performance Appraisal Systems in the Federal Government:
 A Literature Review, Preliminary Findings, and Prospects for Future Research</t>
   </si>
   <si>
-    <t>Public Management Research Conference</t>
-  </si>
-  <si>
-    <t>Government/Academic</t>
-  </si>
-  <si>
-    <t>Dr. Ellen V. Rubin</t>
-  </si>
-  <si>
-    <t>https://www.maxwell.syr.edu/uploadedFiles/conferences/pmrc/Files/Rubin_Appraising%20Performance%20Appraisal%20Systems.pdf</t>
-  </si>
-  <si>
-    <t>meta-discussion</t>
+    <t xml:space="preserve">Public Management Research Conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government/Academic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Ellen V. Rubin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.maxwell.syr.edu/uploadedFiles/conferences/pmrc/Files/Rubin_Appraising%20Performance%20Appraisal%20Systems.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meta-discussion</t>
   </si>
   <si>
     <t xml:space="preserve">Perceived Organizational Support </t>
   </si>
   <si>
-    <t>Robert Eisenberger, Robin Huntington, Steven Hutchison, Debora Sowa</t>
-  </si>
-  <si>
-    <t>https://psycnet-apa-org.proxy01.its.virginia.edu/doi/10.1037/0021-9010.71.3.500</t>
-  </si>
-  <si>
-    <t>https://psycnet-apa-org.proxy01.its.virginia.edu/fulltext/1986-31507-001.pdf</t>
-  </si>
-  <si>
-    <t>SPOS, organizational support, commitment</t>
-  </si>
-  <si>
-    <t>Structured IntervIews:
+    <t xml:space="preserve">Robert Eisenberger, Robin Huntington, Steven Hutchison, Debora Sowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://psycnet-apa-org.proxy01.its.virginia.edu/doi/10.1037/0021-9010.71.3.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://psycnet-apa-org.proxy01.its.virginia.edu/fulltext/1986-31507-001.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPOS, organizational support, commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structured IntervIews:
 A Practical Guide</t>
   </si>
   <si>
     <t xml:space="preserve">U.S. Office of Personnel Management </t>
   </si>
   <si>
-    <t>https://www.opm.gov/policy-data-oversight/assessment-and-selection/structured-interviews/guide.pdf</t>
-  </si>
-  <si>
-    <t>few (pg 30); not what we are looking for</t>
-  </si>
-  <si>
-    <t>The Department of the Interior’s
+    <t xml:space="preserve">https://www.opm.gov/policy-data-oversight/assessment-and-selection/structured-interviews/guide.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">few (pg 30); not what we are looking for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Department of the Interior’s
 Performance Appraisal Handbook</t>
   </si>
   <si>
-    <t>Office of the Secretary
+    <t xml:space="preserve">Office of the Secretary
 Office of Human Resources</t>
   </si>
   <si>
     <t xml:space="preserve">#370DM430HB-1 </t>
   </si>
   <si>
-    <t>https://www.doi.gov/sites/doi.gov/files/elips/documents/doi_performance_appraisal_handbook_10-2016.pdf</t>
-  </si>
-  <si>
-    <t>discusses scale creation?
+    <t xml:space="preserve">https://www.doi.gov/sites/doi.gov/files/elips/documents/doi_performance_appraisal_handbook_10-2016.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discusses scale creation?
 appendix 8</t>
   </si>
   <si>
-    <t>The PI Behavioral Assessment</t>
-  </si>
-  <si>
-    <t>"The predictive Index"</t>
-  </si>
-  <si>
-    <t>commerical</t>
-  </si>
-  <si>
-    <t>https://www.predictiveindex.com/assessments/behavioral-assessment/</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>smells like BS
-4 factor mode: dominance, extraversion patience, formality</t>
-  </si>
-  <si>
-    <t>HR tools</t>
-  </si>
-  <si>
-    <t>Cognos HR</t>
-  </si>
-  <si>
-    <t>commercial</t>
-  </si>
-  <si>
-    <t>https://www.cognoshr.com/assessment-tools</t>
-  </si>
-  <si>
-    <t>"The Judgment Index™"</t>
-  </si>
-  <si>
-    <t>Factor Structure and Construct Validity of the Worker Role Self-Assessment (WRS) When Used for People With Psychiatric Disabilities in Sweden</t>
-  </si>
-  <si>
-    <t>Evaluation &amp; the Health Professions</t>
-  </si>
-  <si>
-    <t>Mona Eklund and Martin Ba¨ckstro¨m</t>
+    <t xml:space="preserve">The PI Behavioral Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The predictive Index"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commerical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.predictiveindex.com/assessments/behavioral-assessment/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 factor mode: dominance, extraversion patience, formality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognos HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cognoshr.com/assessment-tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The Judgment Index™"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factor Structure and Construct Validity of the Worker Role Self-Assessment (WRS) When Used for People With Psychiatric Disabilities in Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation &amp; the Health Professions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mona Eklund and Martin Ba¨ckstro¨m</t>
   </si>
   <si>
     <t xml:space="preserve"> 10.1177/0163278716643825</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/doi/full/10.1177/0163278716643825</t>
-  </si>
-  <si>
-    <t>yes, tangentially
+    <t xml:space="preserve">https://journals.sagepub.com/doi/full/10.1177/0163278716643825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, tangentially
 pg 305</t>
   </si>
   <si>
-    <t>for clinical populations, but possibly relevant</t>
-  </si>
-  <si>
-    <t>ProfileXT®
+    <t xml:space="preserve">for clinical populations, but possibly relevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProfileXT®
 User Training Manual</t>
   </si>
   <si>
-    <t>http://cdn2.hubspot.net/hub/155091/file-608530384-pdf/docs/pxt</t>
-  </si>
-  <si>
-    <t>"yes" page 41</t>
-  </si>
-  <si>
-    <t>seems terrible and not actually valid</t>
-  </si>
-  <si>
-    <t>An Investigation of Two Constructs: Organization Membership Satisfaction and Job Performance Satisfaction</t>
-  </si>
-  <si>
-    <t>Air Force Institute of Technology</t>
-  </si>
-  <si>
-    <t>military</t>
-  </si>
-  <si>
-    <t>Wesley B. Dixon</t>
-  </si>
-  <si>
-    <t>https://apps.dtic.mil/sti/pdfs/ADA076980.pdf</t>
-  </si>
-  <si>
-    <t>yes pg. 86</t>
-  </si>
-  <si>
-    <t>satisfaction, performance, Membership-Performance Questionaire</t>
-  </si>
-  <si>
-    <t>Minnesota Satisfaction Questionnaire</t>
-  </si>
-  <si>
-    <t>The Navy Job Performance Measurement Program: Background, Inception, and Current Status</t>
-  </si>
-  <si>
-    <t>Navy Personnel Research and Development Center</t>
-  </si>
-  <si>
-    <t>Gerald J. Laabs, Virginia M. Berry</t>
-  </si>
-  <si>
-    <t>ADA186100</t>
-  </si>
-  <si>
-    <t>https://apps.dtic.mil/sti/pdfs/ADA186100.pdf</t>
-  </si>
-  <si>
-    <t>Navy, development of job performance measures</t>
-  </si>
-  <si>
-    <t>Impact of Employee Participation on Job Satisfaction, Employee Commitment, and Employee Productivity</t>
-  </si>
-  <si>
-    <t>International Review of Business Research Papers</t>
-  </si>
-  <si>
-    <t>Komal Khalid Bhatti, Tahir Masood Qureshi</t>
-  </si>
-  <si>
-    <t>https://d1wqtxts1xzle7.cloudfront.net/31222208/Bhatti.pdf?1367803413=&amp;response-content-disposition=inline%3B+filename%3DImpact_of_employee_participation_on_job.pdf&amp;Expires=1592942435&amp;Signature=VuvoRjLm6NSoKNWC5Y7OozgvadJPDv1XzI8ECTGFIqfDVmB68KQidzGqb1Z4-B-MchWyBQG6acB6M5IKQqsHUwKLksAxAIov7dM6azC7pa5ZO9jPOgafVHnZ2a9I1ELzi5olqNGmSGasBK3j~l4Jng02VBmKb8~VR7GCO8kg14KOGQRtAMBrheog4mERc0FuwFn-~vv04lWLMnBAQsf3V0Vez5kmHdeCcSUNy59ibSCytWYTYyDaR7L~qmNxCY7Bs-4zXkSv92gTyQ-HuKkwKp59WThPWujy06wRKpsn0W9iHwr1MKU30loexl6-zF4A5CsBa1O2IsWHdnrEW2irwA__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
-  </si>
-  <si>
-    <t>no mentions scales, pg. 59</t>
-  </si>
-  <si>
-    <t>employee participation, job satisfaction, employee commitment, employee productivity</t>
-  </si>
-  <si>
-    <t>More Progress Toward a Taxonomy of Managerial Performance Requirements</t>
-  </si>
-  <si>
-    <t>Human Performance</t>
-  </si>
-  <si>
-    <t>Borman, Brush</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1207/s15327043hup0601_1</t>
-  </si>
-  <si>
-    <t>http://jacksonfall14professionalissues.pbworks.com/w/file/fetch/106744248/Borman_20_26_20Brush_20%281993%29.pdf</t>
-  </si>
-  <si>
-    <t>p.11</t>
-  </si>
-  <si>
-    <t>performance requirements, dimensions</t>
-  </si>
-  <si>
-    <t>Dimension of Job Performance</t>
-  </si>
-  <si>
-    <t>Murphy, Kroker</t>
-  </si>
-  <si>
-    <t>DAAG 29-81-D-OlOO</t>
-  </si>
-  <si>
-    <t>https://apps.dtic.mil/sti/pdfs/ADA194951.pdf</t>
-  </si>
-  <si>
-    <t>performance measures, work behaviors, team, individual</t>
-  </si>
-  <si>
-    <t>The Italian version of the Job Crafting Scale (JCS)</t>
-  </si>
-  <si>
-    <t>Applied Psychology Bulletin (Bollettino di Psicologia Applicata)</t>
-  </si>
-  <si>
-    <t>Cenciotti, Borgogni, Callea, Colombo, Cotese, Ingusci, Miraglia, Zito</t>
-  </si>
-  <si>
-    <t>http://proxy01.its.virginia.edu/login?url=http://search.ebscohost.com/login.aspx?direct=true&amp;db=a9h&amp;AN=121086285&amp;site=ehost-live&amp;scope=site</t>
-  </si>
-  <si>
-    <t>job crafting scale on p. 32</t>
-  </si>
-  <si>
-    <t>mentions performance, relationship between job performance and crafting</t>
-  </si>
-  <si>
-    <t>Comparative Analysis of the Reliability of Job Performance Ratings.</t>
-  </si>
-  <si>
-    <t>Visweswaran, Ones, Schmidt</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1037/0021-9010.81.5.557</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Chockalingam_vish_Viswesvaran/publication/232489357_Comparative_Analysis_of_Reliability_of_Job_Performance_Ratings/links/54e250530cf2c3e7d2d3723c.pdf</t>
-  </si>
-  <si>
-    <t>dimensions</t>
-  </si>
-  <si>
-    <t>Self-reported Work Ability and Work Performance in Workers with Chronic Nonspecific Musculoskeletal Pain</t>
-  </si>
-  <si>
-    <t>Journal of Occupational Rehabilitation</t>
-  </si>
-  <si>
-    <t>Haitze J. de Vries, Michiel F. Reneman, Johan W. Groothoff, Jan H. B. Geertzen, Sandra Brouwer</t>
-  </si>
-  <si>
-    <t>DOI 10.1007/s10926-012-9373-1</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/content/pdf/10.1007/s10926-012-9373-1.pdf</t>
+    <t xml:space="preserve">http://cdn2.hubspot.net/hub/155091/file-608530384-pdf/docs/pxt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"yes" page 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seems terrible and not actually valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Investigation of Two Constructs: Organization Membership Satisfaction and Job Performance Satisfaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force Institute of Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">military</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wesley B. Dixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://apps.dtic.mil/sti/pdfs/ADA076980.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes pg. 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satisfaction, performance, Membership-Performance Questionaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota Satisfaction Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Navy Job Performance Measurement Program: Background, Inception, and Current Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy Personnel Research and Development Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerald J. Laabs, Virginia M. Berry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADA186100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://apps.dtic.mil/sti/pdfs/ADA186100.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy, development of job performance measures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact of Employee Participation on Job Satisfaction, Employee Commitment, and Employee Productivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Review of Business Research Papers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komal Khalid Bhatti, Tahir Masood Qureshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://d1wqtxts1xzle7.cloudfront.net/31222208/Bhatti.pdf?1367803413=&amp;response-content-disposition=inline%3B+filename%3DImpact_of_employee_participation_on_job.pdf&amp;Expires=1592942435&amp;Signature=VuvoRjLm6NSoKNWC5Y7OozgvadJPDv1XzI8ECTGFIqfDVmB68KQidzGqb1Z4-B-MchWyBQG6acB6M5IKQqsHUwKLksAxAIov7dM6azC7pa5ZO9jPOgafVHnZ2a9I1ELzi5olqNGmSGasBK3j~l4Jng02VBmKb8~VR7GCO8kg14KOGQRtAMBrheog4mERc0FuwFn-~vv04lWLMnBAQsf3V0Vez5kmHdeCcSUNy59ibSCytWYTYyDaR7L~qmNxCY7Bs-4zXkSv92gTyQ-HuKkwKp59WThPWujy06wRKpsn0W9iHwr1MKU30loexl6-zF4A5CsBa1O2IsWHdnrEW2irwA__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no mentions scales, pg. 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employee participation, job satisfaction, employee commitment, employee productivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More Progress Toward a Taxonomy of Managerial Performance Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borman, Brush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1207/s15327043hup0601_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://jacksonfall14professionalissues.pbworks.com/w/file/fetch/106744248/Borman_20_26_20Brush_20%281993%29.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performance requirements, dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimension of Job Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murphy, Kroker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAAG 29-81-D-OlOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://apps.dtic.mil/sti/pdfs/ADA194951.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performance measures, work behaviors, team, individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Italian version of the Job Crafting Scale (JCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applied Psychology Bulletin (Bollettino di Psicologia Applicata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cenciotti, Borgogni, Callea, Colombo, Cotese, Ingusci, Miraglia, Zito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://proxy01.its.virginia.edu/login?url=http://search.ebscohost.com/login.aspx?direct=true&amp;db=a9h&amp;AN=121086285&amp;site=ehost-live&amp;scope=site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job crafting scale on p. 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mentions performance, relationship between job performance and crafting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparative Analysis of the Reliability of Job Performance Ratings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visweswaran, Ones, Schmidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1037/0021-9010.81.5.557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchgate.net/profile/Chockalingam_vish_Viswesvaran/publication/232489357_Comparative_Analysis_of_Reliability_of_Job_Performance_Ratings/links/54e250530cf2c3e7d2d3723c.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-reported Work Ability and Work Performance in Workers with Chronic Nonspecific Musculoskeletal Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Occupational Rehabilitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haitze J. de Vries, Michiel F. Reneman, Johan W. Groothoff, Jan H. B. Geertzen, Sandra Brouwer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI 10.1007/s10926-012-9373-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://link.springer.com/content/pdf/10.1007/s10926-012-9373-1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">no. mentions, pg. 2-3 </t>
   </si>
   <si>
-    <t>performance, chronic illness</t>
-  </si>
-  <si>
-    <t>World Health Organization's Health and Work Performance Questionnaire</t>
-  </si>
-  <si>
-    <t>World Health Organization Health and Performance Questionnaire</t>
-  </si>
-  <si>
-    <t>WHO</t>
-  </si>
-  <si>
-    <t>https://www.hcp.med.harvard.edu/hpq/ftpdir/survey_clinical_7day.pdf</t>
-  </si>
-  <si>
-    <t>yes, 1-6</t>
-  </si>
-  <si>
-    <t>performance questionnaire, chronic illness, chronic pain</t>
-  </si>
-  <si>
-    <t>importance of including these kind of measures for ethnics evaluation?</t>
-  </si>
-  <si>
-    <t>Endicott work productivity scale (EWPS): A new measure to assess treatment effects</t>
-  </si>
-  <si>
-    <t>Psychopharmacology Bulletin</t>
-  </si>
-  <si>
-    <t>Jean Edicott and John Nee</t>
-  </si>
-  <si>
-    <t>https://search-proquest-com.proxy01.its.virginia.edu/docview/78956500/499BA4C1A5AA4CC6PQ/1?accountid=14678</t>
-  </si>
-  <si>
-    <t>potentially?</t>
-  </si>
-  <si>
-    <t>I cannot find the full text of this article, but it seems useful</t>
-  </si>
-  <si>
-    <t>The Role-Based Performance Scale: Validity Analysis of a Theory-Based Measure</t>
-  </si>
-  <si>
-    <t>Center for Advanced Human Resource Studies</t>
-  </si>
-  <si>
-    <t>Theresa M. Welbourne, Diane E. Johnson, Amir Eres</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5465/256941</t>
-  </si>
-  <si>
-    <t>https://digitalcommons.ilr.cornell.edu/cgi/viewcontent.cgi?article=1146&amp;=&amp;context=cahrswp&amp;=&amp;sei-redir=1&amp;referer=https%253A%252F%252Fscholar.google.com%252Fscholar%253Fhl%253Den%2526as_sdt%253D0%25252C47%2526q%253D%252522job%252Bperformance%252522%252Bscale%2526btnG%253D#search=%22job%20performance%20scale%22</t>
-  </si>
-  <si>
-    <t>yes, pg. 30</t>
-  </si>
-  <si>
-    <t>role theory, identity theory, performance measurement</t>
-  </si>
-  <si>
-    <t>* Use of this scale requires written permission from the first author of this paper. Copyright, 1996.</t>
-  </si>
-  <si>
-    <t>Development and validation of the job crafting scale</t>
-  </si>
-  <si>
-    <t>Journal of Vocational Behavior</t>
-  </si>
-  <si>
-    <t>Maria Tims, Arnold B. Bakker, Daantje Derks</t>
-  </si>
-  <si>
-    <t>doi:10.1016/j.jvb.2011.05.009</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/abs/pii/S0001879111000789</t>
-  </si>
-  <si>
-    <t>yes, pg. 177</t>
-  </si>
-  <si>
-    <t>job crafting</t>
-  </si>
-  <si>
-    <t>Autonomy and Workload Among Temporary Workers: Their Effects on Job Satisfaction, Organizational Commitment, Life Satisfaction, and Self-Reated Performance</t>
-  </si>
-  <si>
-    <t>International Journal of Stress Management</t>
-  </si>
-  <si>
-    <t>Nele De Cuyper and Hans De Witte</t>
-  </si>
-  <si>
-    <t>DOI: 10.1037/1072-5245.13.4.441</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Hans_De_Witte/publication/284200846_Job_insecurity_among_temporary_versus_permanent_workers_Effects_on_job_satisfaction_organizational_commitment_life_satisfaction_and_self-rated_performance/links/567a9af408ae1e63f1df4bbc.pdf</t>
-  </si>
-  <si>
-    <t>discussion of, pg. 448</t>
-  </si>
-  <si>
-    <t>autonomy, job satisfaction, work performance, organizational commitment</t>
-  </si>
-  <si>
-    <t>Autonomy (Rosenthal, Guest, and Peccei 1996) (located?); Workload (Semmer, Zapf, and Dunckel 1991) (unable to locate); Job satisfaction (Prince 1997) (located); Organizational commitment (Cook and Wall 1980); Life satisfaction (Isaksson et al 2003); Self-performance (Abramis 1994)</t>
-  </si>
-  <si>
-    <t>Gender differences in managers' causal explanations for their work performance: a study in two organizations</t>
-  </si>
-  <si>
-    <t>Journal of Occupational and Organizational Psychology</t>
-  </si>
-  <si>
-    <t>Patrice Rosenthal, David Guest, Riccardo Peccei</t>
-  </si>
-  <si>
-    <t>DOI: 10.1111/j.2044-8325.1996.tb00606.x</t>
-  </si>
-  <si>
-    <t>http://web.b.ebscohost.com.proxy01.its.virginia.edu/ehost/pdfviewer/pdfviewer?vid=1&amp;sid=ee90d1d7-372c-4fab-a303-9bda115ddc08%40pdc-v-sessmgr01</t>
-  </si>
-  <si>
-    <t>yes, pg. 148</t>
-  </si>
-  <si>
-    <t>successful and unsuccessful performance, gender</t>
-  </si>
-  <si>
-    <t>De Cuyper and De Witte said this study was about autonomy, but it doesn't appear to be</t>
-  </si>
-  <si>
-    <t>Available instruments for measurement of psychosocial factors in the work environement</t>
-  </si>
-  <si>
-    <t>Int Arch Occup Environ Health</t>
-  </si>
-  <si>
-    <t>Maria Carla Tabanelli, Marco Depolo, Robin M. T. Cooke, Guido Sarchielli, Roberta BonWglioli, Stefano Mattioli, Francesco S. Violante</t>
-  </si>
-  <si>
-    <t>DOI: 10.1007/s00420-008-0312-6</t>
-  </si>
-  <si>
-    <t>http://safewellwork.com/instruments_for_assessment.pdf</t>
-  </si>
-  <si>
-    <t>work-related psychosocial factors</t>
-  </si>
-  <si>
-    <t>Literature Review; we should look through all of the articles they find, they provide weblinks in the paper</t>
-  </si>
-  <si>
-    <t>New work attitude measures of trust, organizational commitment and personal need non-fulfilment</t>
-  </si>
-  <si>
-    <t>Jounral of Occupational Psychology</t>
-  </si>
-  <si>
-    <t>John Cook and Toby Wall</t>
-  </si>
-  <si>
-    <t>http://jwalkonline.org/docs/Grad%20Classes/Survey/articles/psyclimate/noted/org%20comm%20scale.pdf</t>
-  </si>
-  <si>
-    <t>yes, pg. 50-2</t>
-  </si>
-  <si>
-    <t>trust, work attitude, trust, organizational commitment</t>
-  </si>
-  <si>
-    <t>Personality, political skill, and job performance</t>
-  </si>
-  <si>
-    <t>Blickle</t>
-  </si>
-  <si>
-    <t>http://www.academia.edu/download/42428138/Personality_Political_Skill_and_Job_Perf20160208-1018-1cxqc6k.pdf</t>
-  </si>
-  <si>
-    <t>p. 381</t>
-  </si>
-  <si>
-    <t>HSE Management Standards Indicator Tool</t>
-  </si>
-  <si>
-    <t>UK Health and Safety Executive</t>
-  </si>
-  <si>
-    <t>commerical/non-US government</t>
-  </si>
-  <si>
-    <t>https://www.hse.gov.uk/stress/standards/downloads.htm</t>
-  </si>
-  <si>
-    <t>https://www.hse.gov.uk/stress/assets/docs/indicatortool.pdf</t>
-  </si>
-  <si>
-    <t>stress; work performance</t>
-  </si>
-  <si>
-    <t>QPS Nordic: General Questionnaire for Psychological and Social Factors at Work</t>
-  </si>
-  <si>
-    <t>Nordic Council of Ministers</t>
-  </si>
-  <si>
-    <t>Project 42.50.01.01</t>
-  </si>
-  <si>
-    <t>https://www.qps-nordic.org/en/</t>
-  </si>
-  <si>
-    <t>https://www.qps-nordic.org/en/doc/QPSNordic_questionnaire.pdf</t>
-  </si>
-  <si>
-    <t>stress, working hours, job involvement, turnover, job satisfaction</t>
-  </si>
-  <si>
-    <t>The Job Diagnostic Survey: An Instrument for the Diagnosis of Jobs anbd the Evaluation of Job Redesign projects</t>
-  </si>
-  <si>
-    <t>Yale University; Office of Naval Research Manpower Administration</t>
-  </si>
-  <si>
-    <t>J. Richard Hackman and Greg R. Oldham</t>
-  </si>
-  <si>
-    <t>https://apps.dtic.mil/sti/pdfs/AD0779828.pdf</t>
-  </si>
-  <si>
-    <t>yes; pg. 42 - 53</t>
-  </si>
-  <si>
-    <t>job characteristics, internal work motivation, job satisfaction</t>
-  </si>
-  <si>
-    <t>NIOSH Generic Job Stress Questionnaire</t>
-  </si>
-  <si>
-    <t>National Institute for Occupational Safety and Health</t>
-  </si>
-  <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov/niosh/topics/workorg/detail088.html</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov/niosh/topics/workorg/tools/pdfs/NIOSH-Generic-Job-Stress-Questionaire.pdf</t>
-  </si>
-  <si>
-    <t>conflict at work, health, job requirements, job satisfaction, work environment, work reponsibility</t>
-  </si>
-  <si>
-    <t>The moderating role of employee positive well being on the relation between job satisfaction and job performance.</t>
-  </si>
-  <si>
-    <t>Wright, T. A., Cropanzano, R., &amp; Bonett, D. G.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1037/1076-8998.12.2.93</t>
-  </si>
-  <si>
-    <t>https://psycnet.apa.org/record/2007-05780-001</t>
-  </si>
-  <si>
-    <t>meager, but yes: p.98</t>
-  </si>
-  <si>
-    <t>People at Work survey: An assessment of psychosocial hazards and factors in the workplace</t>
-  </si>
-  <si>
-    <t>Australian government</t>
-  </si>
-  <si>
-    <t>non-US government</t>
-  </si>
-  <si>
-    <t>https://www.worksafe.qld.gov.au/injury-prevention-safety/mentally-healthy-workplaces/guidance-and-tools/people-at-work/implementing-people-at-work</t>
-  </si>
-  <si>
-    <t>https://www.worksafe.qld.gov.au/__data/assets/pdf_file/0009/128286/paw-survey.pdf</t>
-  </si>
-  <si>
-    <t>job demands, job resources, musculoskeletal symptoms, job burnout, sleep disturbances, absenteeism, turnover, job dissatisfaction</t>
-  </si>
-  <si>
-    <t>Psychological well-being and job satisfaction as predictors of job performance.</t>
+    <t xml:space="preserve">performance, chronic illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Health Organization's Health and Work Performance Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Health Organization Health and Performance Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcp.med.harvard.edu/hpq/ftpdir/survey_clinical_7day.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, 1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performance questionnaire, chronic illness, chronic pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">importance of including these kind of measures for ethnics evaluation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endicott work productivity scale (EWPS): A new measure to assess treatment effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychopharmacology Bulletin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Edicott and John Nee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://search-proquest-com.proxy01.its.virginia.edu/docview/78956500/499BA4C1A5AA4CC6PQ/1?accountid=14678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potentially?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I cannot find the full text of this article, but it seems useful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Role-Based Performance Scale: Validity Analysis of a Theory-Based Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center for Advanced Human Resource Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theresa M. Welbourne, Diane E. Johnson, Amir Eres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5465/256941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcommons.ilr.cornell.edu/cgi/viewcontent.cgi?article=1146&amp;=&amp;context=cahrswp&amp;=&amp;sei-redir=1&amp;referer=https%253A%252F%252Fscholar.google.com%252Fscholar%253Fhl%253Den%2526as_sdt%253D0%25252C47%2526q%253D%252522job%252Bperformance%252522%252Bscale%2526btnG%253D#search=%22job%20performance%20scale%22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role theory, identity theory, performance measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Use of this scale requires written permission from the first author of this paper. Copyright, 1996.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development and validation of the job crafting scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Vocational Behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Tims, Arnold B. Bakker, Daantje Derks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi:10.1016/j.jvb.2011.05.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sciencedirect.com/science/article/abs/pii/S0001879111000789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job crafting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autonomy and Workload Among Temporary Workers: Their Effects on Job Satisfaction, Organizational Commitment, Life Satisfaction, and Self-Reated Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Journal of Stress Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nele De Cuyper and Hans De Witte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1037/1072-5245.13.4.441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchgate.net/profile/Hans_De_Witte/publication/284200846_Job_insecurity_among_temporary_versus_permanent_workers_Effects_on_job_satisfaction_organizational_commitment_life_satisfaction_and_self-rated_performance/links/567a9af408ae1e63f1df4bbc.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussion of, pg. 448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autonomy, job satisfaction, work performance, organizational commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autonomy (Rosenthal, Guest, and Peccei 1996) (located?); Workload (Semmer, Zapf, and Dunckel 1991) (unable to locate); Job satisfaction (Prince 1997) (located); Organizational commitment (Cook and Wall 1980); Life satisfaction (Isaksson et al 2003); Self-performance (Abramis 1994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender differences in managers' causal explanations for their work performance: a study in two organizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Occupational and Organizational Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrice Rosenthal, David Guest, Riccardo Peccei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1111/j.2044-8325.1996.tb00606.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://web.b.ebscohost.com.proxy01.its.virginia.edu/ehost/pdfviewer/pdfviewer?vid=1&amp;sid=ee90d1d7-372c-4fab-a303-9bda115ddc08%40pdc-v-sessmgr01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">successful and unsuccessful performance, gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Cuyper and De Witte said this study was about autonomy, but it doesn't appear to be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available instruments for measurement of psychosocial factors in the work environement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int Arch Occup Environ Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Carla Tabanelli, Marco Depolo, Robin M. T. Cooke, Guido Sarchielli, Roberta BonWglioli, Stefano Mattioli, Francesco S. Violante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1007/s00420-008-0312-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://safewellwork.com/instruments_for_assessment.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work-related psychosocial factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literature Review; we should look through all of the articles they find, they provide weblinks in the paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New work attitude measures of trust, organizational commitment and personal need non-fulfilment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jounral of Occupational Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Cook and Toby Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://jwalkonline.org/docs/Grad%20Classes/Survey/articles/psyclimate/noted/org%20comm%20scale.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 50-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trust, work attitude, trust, organizational commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personality, political skill, and job performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blickle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.academia.edu/download/42428138/Personality_Political_Skill_and_Job_Perf20160208-1018-1cxqc6k.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p. 381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSE Management Standards Indicator Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK Health and Safety Executive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commerical/non-US government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hse.gov.uk/stress/standards/downloads.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hse.gov.uk/stress/assets/docs/indicatortool.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stress; work performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QPS Nordic: General Questionnaire for Psychological and Social Factors at Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordic Council of Ministers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project 42.50.01.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.qps-nordic.org/en/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.qps-nordic.org/en/doc/QPSNordic_questionnaire.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stress, working hours, job involvement, turnover, job satisfaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Job Diagnostic Survey: An Instrument for the Diagnosis of Jobs anbd the Evaluation of Job Redesign projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yale University; Office of Naval Research Manpower Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Richard Hackman and Greg R. Oldham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://apps.dtic.mil/sti/pdfs/AD0779828.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes; pg. 42 - 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job characteristics, internal work motivation, job satisfaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIOSH Generic Job Stress Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute for Occupational Safety and Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cdc.gov/niosh/topics/workorg/detail088.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cdc.gov/niosh/topics/workorg/tools/pdfs/NIOSH-Generic-Job-Stress-Questionaire.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conflict at work, health, job requirements, job satisfaction, work environment, work reponsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The moderating role of employee positive well being on the relation between job satisfaction and job performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wright, T. A., Cropanzano, R., &amp; Bonett, D. G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1037/1076-8998.12.2.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://psycnet.apa.org/record/2007-05780-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meager, but yes: p.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People at Work survey: An assessment of psychosocial hazards and factors in the workplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-US government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.worksafe.qld.gov.au/injury-prevention-safety/mentally-healthy-workplaces/guidance-and-tools/people-at-work/implementing-people-at-work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.worksafe.qld.gov.au/__data/assets/pdf_file/0009/128286/paw-survey.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job demands, job resources, musculoskeletal symptoms, job burnout, sleep disturbances, absenteeism, turnover, job dissatisfaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychological well-being and job satisfaction as predictors of job performance.</t>
   </si>
   <si>
     <t xml:space="preserve">Wright, T. A., &amp; Cropanzano, R. </t>
@@ -1021,760 +1015,760 @@
     <t xml:space="preserve"> https://doi.org/10.1037/1076-8998.5.1.84</t>
   </si>
   <si>
-    <t>https://psycnet.apa.org/record/1999-15533-008</t>
-  </si>
-  <si>
-    <t>not explicit</t>
-  </si>
-  <si>
-    <t>Stress - Mind - Health: The START procedure for the risk assessment and risk management of work-related stress</t>
+    <t xml:space="preserve">https://psycnet.apa.org/record/1999-15533-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not explicit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stress - Mind - Health: The START procedure for the risk assessment and risk management of work-related stress</t>
   </si>
   <si>
     <t xml:space="preserve">Satzer, Rolf &amp; Geray, Max </t>
   </si>
   <si>
-    <t>https://www.boeckler.de/pdf/p_arbp_174.pdf</t>
-  </si>
-  <si>
-    <t>yes, pg. 42 - 44</t>
-  </si>
-  <si>
-    <t>job stress, work recognition, job satisfaction</t>
-  </si>
-  <si>
-    <t>Pressure Management Indicator Questionnaire</t>
-  </si>
-  <si>
-    <t>Resource Systems Limited</t>
+    <t xml:space="preserve">https://www.boeckler.de/pdf/p_arbp_174.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 42 - 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job stress, work recognition, job satisfaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure Management Indicator Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource Systems Limited</t>
   </si>
   <si>
     <t xml:space="preserve">commerical </t>
   </si>
   <si>
-    <t>Stephen Williams</t>
-  </si>
-  <si>
-    <t>http://repositorio.ismt.pt/bitstream/123456789/637/5/Anexo4_PMI_-_English%5B1%5D.pdf</t>
+    <t xml:space="preserve">Stephen Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://repositorio.ismt.pt/bitstream/123456789/637/5/Anexo4_PMI_-_English%5B1%5D.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">job satisfaction, job pressure, mental health, physical health, behavior, perception, </t>
   </si>
   <si>
-    <t>Stress &amp; Satisfction Offset Score (SSOS) A Self-Assessment</t>
-  </si>
-  <si>
-    <t>Health Canada; Centre for Addiction and Mental Health</t>
-  </si>
-  <si>
-    <t>Martin Shaine</t>
-  </si>
-  <si>
-    <t>http://www.workplacementalhealth.org/getattachment/Case-Studies/Pittsburgh-Plate-Glass-Industries-(PPG)-II/fd_ssos.pdf?lang=en-US&amp;ext=.pdf</t>
-  </si>
-  <si>
-    <t>control, reward, demand, effort</t>
+    <t xml:space="preserve">Stress &amp; Satisfction Offset Score (SSOS) A Self-Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Canada; Centre for Addiction and Mental Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Shaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.workplacementalhealth.org/getattachment/Case-Studies/Pittsburgh-Plate-Glass-Industries-(PPG)-II/fd_ssos.pdf?lang=en-US&amp;ext=.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control, reward, demand, effort</t>
   </si>
   <si>
     <t xml:space="preserve">It is not to be used as an evaluation tool; it only provides a quick snapshot of how stressful the working environment is. Users of this tool are permitted to utilise the material for their own internal training and educational purposes only. </t>
   </si>
   <si>
-    <t>Work Environment Survey</t>
-  </si>
-  <si>
-    <t>Newfoundland and Labrador Statistics Agency</t>
-  </si>
-  <si>
-    <t>https://www.gov.nl.ca/exec/hrs/files/publications-wes2011.pdf</t>
+    <t xml:space="preserve">Work Environment Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newfoundland and Labrador Statistics Agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gov.nl.ca/exec/hrs/files/publications-wes2011.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">yes, can be extracted from 2011 report results (pg. 43 </t>
   </si>
   <si>
-    <t>job satisfaction, supervisor relationship, organizational commitment, communication satisfaction, co-worker relationships, health &amp; safety awareness, work-life balance, organizational trust, work load, compensation satisfaction, strategy orientation, learning &amp; development</t>
+    <t xml:space="preserve">job satisfaction, supervisor relationship, organizational commitment, communication satisfaction, co-worker relationships, health &amp; safety awareness, work-life balance, organizational trust, work load, compensation satisfaction, strategy orientation, learning &amp; development</t>
   </si>
   <si>
     <t xml:space="preserve">Working Conditions and Control Questionnaire </t>
   </si>
   <si>
-    <t>Department of Work Psychology of University of Liege, Belgium</t>
-  </si>
-  <si>
-    <t>commerical/academic</t>
-  </si>
-  <si>
-    <t>Isabelle Hansez</t>
-  </si>
-  <si>
-    <t>http://www.woccq.be/woccq/les-questionnaires.html</t>
-  </si>
-  <si>
-    <t>yes, two scales</t>
-  </si>
-  <si>
-    <t>The Copenhagen Psychosocial Questionnaire - a tool for the assessment and improvement of the psychosocial work environment</t>
-  </si>
-  <si>
-    <t>Scandinavian Journal of Work, Environment &amp; Health</t>
-  </si>
-  <si>
-    <t>Tage S Kristensen, Harald Hannerz, Annie Hogh, Vilhelm Borg</t>
-  </si>
-  <si>
-    <t>http://www.jstor.com/stable/40967527</t>
-  </si>
-  <si>
-    <t>yes, 440</t>
-  </si>
-  <si>
-    <t>productibity, tasks, interpersonal relationships</t>
-  </si>
-  <si>
-    <t>The measurement of effort-reward imbalance at work: European comparisions</t>
-  </si>
-  <si>
-    <t>Social Science &amp; Medicine</t>
-  </si>
-  <si>
-    <t>Johannes Siegrista, Dagmar Starkea, Tarani Chandolab, Isabelle Godinc, Michael Marmotb, Isabelle Niedhammerd, Richard Petere</t>
-  </si>
-  <si>
-    <t>doi:10.1016/S0277-9536(03)00351-4</t>
-  </si>
-  <si>
-    <t>https://www-sciencedirect-com.proxy01.its.virginia.edu/science/article/pii/S0277953603003514</t>
-  </si>
-  <si>
-    <t>yes, 1496 - 7</t>
-  </si>
-  <si>
-    <t>effort-reward imbalance, work-related stress</t>
+    <t xml:space="preserve">Department of Work Psychology of University of Liege, Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commerical/academic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabelle Hansez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.woccq.be/woccq/les-questionnaires.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, two scales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Copenhagen Psychosocial Questionnaire - a tool for the assessment and improvement of the psychosocial work environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scandinavian Journal of Work, Environment &amp; Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tage S Kristensen, Harald Hannerz, Annie Hogh, Vilhelm Borg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.jstor.com/stable/40967527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, 440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">productibity, tasks, interpersonal relationships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The measurement of effort-reward imbalance at work: European comparisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Science &amp; Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johannes Siegrista, Dagmar Starkea, Tarani Chandolab, Isabelle Godinc, Michael Marmotb, Isabelle Niedhammerd, Richard Petere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi:10.1016/S0277-9536(03)00351-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-sciencedirect-com.proxy01.its.virginia.edu/science/article/pii/S0277953603003514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, 1496 - 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effort-reward imbalance, work-related stress</t>
   </si>
   <si>
     <t xml:space="preserve">The Measurement of job characteristics </t>
   </si>
   <si>
-    <t>The Academy of Management Journal</t>
-  </si>
-  <si>
-    <t>Henry P. Sims, Jr., Andrew D. Szilagyi and Robert T. Keller</t>
-  </si>
-  <si>
-    <t>DOI: 10.2307/255772</t>
-  </si>
-  <si>
-    <t>https://www-jstor-org.proxy01.its.virginia.edu/stable/255772</t>
-  </si>
-  <si>
-    <t>yes, 200</t>
-  </si>
-  <si>
-    <t>Job Characteristic Inventory, individual productivity, job satisfaction</t>
-  </si>
-  <si>
-    <t>Enhancing learning opportunities at work</t>
-  </si>
-  <si>
-    <t>KATHOLIEKE UNIVERSITEIT LEUVEN</t>
-  </si>
-  <si>
-    <t>Rik Huys, Katleen De Rick,  Tom Vandenbrande</t>
-  </si>
-  <si>
-    <t>https://core.ac.uk/download/pdf/34610119.pdf</t>
-  </si>
-  <si>
-    <t>yes, 82 -85</t>
-  </si>
-  <si>
-    <t>level of difficulty, autonomy, information supply, completeness</t>
-  </si>
-  <si>
-    <t>Actual authors of the scale: Dhondt, S. &amp; Houtman, I. (1996), The WEBA-method: NOVA-WEBA manual, a questionnaire to detect bottlenecks in well-being], Leiden: TNO Preventie en Gezondheid.</t>
-  </si>
-  <si>
-    <t>The measurement of work: hierachical representation of the Mutlimethod Job Design Questionnaire</t>
-  </si>
-  <si>
-    <t>Jeffrey R. Edwards, Judith A. Scully, Mary D. Brtek</t>
-  </si>
-  <si>
-    <t>DOI: 10.1111/j.1744-6570.1999.tb00163.x</t>
-  </si>
-  <si>
-    <t>http://web.a.ebscohost.com.proxy01.its.virginia.edu/ehost/detail/detail?vid=3&amp;sid=8feb08f9-1292-457b-bc28-e2a5da6bd874%40sessionmgr4006&amp;bdata=JnNpdGU9ZWhvc3QtbGl2ZSZzY29wZT1zaXRl#AN=1986070&amp;db=bah</t>
-  </si>
-  <si>
-    <t>yes, 316 - 8</t>
-  </si>
-  <si>
-    <t>Multimethod Job Design Questionnaire; motivational, mechanistic, biological, perceptual-motor</t>
+    <t xml:space="preserve">The Academy of Management Journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry P. Sims, Jr., Andrew D. Szilagyi and Robert T. Keller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.2307/255772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-jstor-org.proxy01.its.virginia.edu/stable/255772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Characteristic Inventory, individual productivity, job satisfaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhancing learning opportunities at work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KATHOLIEKE UNIVERSITEIT LEUVEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rik Huys, Katleen De Rick,  Tom Vandenbrande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://core.ac.uk/download/pdf/34610119.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, 82 -85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level of difficulty, autonomy, information supply, completeness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual authors of the scale: Dhondt, S. &amp; Houtman, I. (1996), The WEBA-method: NOVA-WEBA manual, a questionnaire to detect bottlenecks in well-being], Leiden: TNO Preventie en Gezondheid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The measurement of work: hierachical representation of the Mutlimethod Job Design Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeffrey R. Edwards, Judith A. Scully, Mary D. Brtek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1111/j.1744-6570.1999.tb00163.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://web.a.ebscohost.com.proxy01.its.virginia.edu/ehost/detail/detail?vid=3&amp;sid=8feb08f9-1292-457b-bc28-e2a5da6bd874%40sessionmgr4006&amp;bdata=JnNpdGU9ZWhvc3QtbGl2ZSZzY29wZT1zaXRl#AN=1986070&amp;db=bah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, 316 - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimethod Job Design Questionnaire; motivational, mechanistic, biological, perceptual-motor</t>
   </si>
   <si>
     <t xml:space="preserve">Work design and management in the manufacturing sector: development and validation of the Work Organisation Assessment Questionnaire </t>
   </si>
   <si>
-    <t>Occupational and Environmental Medicine</t>
-  </si>
-  <si>
-    <t>A Griffiths, T Cox, M Karanika, S Khan, J-M Tomas</t>
-  </si>
-  <si>
-    <t>doi: 10.1136/oem.2005.023671</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/6928049_Work_design_and_management_in_the_manufacturing_sector_Development_and_validation_of_the_Work_Organisation_Assessment_Questionnaire</t>
-  </si>
-  <si>
-    <t>yes, pg. 671</t>
-  </si>
-  <si>
-    <t>Work Organization Assessment Questionnaire</t>
-  </si>
-  <si>
-    <t>Another article which uses this questionnaire: Wynne-Jones et al (2009) - Examination of the Work Organization Assessment Questionnaire in Public Sector Workers</t>
-  </si>
-  <si>
-    <t>Development and Testing of the Workplace Stressors Assessment Questionnaire</t>
-  </si>
-  <si>
-    <t>American College of Occupational and Environmental Medicine</t>
-  </si>
-  <si>
-    <t>Maysaa H. Mahmood, Stephen Joel Coons, Mignonne C. Guy, and Kenneth R. Pelletier</t>
-  </si>
-  <si>
-    <t>DOI: 10.1097/JOM.0b013e3181fb53dc</t>
-  </si>
-  <si>
-    <t>http://ovidsp.dc2.ovid.com.proxy01.its.virginia.edu/sp-4.06.0a/ovidweb.cgi?WebLinkFrameset=1&amp;S=KICHFPCHBJEBDAHLJPBKGGBFKINNAA00&amp;returnUrl=ovidweb.cgi%3f%26Full%2bText%3dL%257cS.sh.28.29%257c0%257c00043764-201012000-00010%26S%3dKICHFPCHBJEBDAHLJPBKGGBFKINNAA00&amp;fromjumpstart=0&amp;directlink=http%3a%2f%2fovidsp.dc2.ovid.com%2fovftpdfs%2fFPEBJPBFGGHLBJ00%2ffs047%2fovft%2flive%2fgv024%2f00043764%2f00043764-201012000-00010.pdf&amp;filename=Development+and+Testing+of+the+Workplace+Stressors+Assessment+Questionnaire.&amp;pdf_key=FPEBJPBFGGHLBJ00&amp;pdf_index=/fs047/ovft/live/gv024/00043764/00043764-201012000-00010</t>
-  </si>
-  <si>
-    <t>demands, control, support, role, relationships, rewards, change, communication</t>
-  </si>
-  <si>
-    <t>The Measurement of Organizational Commitment</t>
-  </si>
-  <si>
-    <t>Organizational Efectiveness Research Program, Office of Naval Research</t>
-  </si>
-  <si>
-    <t>Richard T. Mowday, Richard M. Steers, Lyman W. Porter</t>
-  </si>
-  <si>
-    <t>https://apps.dtic.mil/dtic/tr/fulltext/u2/a057377.pdf</t>
-  </si>
-  <si>
-    <t>yes, pg. 34</t>
-  </si>
-  <si>
-    <t>organizational commitment, job satisfaction, career satisfaction, job involvement, job performance</t>
-  </si>
-  <si>
-    <t>Handbook of organizational measurement</t>
-  </si>
-  <si>
-    <t>International Journal of Manpower</t>
-  </si>
-  <si>
-    <t>James L. Price</t>
-  </si>
-  <si>
-    <t>https://doi-org.proxy01.its.virginia.edu/10.1108/01437729710182260</t>
-  </si>
-  <si>
-    <t>https://www-emerald-com.proxy01.its.virginia.edu/insight/content/doi/10.1108/01437729710182260/full/pdf?title=handbook-of-organizational-measurement</t>
-  </si>
-  <si>
-    <t>many scales; unique scale pg. 394; pg. 465</t>
-  </si>
-  <si>
-    <t>organizational measurement; literature review</t>
-  </si>
-  <si>
-    <t>Literature review; has reproduced scales throughout the book, need to look through</t>
-  </si>
-  <si>
-    <t>Links between work experiences and organizational commitment during the first year of employment: A longitudinal analysis</t>
-  </si>
-  <si>
-    <t>Journal of Occupational Psychology</t>
-  </si>
-  <si>
-    <t>John P. Meyer, Natalie J. Allen</t>
-  </si>
-  <si>
-    <t>https://content.ebscohost.com/ContentServer.asp?EbscoContent=dGJyMNLr40SeprU4yOvqOLCmsEiep65Ssay4SrSWxWXS&amp;ContentCustomer=dGJyMPGpsUm0qq5NuePfgeyx847f1d%2BI5wAA&amp;T=P&amp;P=AN&amp;S=R&amp;D=bth&amp;K=4619368</t>
-  </si>
-  <si>
-    <t>partial, pg. 209</t>
-  </si>
-  <si>
-    <t>organizational commitment</t>
-  </si>
-  <si>
-    <t>partial scale (found full?- The measure and antecedents of affective, continuance, and normative commitment to the organization)</t>
-  </si>
-  <si>
-    <t>Scales for the measurement of some work attitudes and aspects of psychological well-being</t>
-  </si>
-  <si>
-    <t>Peter Warr, John Cook, Toby Wall</t>
-  </si>
-  <si>
-    <t>DOI: 10.1111/j.2044-8325.1979.tb00448.x</t>
-  </si>
-  <si>
-    <t>http://web.b.ebscohost.com.proxy01.its.virginia.edu/ehost/detail/detail?vid=4&amp;sid=c91d799d-00d7-457d-acfb-9d6752caa7b0%40pdc-v-sessmgr06&amp;bdata=JnNpdGU9ZWhvc3QtbGl2ZSZzY29wZT1zaXRl#AN=6293773&amp;db=a9h</t>
-  </si>
-  <si>
-    <t>yes, 145- 7</t>
-  </si>
-  <si>
-    <t>work attitudes, work involvement, job motivation, job satisfaction, life satisfaction</t>
-  </si>
-  <si>
-    <t>The measure and antecedents of affective, continuance, and normative commitment to the organization</t>
-  </si>
-  <si>
-    <t>Natalie J. Allen, John P. Meyer</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/j.2044-8325.1990.tb00506.x</t>
-  </si>
-  <si>
-    <t>https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=b952747e-91eb-4e1b-8288-87893f08db24%40pdc-v-sessmgr02</t>
-  </si>
-  <si>
-    <t>yes, 6-7</t>
-  </si>
-  <si>
-    <t>commitment</t>
-  </si>
-  <si>
-    <t>The Job Descriptive Index &amp; The Job in General Scale</t>
-  </si>
-  <si>
-    <t>Bowling Green State University</t>
-  </si>
-  <si>
-    <t>https://www.bgsu.edu/arts-and-sciences/psychology/services/job-descriptive-index.html</t>
-  </si>
-  <si>
-    <t>Further Evidence on Some New Measures of Job Control, Cognitive demand and production responsibility</t>
-  </si>
-  <si>
-    <t>Toby D. Wall, Paul R. Jackson, and Sean Mullarkey</t>
-  </si>
-  <si>
-    <t>https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=69df4cdb-22b3-465a-bd59-89640574f343%40pdc-v-sessmgr01</t>
-  </si>
-  <si>
-    <t>yes, 439</t>
-  </si>
-  <si>
-    <t>Absenteeism and Turnover of Hospital Employees</t>
-  </si>
-  <si>
-    <t>J.L. Price and C.W. Mueller</t>
-  </si>
-  <si>
-    <t>yes, Price Handbook of organizational management pg. 522</t>
-  </si>
-  <si>
-    <t>Measuring Facets of Job Ambiguity: Construct Validity Evidence</t>
-  </si>
-  <si>
-    <t>James A. Breaugh and Joseph P. Colihan</t>
-  </si>
-  <si>
-    <t>DOI: 10.1037/0021-9010.79.2.191</t>
-  </si>
-  <si>
-    <t>https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=61f1fbd7-63bc-487d-90e7-2400ac5aa37b%40sessionmgr103</t>
-  </si>
-  <si>
-    <t>yes, pg. 202</t>
-  </si>
-  <si>
-    <t>The determinants of career intent among physicians at a US Air Force hospital</t>
-  </si>
-  <si>
-    <t>Human Relations</t>
-  </si>
-  <si>
-    <t>Kim, S.-W., Price, J.L. Mueller, C.W. and Watson, T.W.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1177/001872679604900704</t>
-  </si>
-  <si>
-    <t>yes, Price Handbook of organizational management pg. 425, 500</t>
-  </si>
-  <si>
-    <t>University of Minnesota</t>
-  </si>
-  <si>
-    <t>http://vpr.psych.umn.edu/sites/vpr.dl.umn.edu/files/msq_booklet_1977.pdf</t>
-  </si>
-  <si>
-    <t>duplicate of Dixon (1979)</t>
-  </si>
-  <si>
-    <t>Quality of Worklife Module</t>
-  </si>
-  <si>
-    <t>NIOSH</t>
-  </si>
-  <si>
-    <t>https://www.cdc.gov/niosh/topics/stress/pdfs/QWL2010.pdf</t>
-  </si>
-  <si>
-    <t>unsure of relevance</t>
-  </si>
-  <si>
-    <t>The 1977 Quality of Employment Survey: Descriptive Statistics, with Comparison Data from the 1969-70 and the 1972-3 Surveys</t>
-  </si>
-  <si>
-    <t>University of Michigan</t>
-  </si>
-  <si>
-    <t>Robert P. Quinn, Graham L. Staines</t>
-  </si>
-  <si>
-    <t>https://babel.hathitrust.org/cgi/pt?id=mdp.39015027386724&amp;view=1up&amp;seq=349</t>
-  </si>
-  <si>
-    <t>yes, pg. 311 - 356</t>
-  </si>
-  <si>
-    <t>An Index of Job Satisfaction</t>
-  </si>
-  <si>
-    <t>Arthur H. Brayfield and Harold F. Rothe</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1037/h0055617</t>
-  </si>
-  <si>
-    <t>https://psycnet.apa.org/record/1952-04202-001</t>
-  </si>
-  <si>
-    <t>yes, pg 309</t>
-  </si>
-  <si>
-    <t>Development and application of new scales to measure the French and Raven (1959) bases of social power.</t>
-  </si>
-  <si>
-    <t>Timothy R. Hinkin and Chester A. Schriesheim</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1037/0021-9010.74.4.561</t>
-  </si>
-  <si>
-    <t>https://doi.apa.org/doiLanding?doi=10.1037%2F0021-9010.74.4.561</t>
-  </si>
-  <si>
-    <t>yes, pg. 567</t>
-  </si>
-  <si>
-    <t>The Measurement of Work Autonomy</t>
-  </si>
-  <si>
-    <t>James A. Breaugh</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1177/001872678503800604</t>
-  </si>
-  <si>
-    <t>https://journals.sagepub.com/doi/abs/10.1177/001872678503800604</t>
-  </si>
-  <si>
-    <t>yes, Price Handbook organizational management pg. 455</t>
-  </si>
-  <si>
-    <t>The Effects of Job Autonomy on Work Outcomes: Self Efficacy as an Intervening Variable</t>
-  </si>
-  <si>
-    <t>International Research Journal of Business Studies</t>
-  </si>
-  <si>
-    <t>Susanti Saragih</t>
-  </si>
-  <si>
-    <t>DOI: 10.21632/irjbs.4.3.203-215</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/308058711_The_Effects_of_Job_Autonomy_on_Work_Outcomes_Self_Efficacy_as_an_Intervening_Variable</t>
-  </si>
-  <si>
-    <t>yes, pg. 215</t>
-  </si>
-  <si>
-    <t>Distributive and procedural justice as predictors of satisfaction with personal and organizational outcomes</t>
-  </si>
-  <si>
-    <t>Academy of Management Journal</t>
-  </si>
-  <si>
-    <t>Dean B. McFarlin, Paul D. Sweeney</t>
-  </si>
-  <si>
-    <t>https://www.jstor.org/stable/256489</t>
-  </si>
-  <si>
-    <t>yes, Price Handbook organizational management pg. 427</t>
-  </si>
-  <si>
-    <t>Construct Validation of Two Instruments Designed to Measure Job Involvement and Work Centrality</t>
-  </si>
-  <si>
-    <t>Irina M. Paullay, George M. Alliger, and Eugene F. Stone-Romero</t>
-  </si>
-  <si>
-    <t>DOI: 10.1037/0021-9010.79.2.224</t>
-  </si>
-  <si>
-    <t>https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=2&amp;sid=20055b15-eaa5-498b-a827-3bcd1c70170d%40sdc-v-sessmgr01&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=12359433&amp;db=bth</t>
-  </si>
-  <si>
-    <t>yes, Price Handbook organizational management pg. 419-421</t>
-  </si>
-  <si>
-    <t>Work Alienation</t>
-  </si>
-  <si>
-    <t>Kanungo, R. N.</t>
-  </si>
-  <si>
-    <t>yes, Price Handbook organizational management pg. 413</t>
-  </si>
-  <si>
-    <t>A Causal Model of Behavioral Commitment: Evidence from a Study of Australian Blue-collar Employees</t>
-  </si>
-  <si>
-    <t>Journal of Management</t>
-  </si>
-  <si>
-    <t>Roderick D. Iveron, Parimal Roy</t>
-  </si>
-  <si>
-    <t>DOI: 10.1177/014920639402000102</t>
-  </si>
-  <si>
-    <t>https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=0&amp;sid=87f995ff-15bf-48e0-8790-d06840edbbba%40sessionmgr4006&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=5675494&amp;db=bth</t>
-  </si>
-  <si>
-    <t>yes, Price Handbook organizational management pg. 408, 453</t>
-  </si>
-  <si>
-    <t>maybe partial, cannot find full text</t>
-  </si>
-  <si>
-    <t>The Role of Employees' Work Patterns and Office Type Fit (and Misfit) in the Relationships Between Employees Well-Being and Performance</t>
-  </si>
-  <si>
-    <t>Environment and Behavior</t>
-  </si>
-  <si>
-    <t>Aida Soriano, Malgorzata W. Kozusznik, José M. Peiró, and Carolina Mateo</t>
-  </si>
-  <si>
-    <t>https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=0&amp;sid=85a1ed86-39b9-4dd4-9f21-e9d5125aa9f8%40sdc-v-sessmgr02&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=141097980&amp;db=edb</t>
-  </si>
-  <si>
-    <t>not explict, but used scales</t>
-  </si>
-  <si>
-    <t>Employee intent to stay: the case of automobile workers in South Korea</t>
-  </si>
-  <si>
-    <t>Kim, S-W</t>
-  </si>
-  <si>
-    <t>yes, Price Handbook organizational management pg. 390, 496</t>
-  </si>
-  <si>
-    <t>Do Substitutes for Leadership Really Substitute for Leadership? An Empirical Examination of Kerr and Jermier's Situational Leadership Model</t>
-  </si>
-  <si>
-    <t>Organizational Behavior and Human Decision Processes</t>
-  </si>
-  <si>
-    <t>Podsakoff, Philip M; Niehoff, Brian P; MacKenzie, Scott B.; Williams, Margaret L.</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/abs/pii/S0749597883710010#aep-abstract-id6</t>
-  </si>
-  <si>
-    <t>yes, Price Handbook organizational management pg. 383</t>
-  </si>
-  <si>
-    <t>The Community General Hospital</t>
+    <t xml:space="preserve">Occupational and Environmental Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Griffiths, T Cox, M Karanika, S Khan, J-M Tomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi: 10.1136/oem.2005.023671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchgate.net/publication/6928049_Work_design_and_management_in_the_manufacturing_sector_Development_and_validation_of_the_Work_Organisation_Assessment_Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Organization Assessment Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another article which uses this questionnaire: Wynne-Jones et al (2009) - Examination of the Work Organization Assessment Questionnaire in Public Sector Workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development and Testing of the Workplace Stressors Assessment Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American College of Occupational and Environmental Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maysaa H. Mahmood, Stephen Joel Coons, Mignonne C. Guy, and Kenneth R. Pelletier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1097/JOM.0b013e3181fb53dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ovidsp.dc2.ovid.com.proxy01.its.virginia.edu/sp-4.06.0a/ovidweb.cgi?WebLinkFrameset=1&amp;S=KICHFPCHBJEBDAHLJPBKGGBFKINNAA00&amp;returnUrl=ovidweb.cgi%3f%26Full%2bText%3dL%257cS.sh.28.29%257c0%257c00043764-201012000-00010%26S%3dKICHFPCHBJEBDAHLJPBKGGBFKINNAA00&amp;fromjumpstart=0&amp;directlink=http%3a%2f%2fovidsp.dc2.ovid.com%2fovftpdfs%2fFPEBJPBFGGHLBJ00%2ffs047%2fovft%2flive%2fgv024%2f00043764%2f00043764-201012000-00010.pdf&amp;filename=Development+and+Testing+of+the+Workplace+Stressors+Assessment+Questionnaire.&amp;pdf_key=FPEBJPBFGGHLBJ00&amp;pdf_index=/fs047/ovft/live/gv024/00043764/00043764-201012000-00010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demands, control, support, role, relationships, rewards, change, communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Measurement of Organizational Commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizational Efectiveness Research Program, Office of Naval Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard T. Mowday, Richard M. Steers, Lyman W. Porter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://apps.dtic.mil/dtic/tr/fulltext/u2/a057377.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organizational commitment, job satisfaction, career satisfaction, job involvement, job performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbook of organizational measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Journal of Manpower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James L. Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi-org.proxy01.its.virginia.edu/10.1108/01437729710182260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-emerald-com.proxy01.its.virginia.edu/insight/content/doi/10.1108/01437729710182260/full/pdf?title=handbook-of-organizational-measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">many scales; unique scale pg. 394; pg. 465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organizational measurement; literature review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literature review; has reproduced scales throughout the book, need to look through</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Links between work experiences and organizational commitment during the first year of employment: A longitudinal analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Occupational Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John P. Meyer, Natalie J. Allen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://content.ebscohost.com/ContentServer.asp?EbscoContent=dGJyMNLr40SeprU4yOvqOLCmsEiep65Ssay4SrSWxWXS&amp;ContentCustomer=dGJyMPGpsUm0qq5NuePfgeyx847f1d%2BI5wAA&amp;T=P&amp;P=AN&amp;S=R&amp;D=bth&amp;K=4619368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial, pg. 209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organizational commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial scale (found full?- The measure and antecedents of affective, continuance, and normative commitment to the organization)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scales for the measurement of some work attitudes and aspects of psychological well-being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Warr, John Cook, Toby Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1111/j.2044-8325.1979.tb00448.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://web.b.ebscohost.com.proxy01.its.virginia.edu/ehost/detail/detail?vid=4&amp;sid=c91d799d-00d7-457d-acfb-9d6752caa7b0%40pdc-v-sessmgr06&amp;bdata=JnNpdGU9ZWhvc3QtbGl2ZSZzY29wZT1zaXRl#AN=6293773&amp;db=a9h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, 145- 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work attitudes, work involvement, job motivation, job satisfaction, life satisfaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The measure and antecedents of affective, continuance, and normative commitment to the organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalie J. Allen, John P. Meyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/j.2044-8325.1990.tb00506.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=b952747e-91eb-4e1b-8288-87893f08db24%40pdc-v-sessmgr02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, 6-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Job Descriptive Index &amp; The Job in General Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowling Green State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bgsu.edu/arts-and-sciences/psychology/services/job-descriptive-index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further Evidence on Some New Measures of Job Control, Cognitive demand and production responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toby D. Wall, Paul R. Jackson, and Sean Mullarkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=69df4cdb-22b3-465a-bd59-89640574f343%40pdc-v-sessmgr01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, 439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absenteeism and Turnover of Hospital Employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.L. Price and C.W. Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, Price Handbook of organizational management pg. 522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measuring Facets of Job Ambiguity: Construct Validity Evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James A. Breaugh and Joseph P. Colihan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1037/0021-9010.79.2.191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=61f1fbd7-63bc-487d-90e7-2400ac5aa37b%40sessionmgr103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The determinants of career intent among physicians at a US Air Force hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim, S.-W., Price, J.L. Mueller, C.W. and Watson, T.W.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1177/001872679604900704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, Price Handbook of organizational management pg. 425, 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Minnesota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vpr.psych.umn.edu/sites/vpr.dl.umn.edu/files/msq_booklet_1977.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duplicate of Dixon (1979)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality of Worklife Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIOSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cdc.gov/niosh/topics/stress/pdfs/QWL2010.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsure of relevance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 1977 Quality of Employment Survey: Descriptive Statistics, with Comparison Data from the 1969-70 and the 1972-3 Surveys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert P. Quinn, Graham L. Staines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://babel.hathitrust.org/cgi/pt?id=mdp.39015027386724&amp;view=1up&amp;seq=349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 311 - 356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Index of Job Satisfaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur H. Brayfield and Harold F. Rothe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1037/h0055617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://psycnet.apa.org/record/1952-04202-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg 309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development and application of new scales to measure the French and Raven (1959) bases of social power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timothy R. Hinkin and Chester A. Schriesheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1037/0021-9010.74.4.561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.apa.org/doiLanding?doi=10.1037%2F0021-9010.74.4.561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Measurement of Work Autonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James A. Breaugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1177/001872678503800604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://journals.sagepub.com/doi/abs/10.1177/001872678503800604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, Price Handbook organizational management pg. 455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Effects of Job Autonomy on Work Outcomes: Self Efficacy as an Intervening Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Research Journal of Business Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susanti Saragih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.21632/irjbs.4.3.203-215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchgate.net/publication/308058711_The_Effects_of_Job_Autonomy_on_Work_Outcomes_Self_Efficacy_as_an_Intervening_Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distributive and procedural justice as predictors of satisfaction with personal and organizational outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academy of Management Journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dean B. McFarlin, Paul D. Sweeney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jstor.org/stable/256489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, Price Handbook organizational management pg. 427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct Validation of Two Instruments Designed to Measure Job Involvement and Work Centrality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irina M. Paullay, George M. Alliger, and Eugene F. Stone-Romero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1037/0021-9010.79.2.224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=2&amp;sid=20055b15-eaa5-498b-a827-3bcd1c70170d%40sdc-v-sessmgr01&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=12359433&amp;db=bth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, Price Handbook organizational management pg. 419-421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Alienation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungo, R. N.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, Price Handbook organizational management pg. 413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Causal Model of Behavioral Commitment: Evidence from a Study of Australian Blue-collar Employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roderick D. Iveron, Parimal Roy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1177/014920639402000102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=0&amp;sid=87f995ff-15bf-48e0-8790-d06840edbbba%40sessionmgr4006&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=5675494&amp;db=bth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, Price Handbook organizational management pg. 408, 453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maybe partial, cannot find full text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Role of Employees' Work Patterns and Office Type Fit (and Misfit) in the Relationships Between Employees Well-Being and Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment and Behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aida Soriano, Malgorzata W. Kozusznik, José M. Peiró, and Carolina Mateo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=0&amp;sid=85a1ed86-39b9-4dd4-9f21-e9d5125aa9f8%40sdc-v-sessmgr02&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=141097980&amp;db=edb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not explict, but used scales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee intent to stay: the case of automobile workers in South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim, S-W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, Price Handbook organizational management pg. 390, 496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Substitutes for Leadership Really Substitute for Leadership? An Empirical Examination of Kerr and Jermier's Situational Leadership Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizational Behavior and Human Decision Processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podsakoff, Philip M; Niehoff, Brian P; MacKenzie, Scott B.; Williams, Margaret L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sciencedirect.com/science/article/abs/pii/S0749597883710010#aep-abstract-id6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, Price Handbook organizational management pg. 383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Community General Hospital</t>
   </si>
   <si>
     <t xml:space="preserve">Georgopoulos, Basil Spyros and Mann, F. C. </t>
   </si>
   <si>
-    <t>yes, Price Handbook organizational management pg. 359-60</t>
-  </si>
-  <si>
-    <t>Studying Interpersonal Commmunication in Organizations: A Leadership Application</t>
-  </si>
-  <si>
-    <t>Larry E. Penley, Brian Hawkins</t>
-  </si>
-  <si>
-    <t>DOI: 10.2307/256203</t>
-  </si>
-  <si>
-    <t>https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=2&amp;sid=3e3750a2-a959-4eb6-81c2-ebe53f7b2db7%40sdc-v-sessmgr03&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=4317450&amp;db=bth</t>
-  </si>
-  <si>
-    <t>yes, Price Handbook organizational management pg. 351</t>
-  </si>
-  <si>
-    <t>On developing a general index of work commitment</t>
-  </si>
-  <si>
-    <t>Blau, G; Paul, A; St. John, N</t>
-  </si>
-  <si>
-    <t>yes, Price Handbook organizational management pg. 346</t>
-  </si>
-  <si>
-    <t>Culture, Control, and Commitment: A Study of Work Organization and Work Attitudes in the United States and Japan</t>
-  </si>
-  <si>
-    <t>James R. Lincoln, Arne L. Kalleberg</t>
-  </si>
-  <si>
-    <t>https://archive.org/details/culturecontrolco0000linc/page/n9/mode/2up</t>
-  </si>
-  <si>
-    <t>yes, pg. 64-5, 86-8, 128-9, (261 note 6 for scale)</t>
-  </si>
-  <si>
-    <t>The Worker Opinion Survey: a measure of shop-floor satisfaction</t>
-  </si>
-  <si>
-    <t>Occupational Psychology</t>
-  </si>
-  <si>
-    <t>Denys Cross</t>
-  </si>
-  <si>
-    <t>https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=2&amp;sid=229a35bc-aade-4811-9444-ff51426686b3%40pdc-v-sessmgr03&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=6764155&amp;db=bth</t>
-  </si>
-  <si>
-    <t>yes, pg. 207-8</t>
-  </si>
-  <si>
-    <t>The Construct of Work Commitment: Testing an Integrative Framework</t>
-  </si>
-  <si>
-    <t>Amy Cooper-Hakim, Chockalingam Viswesvaran</t>
-  </si>
-  <si>
-    <t>DOI: 10.1037/0033-2909.131.2.241</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/7994341_The_Construct_of_Work_Commitment_Testing_an_Integrative_Framework</t>
-  </si>
-  <si>
-    <t>Literature Review</t>
-  </si>
-  <si>
-    <t>Three Levels of Ethnical Influences on Selling Behavior and Performance: Synergies and Tensions</t>
-  </si>
-  <si>
-    <t>Journal of Business Ethics</t>
-  </si>
-  <si>
-    <t>Selma Kadic-Maglajlic, Milena Micevski, Nick Lee, Nathaniel Boso, Irena Vida</t>
-  </si>
-  <si>
-    <t>DOI 10.1007/s10551-017-3588-1</t>
-  </si>
-  <si>
-    <t>https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=1f364185-01f6-46f1-b2a2-35e3b1f86cb8%40sdc-v-sessmgr02</t>
-  </si>
-  <si>
-    <t>yes, pg. 387</t>
-  </si>
-  <si>
-    <t>Measuring the performance of industrial salespersons</t>
-  </si>
-  <si>
-    <t>Journal of Business Research</t>
-  </si>
-  <si>
-    <t>Douglas N.Behrman, William D.Perreault, Jr.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/0148-2963(82)90039-X</t>
-  </si>
-  <si>
-    <t>https://www-sciencedirect-com.proxy01.its.virginia.edu/science/article/abs/pii/014829638290039X?via%3Dihub</t>
-  </si>
-  <si>
-    <t>yes, but cannot get access</t>
-  </si>
-  <si>
-    <t>Unable to access</t>
-  </si>
-  <si>
-    <t>Exploring the Relationship between Commitment Profiles and Work Attitudes, Employee Withdrawal, and Job Performance</t>
-  </si>
-  <si>
-    <t>Public Personnel Management</t>
-  </si>
-  <si>
-    <t>Mark Somers, Deee Birnbaum</t>
-  </si>
-  <si>
-    <t>DOI: 10.1177/009102600002900305</t>
-  </si>
-  <si>
-    <t>https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=0&amp;sid=8e7d9f08-67a5-4c3a-ac47-c39ea779276e%40pdc-v-sessmgr06&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=3772555&amp;db=bth</t>
-  </si>
-  <si>
-    <t>Listed scales used</t>
-  </si>
-  <si>
-    <t>Job satisfaction, job involvement, and perceived organizational support as predictors of organizational commitment</t>
-  </si>
-  <si>
-    <t>Walden Dissertations and Doctoral Studies</t>
-  </si>
-  <si>
-    <t>Jennifer Parker Ayers</t>
-  </si>
-  <si>
-    <t>https://scholarworks.waldenu.edu/cgi/viewcontent.cgi?referer=https://www.ecosia.org/&amp;httpsredir=1&amp;article=1728&amp;context=dissertations</t>
+    <t xml:space="preserve">yes, Price Handbook organizational management pg. 359-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studying Interpersonal Commmunication in Organizations: A Leadership Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larry E. Penley, Brian Hawkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.2307/256203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=2&amp;sid=3e3750a2-a959-4eb6-81c2-ebe53f7b2db7%40sdc-v-sessmgr03&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=4317450&amp;db=bth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, Price Handbook organizational management pg. 351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On developing a general index of work commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blau, G; Paul, A; St. John, N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, Price Handbook organizational management pg. 346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culture, Control, and Commitment: A Study of Work Organization and Work Attitudes in the United States and Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James R. Lincoln, Arne L. Kalleberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.org/details/culturecontrolco0000linc/page/n9/mode/2up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 64-5, 86-8, 128-9, (261 note 6 for scale)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Worker Opinion Survey: a measure of shop-floor satisfaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupational Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denys Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=2&amp;sid=229a35bc-aade-4811-9444-ff51426686b3%40pdc-v-sessmgr03&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=6764155&amp;db=bth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 207-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Construct of Work Commitment: Testing an Integrative Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy Cooper-Hakim, Chockalingam Viswesvaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1037/0033-2909.131.2.241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchgate.net/publication/7994341_The_Construct_of_Work_Commitment_Testing_an_Integrative_Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literature Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three Levels of Ethnical Influences on Selling Behavior and Performance: Synergies and Tensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Business Ethics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selma Kadic-Maglajlic, Milena Micevski, Nick Lee, Nathaniel Boso, Irena Vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI 10.1007/s10551-017-3588-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=1f364185-01f6-46f1-b2a2-35e3b1f86cb8%40sdc-v-sessmgr02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, pg. 387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measuring the performance of industrial salespersons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Business Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas N.Behrman, William D.Perreault, Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/0148-2963(82)90039-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-sciencedirect-com.proxy01.its.virginia.edu/science/article/abs/pii/014829638290039X?via%3Dihub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, but cannot get access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring the Relationship between Commitment Profiles and Work Attitudes, Employee Withdrawal, and Job Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Personnel Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Somers, Deee Birnbaum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1177/009102600002900305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=0&amp;sid=8e7d9f08-67a5-4c3a-ac47-c39ea779276e%40pdc-v-sessmgr06&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=3772555&amp;db=bth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listed scales used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job satisfaction, job involvement, and perceived organizational support as predictors of organizational commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walden Dissertations and Doctoral Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jennifer Parker Ayers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholarworks.waldenu.edu/cgi/viewcontent.cgi?referer=https://www.ecosia.org/&amp;httpsredir=1&amp;article=1728&amp;context=dissertations</t>
   </si>
   <si>
     <t xml:space="preserve">yes, pg. 139, 141, 144, 146-7, </t>
   </si>
   <si>
-    <t>Job Satisfaction Survey, Job Involvement Questionnaire, Survey of Perceived Organizational Support, TCM Employee Commitment Survey</t>
-  </si>
-  <si>
-    <t>Multiple scales listed in appendix of thesis; potential for duplicates</t>
-  </si>
-  <si>
-    <t>Work Commitment, Job Satisfaction, and Job Performance: An Empirical Investigation</t>
-  </si>
-  <si>
-    <t>International Journal of Organization Theory and Behavior</t>
-  </si>
-  <si>
-    <t>Abraham Carmeli and anat Freund</t>
-  </si>
-  <si>
-    <t>DOI: 10.1108/IJOTB-07-03-2004-B001</t>
-  </si>
-  <si>
-    <t>https://pdfs.semanticscholar.org/f93d/6fecee21ce101da05f99db571a32449c3be3.pdf</t>
+    <t xml:space="preserve">Job Satisfaction Survey, Job Involvement Questionnaire, Survey of Perceived Organizational Support, TCM Employee Commitment Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple scales listed in appendix of thesis; potential for duplicates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Commitment, Job Satisfaction, and Job Performance: An Empirical Investigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Journal of Organization Theory and Behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abraham Carmeli and anat Freund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: 10.1108/IJOTB-07-03-2004-B001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pdfs.semanticscholar.org/f93d/6fecee21ce101da05f99db571a32449c3be3.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Review; interesting graphics on the construction of a job performance framework </t>
@@ -1783,22 +1777,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="MMM\-YY"/>
+    <numFmt numFmtId="166" formatCode="D\-MMM\-YY"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1810,403 +1824,190 @@
     </fill>
   </fills>
   <borders count="4">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.68"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="105">
+    <row r="1" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2244,7 +2045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="255">
+    <row r="2" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -2257,7 +2058,7 @@
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="6" t="n">
         <v>26024</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -2276,11 +2077,11 @@
         <v>20</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" t="s">
+      <c r="L2" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="180">
+    <row r="3" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -2293,7 +2094,7 @@
       <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>1980</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -2312,11 +2113,11 @@
         <v>30</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="L3" t="s">
+      <c r="L3" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="405">
+    <row r="4" customFormat="false" ht="405" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -2329,7 +2130,7 @@
       <c r="D4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>2000</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2348,11 +2149,11 @@
         <v>38</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" t="s">
+      <c r="L4" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="390">
+    <row r="5" customFormat="false" ht="390" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -2365,7 +2166,7 @@
       <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>2002</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -2384,11 +2185,11 @@
         <v>45</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="210">
+      <c r="L5" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
@@ -2399,7 +2200,7 @@
         <v>49</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="6">
+      <c r="E6" s="6" t="n">
         <v>42795</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -2414,11 +2215,11 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" t="s">
+      <c r="L6" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="330">
+    <row r="7" customFormat="false" ht="330" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
@@ -2431,7 +2232,7 @@
       <c r="D7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="5" t="n">
         <v>1980</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -2450,11 +2251,11 @@
         <v>60</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" t="s">
+      <c r="L7" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="210">
+    <row r="8" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
@@ -2465,7 +2266,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="6">
+      <c r="E8" s="6" t="n">
         <v>43160</v>
       </c>
       <c r="F8" s="5"/>
@@ -2478,11 +2279,11 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" t="s">
+      <c r="L8" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="150">
+    <row r="9" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
@@ -2493,7 +2294,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="6">
+      <c r="E9" s="6" t="n">
         <v>40057</v>
       </c>
       <c r="F9" s="5"/>
@@ -2506,11 +2307,11 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" t="s">
+      <c r="L9" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="360">
+    <row r="10" customFormat="false" ht="360" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -2523,7 +2324,7 @@
       <c r="D10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="5" t="n">
         <v>2000</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -2542,11 +2343,11 @@
         <v>77</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="240">
+      <c r="L10" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>78</v>
       </c>
@@ -2559,7 +2360,7 @@
       <c r="D11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="n">
         <v>2007</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -2576,11 +2377,11 @@
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="180">
+      <c r="L11" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
@@ -2610,11 +2411,11 @@
         <v>91</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="L12" t="s">
+      <c r="L12" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="150">
+    <row r="13" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>92</v>
       </c>
@@ -2627,7 +2428,7 @@
       <c r="D13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="6" t="n">
         <v>29037</v>
       </c>
       <c r="F13" s="5"/>
@@ -2640,11 +2441,11 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" t="s">
+      <c r="L13" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="375">
+    <row r="14" customFormat="false" ht="375" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>97</v>
       </c>
@@ -2657,7 +2458,7 @@
       <c r="D14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="5" t="n">
         <v>1980</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -2674,11 +2475,11 @@
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="409.6">
+      <c r="L14" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>104</v>
       </c>
@@ -2691,7 +2492,7 @@
       <c r="D15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="5" t="n">
         <v>2010</v>
       </c>
       <c r="F15" s="5"/>
@@ -2708,11 +2509,11 @@
         <v>110</v>
       </c>
       <c r="K15" s="5"/>
-      <c r="L15" t="s">
+      <c r="L15" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="360">
+    <row r="16" customFormat="false" ht="360" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>111</v>
       </c>
@@ -2725,7 +2526,7 @@
       <c r="D16" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="8" t="n">
         <v>40452</v>
       </c>
       <c r="F16" s="5"/>
@@ -2738,11 +2539,11 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="210">
+      <c r="L16" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>116</v>
       </c>
@@ -2755,7 +2556,7 @@
       <c r="D17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="5" t="n">
         <v>1993</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -2778,7 +2579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="255">
+    <row r="18" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>122</v>
       </c>
@@ -2791,7 +2592,7 @@
       <c r="D18" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="8" t="n">
         <v>43283</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -2808,11 +2609,11 @@
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" t="s">
+      <c r="L18" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="285">
+    <row r="19" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>130</v>
       </c>
@@ -2825,7 +2626,7 @@
       <c r="D19" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="6" t="n">
         <v>40695</v>
       </c>
       <c r="F19" s="5"/>
@@ -2838,11 +2639,11 @@
         <v>135</v>
       </c>
       <c r="K19" s="5"/>
-      <c r="L19" t="s">
+      <c r="L19" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="165">
+    <row r="20" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>136</v>
       </c>
@@ -2855,7 +2656,7 @@
       <c r="D20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="5" t="n">
         <v>1986</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -2872,11 +2673,11 @@
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="180">
+      <c r="L20" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>141</v>
       </c>
@@ -2887,7 +2688,7 @@
         <v>132</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="6">
+      <c r="E21" s="6" t="n">
         <v>39692</v>
       </c>
       <c r="F21" s="5"/>
@@ -2900,11 +2701,11 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" t="s">
+      <c r="L21" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="180">
+    <row r="22" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>145</v>
       </c>
@@ -2928,11 +2729,11 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" t="s">
+      <c r="L22" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="165">
+    <row r="23" customFormat="false" ht="86.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>150</v>
       </c>
@@ -2956,11 +2757,11 @@
         <v>155</v>
       </c>
       <c r="K23" s="5"/>
-      <c r="L23" t="s">
+      <c r="L23" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="75">
+    <row r="24" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>156</v>
       </c>
@@ -2984,11 +2785,11 @@
         <v>160</v>
       </c>
       <c r="K24" s="5"/>
-      <c r="L24" t="s">
+      <c r="L24" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="285">
+    <row r="25" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>161</v>
       </c>
@@ -3016,11 +2817,11 @@
         <v>167</v>
       </c>
       <c r="K25" s="5"/>
-      <c r="L25" t="s">
+      <c r="L25" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="120">
+    <row r="26" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>168</v>
       </c>
@@ -3041,11 +2842,11 @@
         <v>171</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" t="s">
+      <c r="L26" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="225">
+    <row r="27" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>172</v>
       </c>
@@ -3058,7 +2859,7 @@
       <c r="D27" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="5" t="n">
         <v>1979</v>
       </c>
       <c r="F27" s="5"/>
@@ -3075,11 +2876,11 @@
         <v>179</v>
       </c>
       <c r="K27" s="5"/>
-      <c r="L27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="195">
+      <c r="L27" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>180</v>
       </c>
@@ -3092,7 +2893,7 @@
       <c r="D28" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="5" t="n">
         <v>1987</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -3109,11 +2910,11 @@
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" t="s">
+      <c r="L28" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="409.6">
+    <row r="29" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>186</v>
       </c>
@@ -3126,7 +2927,7 @@
       <c r="D29" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="5" t="n">
         <v>2007</v>
       </c>
       <c r="F29" s="5"/>
@@ -3141,11 +2942,11 @@
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" t="s">
+      <c r="L29" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="210">
+    <row r="30" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>192</v>
       </c>
@@ -3156,7 +2957,7 @@
       <c r="D30" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="5" t="n">
         <v>1993</v>
       </c>
       <c r="F30" s="7" t="s">
@@ -3173,11 +2974,11 @@
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" t="s">
+      <c r="L30" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="135">
+    <row r="31" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>199</v>
       </c>
@@ -3190,7 +2991,7 @@
       <c r="D31" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="5" t="n">
         <v>1988</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -3207,11 +3008,11 @@
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" t="s">
+      <c r="L31" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="240">
+    <row r="32" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>204</v>
       </c>
@@ -3224,10 +3025,10 @@
       <c r="D32" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="5" t="n">
         <v>2016</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="5" t="n">
         <v>121086285</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -3241,11 +3042,11 @@
         <v>209</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="330">
+      <c r="L32" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="330" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>210</v>
       </c>
@@ -3258,7 +3059,7 @@
       <c r="D33" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="5" t="n">
         <v>1996</v>
       </c>
       <c r="F33" s="7" t="s">
@@ -3275,11 +3076,11 @@
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" t="s">
+      <c r="L33" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="240">
+    <row r="34" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>215</v>
       </c>
@@ -3292,7 +3093,7 @@
       <c r="D34" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="5" t="n">
         <v>2012</v>
       </c>
       <c r="F34" s="7" t="s">
@@ -3311,11 +3112,11 @@
         <v>222</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" t="s">
+      <c r="L34" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="165">
+    <row r="35" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>223</v>
       </c>
@@ -3324,7 +3125,7 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5">
+      <c r="E35" s="5" t="n">
         <v>2002</v>
       </c>
       <c r="F35" s="5"/>
@@ -3341,11 +3142,11 @@
         <v>228</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="195">
+      <c r="L35" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>229</v>
       </c>
@@ -3358,7 +3159,7 @@
       <c r="D36" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="5" t="n">
         <v>1997</v>
       </c>
       <c r="F36" s="5"/>
@@ -3373,11 +3174,11 @@
         <v>234</v>
       </c>
       <c r="K36" s="5"/>
-      <c r="L36" t="s">
+      <c r="L36" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="409.6">
+    <row r="37" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>235</v>
       </c>
@@ -3390,7 +3191,7 @@
       <c r="D37" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="5" t="n">
         <v>1997</v>
       </c>
       <c r="F37" s="7" t="s">
@@ -3409,11 +3210,11 @@
         <v>242</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="135">
+      <c r="L37" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>243</v>
       </c>
@@ -3426,7 +3227,7 @@
       <c r="D38" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="5" t="n">
         <v>2011</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -3447,7 +3248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="409.6">
+    <row r="39" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>250</v>
       </c>
@@ -3460,7 +3261,7 @@
       <c r="D39" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="5" t="n">
         <v>2006</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -3483,7 +3284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="255">
+    <row r="40" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
         <v>258</v>
       </c>
@@ -3496,7 +3297,7 @@
       <c r="D40" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="5" t="n">
         <v>1996</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -3519,7 +3320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="270">
+    <row r="41" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>266</v>
       </c>
@@ -3532,7 +3333,7 @@
       <c r="D41" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="5" t="n">
         <v>2008</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -3555,7 +3356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="225">
+    <row r="42" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
         <v>273</v>
       </c>
@@ -3568,7 +3369,7 @@
       <c r="D42" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="5" t="n">
         <v>1980</v>
       </c>
       <c r="F42" s="5"/>
@@ -3587,7 +3388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="195">
+    <row r="43" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
         <v>279</v>
       </c>
@@ -3598,7 +3399,7 @@
       <c r="D43" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="5" t="n">
         <v>2008</v>
       </c>
       <c r="F43" s="5"/>
@@ -3615,7 +3416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="120">
+    <row r="44" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>283</v>
       </c>
@@ -3643,7 +3444,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="195">
+    <row r="45" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>289</v>
       </c>
@@ -3673,7 +3474,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="225">
+    <row r="46" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>295</v>
       </c>
@@ -3686,7 +3487,7 @@
       <c r="D46" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="5" t="n">
         <v>1974</v>
       </c>
       <c r="F46" s="5"/>
@@ -3705,7 +3506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="240">
+    <row r="47" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>301</v>
       </c>
@@ -3733,7 +3534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="255">
+    <row r="48" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
         <v>307</v>
       </c>
@@ -3746,7 +3547,7 @@
       <c r="D48" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="5" t="n">
         <v>2000</v>
       </c>
       <c r="F48" s="7" t="s">
@@ -3765,7 +3566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="270">
+    <row r="49" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>312</v>
       </c>
@@ -3793,7 +3594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="165">
+    <row r="50" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>318</v>
       </c>
@@ -3806,7 +3607,7 @@
       <c r="D50" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="5" t="n">
         <v>2000</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -3825,7 +3626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="240">
+    <row r="51" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>323</v>
       </c>
@@ -3836,7 +3637,7 @@
       <c r="D51" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="5" t="n">
         <v>2009</v>
       </c>
       <c r="F51" s="5"/>
@@ -3855,7 +3656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="195">
+    <row r="52" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
         <v>328</v>
       </c>
@@ -3868,7 +3669,7 @@
       <c r="D52" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="5" t="n">
         <v>2000</v>
       </c>
       <c r="F52" s="5"/>
@@ -3887,7 +3688,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="409.6">
+    <row r="53" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
         <v>334</v>
       </c>
@@ -3900,7 +3701,7 @@
       <c r="D53" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="5" t="n">
         <v>2008</v>
       </c>
       <c r="F53" s="5"/>
@@ -3921,7 +3722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="409.6">
+    <row r="54" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
         <v>340</v>
       </c>
@@ -3932,7 +3733,7 @@
         <v>285</v>
       </c>
       <c r="D54" s="5"/>
-      <c r="E54" s="5">
+      <c r="E54" s="5" t="n">
         <v>2011</v>
       </c>
       <c r="F54" s="5"/>
@@ -3951,7 +3752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="150">
+    <row r="55" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
         <v>345</v>
       </c>
@@ -3964,7 +3765,7 @@
       <c r="D55" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="5" t="n">
         <v>2000</v>
       </c>
       <c r="F55" s="5"/>
@@ -3981,7 +3782,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="285">
+    <row r="56" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
         <v>351</v>
       </c>
@@ -3994,7 +3795,7 @@
       <c r="D56" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="5" t="n">
         <v>2005</v>
       </c>
       <c r="F56" s="5"/>
@@ -4013,7 +3814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="300">
+    <row r="57" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
         <v>357</v>
       </c>
@@ -4026,7 +3827,7 @@
       <c r="D57" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="5" t="n">
         <v>2004</v>
       </c>
       <c r="F57" s="5" t="s">
@@ -4047,7 +3848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="165">
+    <row r="58" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
         <v>364</v>
       </c>
@@ -4060,7 +3861,7 @@
       <c r="D58" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="5" t="n">
         <v>1976</v>
       </c>
       <c r="F58" s="5" t="s">
@@ -4081,7 +3882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="375">
+    <row r="59" customFormat="false" ht="375" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
         <v>371</v>
       </c>
@@ -4094,7 +3895,7 @@
       <c r="D59" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="5" t="n">
         <v>2005</v>
       </c>
       <c r="F59" s="5"/>
@@ -4115,7 +3916,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="360">
+    <row r="60" customFormat="false" ht="360" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>378</v>
       </c>
@@ -4128,7 +3929,7 @@
       <c r="D60" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="5" t="n">
         <v>1999</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -4149,7 +3950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="345">
+    <row r="61" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
         <v>384</v>
       </c>
@@ -4162,7 +3963,7 @@
       <c r="D61" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="5" t="n">
         <v>2006</v>
       </c>
       <c r="F61" s="5" t="s">
@@ -4185,7 +3986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="409.6">
+    <row r="62" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
         <v>392</v>
       </c>
@@ -4198,7 +3999,7 @@
       <c r="D62" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="5" t="n">
         <v>2010</v>
       </c>
       <c r="F62" s="5" t="s">
@@ -4219,7 +4020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="240">
+    <row r="63" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
         <v>398</v>
       </c>
@@ -4232,7 +4033,7 @@
       <c r="D63" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="5" t="n">
         <v>1978</v>
       </c>
       <c r="F63" s="5"/>
@@ -4251,7 +4052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="270">
+    <row r="64" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
         <v>404</v>
       </c>
@@ -4264,7 +4065,7 @@
       <c r="D64" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="5" t="n">
         <v>1997</v>
       </c>
       <c r="F64" s="7" t="s">
@@ -4287,7 +4088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="375">
+    <row r="65" customFormat="false" ht="375" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
         <v>412</v>
       </c>
@@ -4300,7 +4101,7 @@
       <c r="D65" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="5" t="n">
         <v>1988</v>
       </c>
       <c r="F65" s="5"/>
@@ -4321,7 +4122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="360">
+    <row r="66" customFormat="false" ht="360" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
         <v>419</v>
       </c>
@@ -4334,7 +4135,7 @@
       <c r="D66" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="5" t="n">
         <v>1979</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -4355,7 +4156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="255">
+    <row r="67" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
         <v>425</v>
       </c>
@@ -4368,7 +4169,7 @@
       <c r="D67" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="5" t="n">
         <v>1990</v>
       </c>
       <c r="F67" s="7" t="s">
@@ -4389,7 +4190,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="150">
+    <row r="68" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
         <v>431</v>
       </c>
@@ -4400,7 +4201,7 @@
         <v>124</v>
       </c>
       <c r="D68" s="5"/>
-      <c r="E68" s="5">
+      <c r="E68" s="5" t="n">
         <v>2009</v>
       </c>
       <c r="F68" s="5"/>
@@ -4417,7 +4218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="255">
+    <row r="69" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
         <v>434</v>
       </c>
@@ -4430,7 +4231,7 @@
       <c r="D69" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="5" t="n">
         <v>1995</v>
       </c>
       <c r="F69" s="5"/>
@@ -4447,7 +4248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="120">
+    <row r="70" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
         <v>438</v>
       </c>
@@ -4458,7 +4259,7 @@
       <c r="D70" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="5" t="n">
         <v>1986</v>
       </c>
       <c r="F70" s="5"/>
@@ -4473,7 +4274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="255">
+    <row r="71" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
         <v>441</v>
       </c>
@@ -4486,7 +4287,7 @@
       <c r="D71" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="5" t="n">
         <v>1994</v>
       </c>
       <c r="F71" s="5" t="s">
@@ -4505,7 +4306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="165">
+    <row r="72" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
         <v>446</v>
       </c>
@@ -4518,7 +4319,7 @@
       <c r="D72" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="5" t="n">
         <v>1996</v>
       </c>
       <c r="F72" s="7" t="s">
@@ -4535,7 +4336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="135">
+    <row r="73" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
         <v>179</v>
       </c>
@@ -4546,7 +4347,7 @@
         <v>158</v>
       </c>
       <c r="D73" s="5"/>
-      <c r="E73" s="5">
+      <c r="E73" s="5" t="n">
         <v>1977</v>
       </c>
       <c r="F73" s="5"/>
@@ -4565,7 +4366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="105">
+    <row r="74" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
         <v>454</v>
       </c>
@@ -4576,7 +4377,7 @@
         <v>303</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="5">
+      <c r="E74" s="5" t="n">
         <v>2010</v>
       </c>
       <c r="F74" s="5"/>
@@ -4595,7 +4396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="270">
+    <row r="75" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
         <v>458</v>
       </c>
@@ -4608,7 +4409,7 @@
       <c r="D75" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="5" t="n">
         <v>1979</v>
       </c>
       <c r="F75" s="5"/>
@@ -4627,7 +4428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="90">
+    <row r="76" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
         <v>463</v>
       </c>
@@ -4640,7 +4441,7 @@
       <c r="D76" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="5" t="n">
         <v>1951</v>
       </c>
       <c r="F76" s="7" t="s">
@@ -4659,7 +4460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="210">
+    <row r="77" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>468</v>
       </c>
@@ -4672,7 +4473,7 @@
       <c r="D77" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="5" t="n">
         <v>1989</v>
       </c>
       <c r="F77" s="7" t="s">
@@ -4691,7 +4492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="120">
+    <row r="78" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
         <v>473</v>
       </c>
@@ -4704,7 +4505,7 @@
       <c r="D78" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="5" t="n">
         <v>1985</v>
       </c>
       <c r="F78" s="7" t="s">
@@ -4723,7 +4524,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="255">
+    <row r="79" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>478</v>
       </c>
@@ -4736,7 +4537,7 @@
       <c r="D79" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="5" t="n">
         <v>2011</v>
       </c>
       <c r="F79" s="5" t="s">
@@ -4755,7 +4556,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="240">
+    <row r="80" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
         <v>484</v>
       </c>
@@ -4768,7 +4569,7 @@
       <c r="D80" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="5" t="n">
         <v>1992</v>
       </c>
       <c r="F80" s="5"/>
@@ -4785,7 +4586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="345">
+    <row r="81" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
         <v>489</v>
       </c>
@@ -4798,7 +4599,7 @@
       <c r="D81" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="5" t="n">
         <v>1994</v>
       </c>
       <c r="F81" s="5" t="s">
@@ -4817,7 +4618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="120">
+    <row r="82" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>494</v>
       </c>
@@ -4828,7 +4629,7 @@
       <c r="D82" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="5" t="n">
         <v>1982</v>
       </c>
       <c r="F82" s="5"/>
@@ -4843,7 +4644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="345">
+    <row r="83" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
         <v>497</v>
       </c>
@@ -4856,7 +4657,7 @@
       <c r="D83" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="5" t="n">
         <v>1994</v>
       </c>
       <c r="F83" s="5" t="s">
@@ -4877,7 +4678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="345">
+    <row r="84" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
         <v>504</v>
       </c>
@@ -4890,7 +4691,7 @@
       <c r="D84" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="F84" s="5"/>
@@ -4907,7 +4708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="165">
+    <row r="85" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
         <v>509</v>
       </c>
@@ -4918,7 +4719,7 @@
       <c r="D85" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="5" t="n">
         <v>1996</v>
       </c>
       <c r="F85" s="5"/>
@@ -4933,7 +4734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="330">
+    <row r="86" customFormat="false" ht="330" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
         <v>512</v>
       </c>
@@ -4946,7 +4747,7 @@
       <c r="D86" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="5" t="n">
         <v>1993</v>
       </c>
       <c r="F86" s="5"/>
@@ -4963,7 +4764,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="120">
+    <row r="87" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
         <v>517</v>
       </c>
@@ -4974,7 +4775,7 @@
       <c r="D87" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="5" t="n">
         <v>1962</v>
       </c>
       <c r="F87" s="5"/>
@@ -4989,7 +4790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="345">
+    <row r="88" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
         <v>520</v>
       </c>
@@ -5002,7 +4803,7 @@
       <c r="D88" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="5" t="n">
         <v>1985</v>
       </c>
       <c r="F88" s="5" t="s">
@@ -5021,7 +4822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="135">
+    <row r="89" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
         <v>525</v>
       </c>
@@ -5034,7 +4835,7 @@
       <c r="D89" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="5" t="n">
         <v>1993</v>
       </c>
       <c r="F89" s="5"/>
@@ -5049,7 +4850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="255">
+    <row r="90" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
         <v>528</v>
       </c>
@@ -5060,7 +4861,7 @@
       <c r="D90" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="5" t="n">
         <v>1990</v>
       </c>
       <c r="F90" s="5"/>
@@ -5077,7 +4878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="345">
+    <row r="91" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
         <v>532</v>
       </c>
@@ -5090,7 +4891,7 @@
       <c r="D91" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="5" t="n">
         <v>1973</v>
       </c>
       <c r="F91" s="5"/>
@@ -5107,7 +4908,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="210">
+    <row r="92" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
         <v>537</v>
       </c>
@@ -5120,7 +4921,7 @@
       <c r="D92" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="5" t="n">
         <v>2005</v>
       </c>
       <c r="F92" s="5" t="s">
@@ -5141,7 +4942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="255">
+    <row r="93" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
         <v>542</v>
       </c>
@@ -5154,7 +4955,7 @@
       <c r="D93" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="5" t="n">
         <v>2019</v>
       </c>
       <c r="F93" s="5" t="s">
@@ -5173,7 +4974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="195">
+    <row r="94" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
         <v>548</v>
       </c>
@@ -5186,7 +4987,7 @@
       <c r="D94" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="5" t="n">
         <v>1982</v>
       </c>
       <c r="F94" s="7" t="s">
@@ -5207,7 +5008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="345">
+    <row r="95" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
         <v>555</v>
       </c>
@@ -5220,7 +5021,7 @@
       <c r="D95" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="5" t="n">
         <v>2000</v>
       </c>
       <c r="F95" s="5" t="s">
@@ -5241,7 +5042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="300">
+    <row r="96" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
         <v>561</v>
       </c>
@@ -5254,7 +5055,7 @@
       <c r="D96" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="5" t="n">
         <v>2010</v>
       </c>
       <c r="F96" s="5"/>
@@ -5275,7 +5076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="195">
+    <row r="97" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
         <v>568</v>
       </c>
@@ -5288,7 +5089,7 @@
       <c r="D97" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="5" t="n">
         <v>2004</v>
       </c>
       <c r="F97" s="5" t="s">
@@ -5311,362 +5112,124 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{9D9C0F0C-8946-4177-86F6-38B98FC6EAF6}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{BB24753C-F60E-4389-997E-D758CA652D80}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{369C35BD-51CE-4533-819C-B8DAA4BAA07D}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{B7544070-4B1D-4EEB-9FBB-679969027156}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{22990BBD-4D28-4960-BD91-4BAB88662F2D}"/>
-    <hyperlink ref="G5" r:id="rId6" xr:uid="{BFD2E071-8FB9-45C1-837E-514D7DDD0E31}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{123947DC-AA6B-48D7-B10F-C204B567715B}"/>
-    <hyperlink ref="G6" r:id="rId8" xr:uid="{C3441CDE-99C1-453C-8EA0-898A38FC8239}"/>
-    <hyperlink ref="G8" r:id="rId9" xr:uid="{0EACDA5A-3E7D-44C9-A916-51C12F7A2D60}"/>
-    <hyperlink ref="G7" r:id="rId10" xr:uid="{0E371CFF-5C80-406F-8CAC-CB639079A3E0}"/>
-    <hyperlink ref="G9" r:id="rId11" xr:uid="{9D4D8C79-007E-4B97-AB3D-BE2B073A33CE}"/>
-    <hyperlink ref="G11" r:id="rId12" xr:uid="{87CF7150-DE4D-48E0-8B69-CAE2A777E5BC}"/>
-    <hyperlink ref="G12" r:id="rId13" xr:uid="{0F9FA9A2-651A-47F1-BB01-3C5A88AB5DF4}"/>
-    <hyperlink ref="G10" r:id="rId14" xr:uid="{178F916E-A482-457F-B857-D626AA4E3D51}"/>
-    <hyperlink ref="F14" r:id="rId15" xr:uid="{4FB74470-752E-4506-9422-4336251FBDF2}"/>
-    <hyperlink ref="G14" r:id="rId16" xr:uid="{E871A28E-6E78-4831-8C48-9845EA6F6212}"/>
-    <hyperlink ref="G13" r:id="rId17" xr:uid="{F638769E-D98E-4CE7-9F52-A89C16BCC1E7}"/>
-    <hyperlink ref="G15" r:id="rId18" xr:uid="{105726F1-7CCE-4FC4-9FA8-A00ED8579C41}"/>
-    <hyperlink ref="G16" r:id="rId19" xr:uid="{395D7D64-E60D-46E0-96E0-20E46D7F60C3}"/>
-    <hyperlink ref="F17" r:id="rId20" xr:uid="{786C16F5-6741-446C-BBB7-E39F556D0E74}"/>
-    <hyperlink ref="G17" r:id="rId21" xr:uid="{26E222BE-6AD0-41B8-A1A9-F44A8936BC31}"/>
-    <hyperlink ref="G18" r:id="rId22" xr:uid="{11B55141-D562-4631-8702-6850FFC9769A}"/>
-    <hyperlink ref="F20" r:id="rId23" xr:uid="{F9C84322-D07C-4372-8B0C-4C4EC166D837}"/>
-    <hyperlink ref="G20" r:id="rId24" xr:uid="{A3AAA6B9-0C92-4DCA-8178-019C49A9C730}"/>
-    <hyperlink ref="G19" r:id="rId25" xr:uid="{925F8BAC-61C3-415C-BA15-078BEDC5E738}"/>
-    <hyperlink ref="G21" r:id="rId26" xr:uid="{B9B8C21D-3B94-4B92-A76B-0322371572B9}"/>
-    <hyperlink ref="G22" r:id="rId27" xr:uid="{94F8B8E6-241F-40F8-9DAC-3DB0E5B86A85}"/>
-    <hyperlink ref="G23" r:id="rId28" xr:uid="{DB288C1E-7510-4D31-A91C-393203468225}"/>
-    <hyperlink ref="G24" r:id="rId29" xr:uid="{56C02A88-027A-492C-A9F8-3CB74AB97828}"/>
-    <hyperlink ref="G26" r:id="rId30" xr:uid="{0CDB8A83-79B7-4DAB-9D3D-58B7F192585E}"/>
-    <hyperlink ref="G27" r:id="rId31" xr:uid="{6317772B-75BD-4699-B032-A3E56F217503}"/>
-    <hyperlink ref="G28" r:id="rId32" xr:uid="{C2EFA151-24B2-4242-9FFF-51FCAFDC95D0}"/>
-    <hyperlink ref="G29" r:id="rId33" display="https://d1wqtxts1xzle7.cloudfront.net/31222208/Bhatti.pdf?1367803413=&amp;response-content-disposition=inline%3B+filename%3DImpact_of_employee_participation_on_job.pdf&amp;Expires=1592942435&amp;Signature=VuvoRjLm6NSoKNWC5Y7OozgvadJPDv1XzI8ECTGFIqfDVmB68KQidzGqb1Z4-B-MchWyBQG6acB6M5IKQqsHUwKLksAxAIov7dM6azC7pa5ZO9jPOgafVHnZ2a9I1ELzi5olqNGmSGasBK3j~l4Jng02VBmKb8~VR7GCO8kg14KOGQRtAMBrheog4mERc0FuwFn-~vv04lWLMnBAQsf3V0Vez5kmHdeCcSUNy59ibSCytWYTYyDaR7L~qmNxCY7Bs-4zXkSv92gTyQ-HuKkwKp59WThPWujy06wRKpsn0W9iHwr1MKU30loexl6-zF4A5CsBa1O2IsWHdnrEW2irwA__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{97C083C4-C280-4D0B-A1F6-414AF2974E17}"/>
-    <hyperlink ref="G30" r:id="rId34" xr:uid="{F6FBEC64-505B-4D0B-9F4A-853A63DCE082}"/>
-    <hyperlink ref="F30" r:id="rId35" xr:uid="{064E758B-4B2F-4231-AFC3-6504BF14DDE2}"/>
-    <hyperlink ref="G31" r:id="rId36" xr:uid="{DF565DD7-DCA6-4260-81CA-1E7685F7E09B}"/>
-    <hyperlink ref="G32" r:id="rId37" xr:uid="{5D5D8433-4733-4208-A2BF-712EBCDF5346}"/>
-    <hyperlink ref="G33" r:id="rId38" xr:uid="{A80BB0F6-653F-406D-BAC2-834279FE2BB2}"/>
-    <hyperlink ref="F33" r:id="rId39" xr:uid="{B4912C36-D152-45E8-A1F0-36501D9C5321}"/>
-    <hyperlink ref="G35" r:id="rId40" xr:uid="{D13D57FA-874A-49AD-9DF4-C699E4E239BC}"/>
-    <hyperlink ref="G34" r:id="rId41" xr:uid="{DD7E0D4D-444A-431C-AD7C-0C8A1A15429C}"/>
-    <hyperlink ref="G36" r:id="rId42" xr:uid="{8042ED16-B674-4D1A-AEF3-E1AA1D1DAEE8}"/>
-    <hyperlink ref="F37" r:id="rId43" xr:uid="{E535CE9E-0E04-4C55-A4AB-4465855A62BB}"/>
-    <hyperlink ref="G37" r:id="rId44" location="search=%22job%20performance%20scale%22" display="https://digitalcommons.ilr.cornell.edu/cgi/viewcontent.cgi?article=1146&amp;=&amp;context=cahrswp&amp;=&amp;sei-redir=1&amp;referer=https%253A%252F%252Fscholar.google.com%252Fscholar%253Fhl%253Den%2526as_sdt%253D0%25252C47%2526q%253D%252522job%252Bperformance%252522%252Bscale%2526btnG%253D#search=%22job%20performance%20scale%22" xr:uid="{B2454ADD-1A52-4A7A-A6A6-20C50109245B}"/>
-    <hyperlink ref="G38" r:id="rId45" xr:uid="{ED3F6AD1-8310-462F-8631-46E881116751}"/>
-    <hyperlink ref="G39" r:id="rId46" display="https://www.researchgate.net/profile/Hans_De_Witte/publication/284200846_Job_insecurity_among_temporary_versus_permanent_workers_Effects_on_job_satisfaction_organizational_commitment_life_satisfaction_and_self-rated_performance/links/567a9af408ae1e63f1df4bbc.pdf" xr:uid="{4741E61D-F581-4779-9A99-552EA8048ADE}"/>
-    <hyperlink ref="G40" r:id="rId47" xr:uid="{21DD15CA-0483-433A-B955-46E943AE20DE}"/>
-    <hyperlink ref="G41" r:id="rId48" xr:uid="{8BAE1F01-FB88-49F0-B5B2-9C0C93D9FB3E}"/>
-    <hyperlink ref="F64" r:id="rId49" xr:uid="{B282D74A-9EDA-494A-97E2-52B7A07A0060}"/>
-    <hyperlink ref="G64" r:id="rId50" xr:uid="{2AD19DB7-0AF2-4A98-BA65-F1310B7454C4}"/>
-    <hyperlink ref="G42" r:id="rId51" xr:uid="{5E85EC74-995E-4AC5-B053-C41308C188DF}"/>
-    <hyperlink ref="G43" r:id="rId52" xr:uid="{7A4291D5-6F36-4A49-814D-9BEC69D798D8}"/>
-    <hyperlink ref="G44" r:id="rId53" xr:uid="{98CD95FE-E5B5-45BD-ADF0-BD7B1B9A16A2}"/>
-    <hyperlink ref="H44" r:id="rId54" xr:uid="{40A6040D-95F3-4AD0-858B-A6B559AC9E14}"/>
-    <hyperlink ref="H45" r:id="rId55" xr:uid="{C715B17B-E581-44B2-82D0-74F3E1C56835}"/>
-    <hyperlink ref="G45" r:id="rId56" xr:uid="{1ABB1750-4A47-402B-9D41-9A85B434A851}"/>
-    <hyperlink ref="G46" r:id="rId57" xr:uid="{31B94814-AC5A-45DE-B26A-006417E03A64}"/>
-    <hyperlink ref="G47" r:id="rId58" xr:uid="{58B092B9-DF9A-4128-8217-E1951A7E885E}"/>
-    <hyperlink ref="H47" r:id="rId59" xr:uid="{29857DC0-F3B1-4FDA-A74C-CADB4D37E354}"/>
-    <hyperlink ref="G48" r:id="rId60" xr:uid="{9E541847-3122-4C8E-88E8-4AB6DAB04448}"/>
-    <hyperlink ref="H49" r:id="rId61" xr:uid="{ACB97FFC-D336-42C8-94FC-1889442E67B8}"/>
-    <hyperlink ref="F48" r:id="rId62" xr:uid="{DB25FC1F-2DEC-4D64-AE0D-74A75984127C}"/>
-    <hyperlink ref="G49" r:id="rId63" xr:uid="{B064F88F-23E1-4529-84BF-C8B452AF3346}"/>
-    <hyperlink ref="G50" r:id="rId64" xr:uid="{6D6AC3FD-E9CD-46D0-B1B4-6D0FC2BBBEB9}"/>
-    <hyperlink ref="G52" r:id="rId65" xr:uid="{A1098044-3A3F-4AEF-8F39-E0AFEDD86F20}"/>
-    <hyperlink ref="G51" r:id="rId66" xr:uid="{21CCF79D-12C0-4E27-9796-B6C103C8BE52}"/>
-    <hyperlink ref="G53" r:id="rId67" xr:uid="{45BB30ED-33EB-4639-B812-CC3E6132885D}"/>
-    <hyperlink ref="G54" r:id="rId68" xr:uid="{B73AC624-30CC-4945-8985-D4075A81CFFB}"/>
-    <hyperlink ref="G55" r:id="rId69" xr:uid="{315AEA97-340C-435A-9B67-3D4144AD7E66}"/>
-    <hyperlink ref="G56" r:id="rId70" xr:uid="{F1C20925-9855-45E6-9A19-C569B9255A6C}"/>
-    <hyperlink ref="G57" r:id="rId71" xr:uid="{72694944-0D8C-4B4B-B089-A3492E6CE8EE}"/>
-    <hyperlink ref="G58" r:id="rId72" xr:uid="{51132328-1FC6-4084-BBB5-E13B3F43FDC8}"/>
-    <hyperlink ref="G59" r:id="rId73" xr:uid="{0A170A85-723B-41D0-874C-766434EA1281}"/>
-    <hyperlink ref="G25" r:id="rId74" xr:uid="{223CD232-C111-4720-BA95-9E5F787A6953}"/>
-    <hyperlink ref="G60" r:id="rId75" location="AN=1986070&amp;db=bah" xr:uid="{C5DC0B6B-8800-4E73-8593-315A6B07F95B}"/>
-    <hyperlink ref="G61" r:id="rId76" xr:uid="{460F55B7-92BE-43BD-996E-54BDA3451C5E}"/>
-    <hyperlink ref="G62" r:id="rId77" display="http://ovidsp.dc2.ovid.com.proxy01.its.virginia.edu/sp-4.06.0a/ovidweb.cgi?WebLinkFrameset=1&amp;S=KICHFPCHBJEBDAHLJPBKGGBFKINNAA00&amp;returnUrl=ovidweb.cgi%3f%26Full%2bText%3dL%257cS.sh.28.29%257c0%257c00043764-201012000-00010%26S%3dKICHFPCHBJEBDAHLJPBKGGBFKINNAA00&amp;fromjumpstart=0&amp;directlink=http%3a%2f%2fovidsp.dc2.ovid.com%2fovftpdfs%2fFPEBJPBFGGHLBJ00%2ffs047%2fovft%2flive%2fgv024%2f00043764%2f00043764-201012000-00010.pdf&amp;filename=Development+and+Testing+of+the+Workplace+Stressors+Assessment+Questionnaire.&amp;pdf_key=FPEBJPBFGGHLBJ00&amp;pdf_index=/fs047/ovft/live/gv024/00043764/00043764-201012000-00010" xr:uid="{9298AE1E-BACA-40EB-B220-F7C339D5B1E0}"/>
-    <hyperlink ref="G63" r:id="rId78" xr:uid="{1DF5B840-46E4-447B-B00F-C789BFDF2133}"/>
-    <hyperlink ref="G65" r:id="rId79" xr:uid="{33876149-9D5D-4CA2-98AA-F634C2975114}"/>
-    <hyperlink ref="G66" r:id="rId80" location="AN=6293773&amp;db=a9h" xr:uid="{959DBC70-A1C6-437F-98F8-937DD8B654B4}"/>
-    <hyperlink ref="F67" r:id="rId81" xr:uid="{9159F9F8-37DD-4254-AEA8-4F611705B04F}"/>
-    <hyperlink ref="G67" r:id="rId82" xr:uid="{6DFCB4FC-95AB-4237-981B-118720A52C0B}"/>
-    <hyperlink ref="G68" r:id="rId83" xr:uid="{4BA5230E-E241-4542-9AE4-3B907912947E}"/>
-    <hyperlink ref="G69" r:id="rId84" xr:uid="{9C52081C-AE41-42D9-B67F-E940CB9C21BF}"/>
-    <hyperlink ref="G71" r:id="rId85" xr:uid="{3A4049D3-CC0D-47FE-B27E-1F9AF9778511}"/>
-    <hyperlink ref="F72" r:id="rId86" xr:uid="{76D4E359-CCB2-4933-BD40-A0BA3131ADFA}"/>
-    <hyperlink ref="G73" r:id="rId87" xr:uid="{BB36E7E9-323E-4639-B95A-9DC3549CBA5C}"/>
-    <hyperlink ref="G74" r:id="rId88" xr:uid="{05580E7C-D8AA-484F-ADD2-25E255860BE3}"/>
-    <hyperlink ref="G75" r:id="rId89" xr:uid="{E38BD52E-9CDC-4D79-B304-D4FFE0723FA8}"/>
-    <hyperlink ref="F76" r:id="rId90" xr:uid="{712B01CD-7056-424E-B714-82716DCB6B1F}"/>
-    <hyperlink ref="G76" r:id="rId91" xr:uid="{D1E9DC5F-E433-4451-9F83-91CCFD33BE36}"/>
-    <hyperlink ref="F77" r:id="rId92" xr:uid="{BBAE852E-46C1-40F2-A86A-E58F26847F59}"/>
-    <hyperlink ref="G77" r:id="rId93" xr:uid="{66676F96-9BF5-4D47-9DDA-18604E4FAAD1}"/>
-    <hyperlink ref="G78" r:id="rId94" xr:uid="{E2A39809-D6CC-4EFE-B32D-36385CC232EB}"/>
-    <hyperlink ref="F78" r:id="rId95" xr:uid="{AE9692D6-D94B-4E18-9CF2-13194F338378}"/>
-    <hyperlink ref="G79" r:id="rId96" xr:uid="{F570715E-C248-4043-B82E-4813AEC56DD0}"/>
-    <hyperlink ref="G80" r:id="rId97" xr:uid="{7F22DE30-5F23-4CED-AA0A-ACCBC6E49EE1}"/>
-    <hyperlink ref="G81" r:id="rId98" location="AN=12359433&amp;db=bth" xr:uid="{93A7F9C0-9F31-4B3A-B5A4-1FFC41872F51}"/>
-    <hyperlink ref="G83" r:id="rId99" location="AN=5675494&amp;db=bth" xr:uid="{84B2B565-E937-4074-9B12-2A76322961BB}"/>
-    <hyperlink ref="G84" r:id="rId100" location="AN=141097980&amp;db=edb" xr:uid="{CC0C8976-C39E-40F0-B43D-C64009875AF5}"/>
-    <hyperlink ref="G86" r:id="rId101" location="aep-abstract-id6" xr:uid="{3912D394-881A-4961-A3D3-A1FC3EC063C7}"/>
-    <hyperlink ref="G88" r:id="rId102" location="AN=4317450&amp;db=bth" xr:uid="{8BF158A1-9AC6-43F2-9BF4-CD4B6F18068B}"/>
-    <hyperlink ref="G90" r:id="rId103" xr:uid="{74F9DEE8-DB84-4D08-829E-73C40758830A}"/>
-    <hyperlink ref="G91" r:id="rId104" location="AN=6764155&amp;db=bth" xr:uid="{60123D0D-F2BF-4D09-92CB-E41F204B97C0}"/>
-    <hyperlink ref="G92" r:id="rId105" xr:uid="{1ECC58D1-3059-4233-9EAD-9459D0A6564D}"/>
-    <hyperlink ref="G93" r:id="rId106" xr:uid="{60629ABC-D3AB-4D1A-A8D2-E078CE6B4A01}"/>
-    <hyperlink ref="G94" r:id="rId107" xr:uid="{CC0E085A-73D3-4285-AE3C-038E3DCDE437}"/>
-    <hyperlink ref="F94" r:id="rId108" xr:uid="{8C0B2CE4-45CA-40B0-81A0-A134E044953D}"/>
-    <hyperlink ref="G95" r:id="rId109" location="AN=3772555&amp;db=bth" xr:uid="{D7C2273E-6805-4BEF-9176-BA750140C165}"/>
-    <hyperlink ref="G96" r:id="rId110" xr:uid="{EB6C9DC9-EC7A-4F0B-A34F-1DC97E62E384}"/>
-    <hyperlink ref="G97" r:id="rId111" xr:uid="{4712539A-0622-4397-944F-8595C73FB9ED}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://apps.dtic.mil/dtic/tr/fulltext/u2/736194.pdf"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://doi.org/10.1037/0033-2909.87.1.72"/>
+    <hyperlink ref="G3" r:id="rId3" display="https://us.corwin.com/sites/default/files/upm-binaries/22609_Vol_1_1.pdf"/>
+    <hyperlink ref="F4" r:id="rId4" display="https://doi.org/10.1002/(SICI)1099-1379(200005)21:3&lt;249::AID-JOB10&gt;3.0.CO;2-%23"/>
+    <hyperlink ref="G4" r:id="rId5" display="https://onlinelibrary.wiley.com/doi/pdf/10.1002/(SICI)1099-1379(200005)21:3%3C249::AID-JOB10%3E3.0.CO;2-%23?casa_token=qK7DDRSKrCsAAAAA:NxpwuHQr_mequDF19c-9TactGbJSSMrvoi7KX3NKYwFmdMZoTJYYsi2-v11Vtuf4oTpP7t8NIqSl5PPn8A"/>
+    <hyperlink ref="F5" r:id="rId6" display="https://doi.org/10.1097/00043764-200201000-00004"/>
+    <hyperlink ref="G5" r:id="rId7" display="https://moodle.adaptland.it/pluginfile.php/20585/mod_data/content/39550/2002_Koopman.pdf"/>
+    <hyperlink ref="G6" r:id="rId8" display="https://www.opm.gov/policy-data-oversight/performance-management/measuring/employee_performance_handbook.pdf"/>
+    <hyperlink ref="G7" r:id="rId9" display="https://www.researchgate.net/profile/Frank_Schmidt10/publication/263924230_Halo_in_a_Multidimensional_Forced-Choice_Performance_Evaluation_Scale/links/53f8c5500cf24ddba7db48b9.pdf"/>
+    <hyperlink ref="G8" r:id="rId10" display="https://hr.nih.gov/sites/default/files/public/documents/workforce/performance-management/pdf/hhspmaphandbook.pdf"/>
+    <hyperlink ref="G9" r:id="rId11" display="https://www.dm.usda.gov/employ/employeerelations/docs/Guide-ExPerfPlans.pdf"/>
+    <hyperlink ref="G10" r:id="rId12" display="https://www.researchgate.net/profile/Russell_Cropanzano/publication/12655756_Psychological_well-being_and_job_satisfaction_as_predictors_of_job_performance/links/0deec533ae242ccfd3000000.pdf"/>
+    <hyperlink ref="G11" r:id="rId13" display="https://onlinelibrary-wiley-com.proxy01.its.virginia.edu/doi/epdf/10.1111/j.1365-2648.2007.04256.x"/>
+    <hyperlink ref="G12" r:id="rId14" display="https://www.gao.gov/assets/130/121710.pdf"/>
+    <hyperlink ref="G13" r:id="rId15" display="https://apps.dtic.mil/dtic/tr/fulltext/u2/a072843.pdf"/>
+    <hyperlink ref="F14" r:id="rId16" display="https://doi.org/10.1111/j.1744-6570.1980.tb02351.x"/>
+    <hyperlink ref="G14" r:id="rId17" display="https://content.ebscohost.com/ContentServer.asp?EbscoContent=dGJyMNXb4kSep7U4yOvsOLCmsEiep69Sr6u4TbWWxWXS&amp;ContentCustomer=dGJyMPGpsUm0qq5NuePfgeyx847f1d%2BI5wAA&amp;T=P&amp;P=AN&amp;S=R&amp;D=bth&amp;K=6264292"/>
+    <hyperlink ref="G15" r:id="rId18" display="https://pdfs.semanticscholar.org/c310/50a9e0ca35f8875891718cf6bd8193ada7cc.pdf"/>
+    <hyperlink ref="G16" r:id="rId19" display="https://www.energy.gov/sites/prod/files/2015/04/f22/Supervisory_Non-Supervisory%20Employee%20Performance%20Management%20and%20Recognition%20Program%20Desk%20Reference%2010-01-2010%20v2.pdf"/>
+    <hyperlink ref="F17" r:id="rId20" display="https://psycnet-apa-org.proxy01.its.virginia.edu/doi/10.1037/0021-9010.78.4.538"/>
+    <hyperlink ref="G17" r:id="rId21" display="https://psycnet-apa-org.proxy01.its.virginia.edu/fulltext/1993-47410-001.html"/>
+    <hyperlink ref="G18" r:id="rId22" display="https://onlinelibrary.wiley.com/doi/full/10.1002/ets2.12210"/>
+    <hyperlink ref="G19" r:id="rId23" display="https://www.maxwell.syr.edu/uploadedFiles/conferences/pmrc/Files/Rubin_Appraising%20Performance%20Appraisal%20Systems.pdf"/>
+    <hyperlink ref="F20" r:id="rId24" display="https://psycnet-apa-org.proxy01.its.virginia.edu/doi/10.1037/0021-9010.71.3.500"/>
+    <hyperlink ref="G20" r:id="rId25" display="https://psycnet-apa-org.proxy01.its.virginia.edu/fulltext/1986-31507-001.pdf"/>
+    <hyperlink ref="G21" r:id="rId26" display="https://www.opm.gov/policy-data-oversight/assessment-and-selection/structured-interviews/guide.pdf"/>
+    <hyperlink ref="G22" r:id="rId27" display="https://www.doi.gov/sites/doi.gov/files/elips/documents/doi_performance_appraisal_handbook_10-2016.pdf"/>
+    <hyperlink ref="G23" r:id="rId28" display="https://www.predictiveindex.com/assessments/behavioral-assessment/"/>
+    <hyperlink ref="G24" r:id="rId29" display="https://www.cognoshr.com/assessment-tools"/>
+    <hyperlink ref="G25" r:id="rId30" display="https://journals.sagepub.com/doi/full/10.1177/0163278716643825"/>
+    <hyperlink ref="G26" r:id="rId31" display="http://cdn2.hubspot.net/hub/155091/file-608530384-pdf/docs/pxt"/>
+    <hyperlink ref="G27" r:id="rId32" display="https://apps.dtic.mil/sti/pdfs/ADA076980.pdf"/>
+    <hyperlink ref="G28" r:id="rId33" display="https://apps.dtic.mil/sti/pdfs/ADA186100.pdf"/>
+    <hyperlink ref="G29" r:id="rId34" display="https://d1wqtxts1xzle7.cloudfront.net/31222208/Bhatti.pdf?1367803413=&amp;response-content-disposition=inline%3B+filename%3DImpact_of_employee_participation_on_job.pdf&amp;Expires=1592942435&amp;Signature=VuvoRjLm6NSoKNWC5Y7OozgvadJPDv1XzI8ECTGFIqfDVmB68KQidzGqb1Z4-B-MchWyBQG6acB6M5IKQqsHUwKLksAxAIov7dM6azC7pa5ZO9jPOgafVHnZ2a9I1ELzi5olqNGmSGasBK3j~l4Jng02VBmKb8~VR7GCO8kg14KOGQRtAMBrheog4mERc0FuwFn-~vv04lWLMnBAQsf3V0Vez5kmHdeCcSUNy59ibSCytWYTYyDaR7L~qmNxCY7Bs-4zXkSv92gTyQ-HuKkwKp59WThPWujy06wRKpsn0W9iHwr1MKU30loexl6-zF4A5CsBa1O2IsWHdnrEW2irwA__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA"/>
+    <hyperlink ref="F30" r:id="rId35" display="https://doi.org/10.1207/s15327043hup0601_1"/>
+    <hyperlink ref="G30" r:id="rId36" display="http://jacksonfall14professionalissues.pbworks.com/w/file/fetch/106744248/Borman_20_26_20Brush_20%281993%29.pdf"/>
+    <hyperlink ref="G31" r:id="rId37" display="https://apps.dtic.mil/sti/pdfs/ADA194951.pdf"/>
+    <hyperlink ref="G32" r:id="rId38" display="http://proxy01.its.virginia.edu/login?url=http://search.ebscohost.com/login.aspx?direct=true&amp;db=a9h&amp;AN=121086285&amp;site=ehost-live&amp;scope=site"/>
+    <hyperlink ref="F33" r:id="rId39" display="https://doi.org/10.1037/0021-9010.81.5.557"/>
+    <hyperlink ref="G33" r:id="rId40" display="https://www.researchgate.net/profile/Chockalingam_vish_Viswesvaran/publication/232489357_Comparative_Analysis_of_Reliability_of_Job_Performance_Ratings/links/54e250530cf2c3e7d2d3723c.pdf"/>
+    <hyperlink ref="G34" r:id="rId41" display="https://link.springer.com/content/pdf/10.1007/s10926-012-9373-1.pdf"/>
+    <hyperlink ref="G35" r:id="rId42" display="https://www.hcp.med.harvard.edu/hpq/ftpdir/survey_clinical_7day.pdf"/>
+    <hyperlink ref="G36" r:id="rId43" display="https://search-proquest-com.proxy01.its.virginia.edu/docview/78956500/499BA4C1A5AA4CC6PQ/1?accountid=14678"/>
+    <hyperlink ref="F37" r:id="rId44" display="https://doi.org/10.5465/256941"/>
+    <hyperlink ref="G37" r:id="rId45" location="search=%22job%20performance%20scale%22" display="https://digitalcommons.ilr.cornell.edu/cgi/viewcontent.cgi?article=1146&amp;=&amp;context=cahrswp&amp;=&amp;sei-redir=1&amp;referer=https%253A%252F%252Fscholar.google.com%252Fscholar%253Fhl%253Den%2526as_sdt%253D0%25252C47%2526q%253D%252522job%252Bperformance%252522%252Bscale%2526btnG%253D#search=%22job%20performance%20scale%22"/>
+    <hyperlink ref="G38" r:id="rId46" display="https://www.sciencedirect.com/science/article/abs/pii/S0001879111000789"/>
+    <hyperlink ref="G39" r:id="rId47" display="https://www.researchgate.net/profile/Hans_De_Witte/publication/284200846_Job_insecurity_among_temporary_versus_permanent_workers_Effects_on_job_satisfaction_organizational_commitment_life_satisfaction_and_self-rated_performance/links/567a9af408ae1e63f1df4bbc.pdf"/>
+    <hyperlink ref="G40" r:id="rId48" display="http://web.b.ebscohost.com.proxy01.its.virginia.edu/ehost/pdfviewer/pdfviewer?vid=1&amp;sid=ee90d1d7-372c-4fab-a303-9bda115ddc08%40pdc-v-sessmgr01"/>
+    <hyperlink ref="G41" r:id="rId49" display="http://safewellwork.com/instruments_for_assessment.pdf"/>
+    <hyperlink ref="G42" r:id="rId50" display="http://jwalkonline.org/docs/Grad%20Classes/Survey/articles/psyclimate/noted/org%20comm%20scale.pdf"/>
+    <hyperlink ref="G43" r:id="rId51" display="http://www.academia.edu/download/42428138/Personality_Political_Skill_and_Job_Perf20160208-1018-1cxqc6k.pdf"/>
+    <hyperlink ref="G44" r:id="rId52" display="https://www.hse.gov.uk/stress/standards/downloads.htm"/>
+    <hyperlink ref="H44" r:id="rId53" display="https://www.hse.gov.uk/stress/assets/docs/indicatortool.pdf"/>
+    <hyperlink ref="G45" r:id="rId54" display="https://www.qps-nordic.org/en/"/>
+    <hyperlink ref="H45" r:id="rId55" display="https://www.qps-nordic.org/en/doc/QPSNordic_questionnaire.pdf"/>
+    <hyperlink ref="G46" r:id="rId56" display="https://apps.dtic.mil/sti/pdfs/AD0779828.pdf"/>
+    <hyperlink ref="G47" r:id="rId57" display="https://www.cdc.gov/niosh/topics/workorg/detail088.html"/>
+    <hyperlink ref="H47" r:id="rId58" display="https://www.cdc.gov/niosh/topics/workorg/tools/pdfs/NIOSH-Generic-Job-Stress-Questionaire.pdf"/>
+    <hyperlink ref="F48" r:id="rId59" display="https://doi.org/10.1037/1076-8998.12.2.93"/>
+    <hyperlink ref="G48" r:id="rId60" display="https://psycnet.apa.org/record/2007-05780-001"/>
+    <hyperlink ref="G49" r:id="rId61" display="https://www.worksafe.qld.gov.au/injury-prevention-safety/mentally-healthy-workplaces/guidance-and-tools/people-at-work/implementing-people-at-work"/>
+    <hyperlink ref="H49" r:id="rId62" display="https://www.worksafe.qld.gov.au/__data/assets/pdf_file/0009/128286/paw-survey.pdf"/>
+    <hyperlink ref="G50" r:id="rId63" display="https://psycnet.apa.org/record/1999-15533-008"/>
+    <hyperlink ref="G51" r:id="rId64" display="https://www.boeckler.de/pdf/p_arbp_174.pdf"/>
+    <hyperlink ref="G52" r:id="rId65" display="http://repositorio.ismt.pt/bitstream/123456789/637/5/Anexo4_PMI_-_English%5B1%5D.pdf"/>
+    <hyperlink ref="G53" r:id="rId66" display="http://www.workplacementalhealth.org/getattachment/Case-Studies/Pittsburgh-Plate-Glass-Industries-(PPG)-II/fd_ssos.pdf?lang=en-US&amp;ext=.pdf"/>
+    <hyperlink ref="G54" r:id="rId67" display="https://www.gov.nl.ca/exec/hrs/files/publications-wes2011.pdf"/>
+    <hyperlink ref="G55" r:id="rId68" display="http://www.woccq.be/woccq/les-questionnaires.html"/>
+    <hyperlink ref="G56" r:id="rId69" display="http://www.jstor.com/stable/40967527"/>
+    <hyperlink ref="G57" r:id="rId70" display="https://www-sciencedirect-com.proxy01.its.virginia.edu/science/article/pii/S0277953603003514"/>
+    <hyperlink ref="G58" r:id="rId71" display="https://www-jstor-org.proxy01.its.virginia.edu/stable/255772"/>
+    <hyperlink ref="G59" r:id="rId72" display="https://core.ac.uk/download/pdf/34610119.pdf"/>
+    <hyperlink ref="G60" r:id="rId73" location="AN=1986070&amp;db=bah" display="http://web.a.ebscohost.com.proxy01.its.virginia.edu/ehost/detail/detail?vid=3&amp;sid=8feb08f9-1292-457b-bc28-e2a5da6bd874%40sessionmgr4006&amp;bdata=JnNpdGU9ZWhvc3QtbGl2ZSZzY29wZT1zaXRl#AN=1986070&amp;db=bah"/>
+    <hyperlink ref="G61" r:id="rId74" display="https://www.researchgate.net/publication/6928049_Work_design_and_management_in_the_manufacturing_sector_Development_and_validation_of_the_Work_Organisation_Assessment_Questionnaire"/>
+    <hyperlink ref="G62" r:id="rId75" display="http://ovidsp.dc2.ovid.com.proxy01.its.virginia.edu/sp-4.06.0a/ovidweb.cgi?WebLinkFrameset=1&amp;S=KICHFPCHBJEBDAHLJPBKGGBFKINNAA00&amp;returnUrl=ovidweb.cgi%3f%26Full%2bText%3dL%257cS.sh.28.29%257c0%257c00043764-201012000-00010%26S%3dKICHFPCHBJEBDAHLJPBKGGBFKINNAA00&amp;fromjumpstart=0&amp;directlink=http%3a%2f%2fovidsp.dc2.ovid.com%2fovftpdfs%2fFPEBJPBFGGHLBJ00%2ffs047%2fovft%2flive%2fgv024%2f00043764%2f00043764-201012000-00010.pdf&amp;filename=Development+and+Testing+of+the+Workplace+Stressors+Assessment+Questionnaire.&amp;pdf_key=FPEBJPBFGGHLBJ00&amp;pdf_index=/fs047/ovft/live/gv024/00043764/00043764-201012000-00010"/>
+    <hyperlink ref="G63" r:id="rId76" display="https://apps.dtic.mil/dtic/tr/fulltext/u2/a057377.pdf"/>
+    <hyperlink ref="F64" r:id="rId77" display="https://doi-org.proxy01.its.virginia.edu/10.1108/01437729710182260"/>
+    <hyperlink ref="G64" r:id="rId78" display="https://www-emerald-com.proxy01.its.virginia.edu/insight/content/doi/10.1108/01437729710182260/full/pdf?title=handbook-of-organizational-measurement"/>
+    <hyperlink ref="G65" r:id="rId79" display="https://content.ebscohost.com/ContentServer.asp?EbscoContent=dGJyMNLr40SeprU4yOvqOLCmsEiep65Ssay4SrSWxWXS&amp;ContentCustomer=dGJyMPGpsUm0qq5NuePfgeyx847f1d%2BI5wAA&amp;T=P&amp;P=AN&amp;S=R&amp;D=bth&amp;K=4619368"/>
+    <hyperlink ref="G66" r:id="rId80" location="AN=6293773&amp;db=a9h" display="http://web.b.ebscohost.com.proxy01.its.virginia.edu/ehost/detail/detail?vid=4&amp;sid=c91d799d-00d7-457d-acfb-9d6752caa7b0%40pdc-v-sessmgr06&amp;bdata=JnNpdGU9ZWhvc3QtbGl2ZSZzY29wZT1zaXRl#AN=6293773&amp;db=a9h"/>
+    <hyperlink ref="F67" r:id="rId81" display="https://doi.org/10.1111/j.2044-8325.1990.tb00506.x"/>
+    <hyperlink ref="G67" r:id="rId82" display="https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=b952747e-91eb-4e1b-8288-87893f08db24%40pdc-v-sessmgr02"/>
+    <hyperlink ref="G68" r:id="rId83" display="https://www.bgsu.edu/arts-and-sciences/psychology/services/job-descriptive-index.html"/>
+    <hyperlink ref="G69" r:id="rId84" display="https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=69df4cdb-22b3-465a-bd59-89640574f343%40pdc-v-sessmgr01"/>
+    <hyperlink ref="G71" r:id="rId85" display="https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=61f1fbd7-63bc-487d-90e7-2400ac5aa37b%40sessionmgr103"/>
+    <hyperlink ref="F72" r:id="rId86" display="https://doi.org/10.1177/001872679604900704"/>
+    <hyperlink ref="G73" r:id="rId87" display="http://vpr.psych.umn.edu/sites/vpr.dl.umn.edu/files/msq_booklet_1977.pdf"/>
+    <hyperlink ref="G74" r:id="rId88" display="https://www.cdc.gov/niosh/topics/stress/pdfs/QWL2010.pdf"/>
+    <hyperlink ref="G75" r:id="rId89" display="https://babel.hathitrust.org/cgi/pt?id=mdp.39015027386724&amp;view=1up&amp;seq=349"/>
+    <hyperlink ref="F76" r:id="rId90" display="https://doi.org/10.1037/h0055617"/>
+    <hyperlink ref="G76" r:id="rId91" display="https://psycnet.apa.org/record/1952-04202-001"/>
+    <hyperlink ref="F77" r:id="rId92" display="https://doi.org/10.1037/0021-9010.74.4.561"/>
+    <hyperlink ref="G77" r:id="rId93" display="https://doi.apa.org/doiLanding?doi=10.1037%2F0021-9010.74.4.561"/>
+    <hyperlink ref="F78" r:id="rId94" display="https://doi.org/10.1177/001872678503800604"/>
+    <hyperlink ref="G78" r:id="rId95" display="https://journals.sagepub.com/doi/abs/10.1177/001872678503800604"/>
+    <hyperlink ref="G79" r:id="rId96" display="https://www.researchgate.net/publication/308058711_The_Effects_of_Job_Autonomy_on_Work_Outcomes_Self_Efficacy_as_an_Intervening_Variable"/>
+    <hyperlink ref="G80" r:id="rId97" display="https://www.jstor.org/stable/256489"/>
+    <hyperlink ref="G81" r:id="rId98" location="AN=12359433&amp;db=bth" display="https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=2&amp;sid=20055b15-eaa5-498b-a827-3bcd1c70170d%40sdc-v-sessmgr01&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=12359433&amp;db=bth"/>
+    <hyperlink ref="G83" r:id="rId99" location="AN=5675494&amp;db=bth" display="https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=0&amp;sid=87f995ff-15bf-48e0-8790-d06840edbbba%40sessionmgr4006&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=5675494&amp;db=bth"/>
+    <hyperlink ref="G84" r:id="rId100" location="AN=141097980&amp;db=edb" display="https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=0&amp;sid=85a1ed86-39b9-4dd4-9f21-e9d5125aa9f8%40sdc-v-sessmgr02&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=141097980&amp;db=edb"/>
+    <hyperlink ref="G86" r:id="rId101" location="aep-abstract-id6" display="https://www.sciencedirect.com/science/article/abs/pii/S0749597883710010#aep-abstract-id6"/>
+    <hyperlink ref="G88" r:id="rId102" location="AN=4317450&amp;db=bth" display="https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=2&amp;sid=3e3750a2-a959-4eb6-81c2-ebe53f7b2db7%40sdc-v-sessmgr03&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=4317450&amp;db=bth"/>
+    <hyperlink ref="G90" r:id="rId103" display="https://archive.org/details/culturecontrolco0000linc/page/n9/mode/2up"/>
+    <hyperlink ref="G91" r:id="rId104" location="AN=6764155&amp;db=bth" display="https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=2&amp;sid=229a35bc-aade-4811-9444-ff51426686b3%40pdc-v-sessmgr03&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=6764155&amp;db=bth"/>
+    <hyperlink ref="G92" r:id="rId105" display="https://www.researchgate.net/publication/7994341_The_Construct_of_Work_Commitment_Testing_an_Integrative_Framework"/>
+    <hyperlink ref="G93" r:id="rId106" display="https://eds-a-ebscohost-com.proxy01.its.virginia.edu/eds/pdfviewer/pdfviewer?vid=1&amp;sid=1f364185-01f6-46f1-b2a2-35e3b1f86cb8%40sdc-v-sessmgr02"/>
+    <hyperlink ref="F94" r:id="rId107" display="https://doi.org/10.1016/0148-2963(82)90039-X"/>
+    <hyperlink ref="G94" r:id="rId108" display="https://www-sciencedirect-com.proxy01.its.virginia.edu/science/article/abs/pii/014829638290039X?via%3Dihub"/>
+    <hyperlink ref="G95" r:id="rId109" location="AN=3772555&amp;db=bth" display="https://eds-b-ebscohost-com.proxy01.its.virginia.edu/eds/detail/detail?vid=0&amp;sid=8e7d9f08-67a5-4c3a-ac47-c39ea779276e%40pdc-v-sessmgr06&amp;bdata=JnNpdGU9ZWRzLWxpdmU%3d#AN=3772555&amp;db=bth"/>
+    <hyperlink ref="G96" r:id="rId110" display="https://scholarworks.waldenu.edu/cgi/viewcontent.cgi?referer=https://www.ecosia.org/&amp;httpsredir=1&amp;article=1728&amp;context=dissertations"/>
+    <hyperlink ref="G97" r:id="rId111" display="https://pdfs.semanticscholar.org/f93d/6fecee21ce101da05f99db571a32449c3be3.pdf"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4C7EABC70075D478B747307275858D0" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87112c42fa20847ffdaa2dcf1f294382">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b84ec8a-a026-44fa-8a36-37fd9b34b733" xmlns:ns3="c2922497-efa2-49d8-8f2a-b8a322d29f44" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a5e406d4643ea691fc87860beef6454" ns2:_="" ns3:_="">
-    <xsd:import namespace="8b84ec8a-a026-44fa-8a36-37fd9b34b733"/>
-    <xsd:import namespace="c2922497-efa2-49d8-8f2a-b8a322d29f44"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8b84ec8a-a026-44fa-8a36-37fd9b34b733" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c2922497-efa2-49d8-8f2a-b8a322d29f44" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF0F5FE-AF34-46E2-8222-558DB2CB699E}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A777C7A-5F1C-4C66-8D46-A12B97362B4E}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF8CB4C6-DCBB-4101-90FC-6283BE974D97}"/>
 </file>